--- a/Transmisivitty.xlsx
+++ b/Transmisivitty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Drive new F\AAP23-24\SIH 2023\Data for SIH 2023-CGWB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKSHAY\Downloads\SIH 2023 Datasets\SIH 2023 Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0EF47F5-15FB-4D73-A0B1-901F6384DA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3564A5BC-D506-4912-83BA-1BE925A4580A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9142C846-3247-4A66-8682-2AAC5039F0AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9142C846-3247-4A66-8682-2AAC5039F0AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -735,40 +726,40 @@
   <dimension ref="A1:BG973"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+      <selection activeCell="Q43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
     <col min="16" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
     <col min="20" max="25" width="12" customWidth="1"/>
     <col min="26" max="26" width="14" customWidth="1"/>
     <col min="27" max="28" width="12" customWidth="1"/>
-    <col min="29" max="29" width="10.85546875" customWidth="1"/>
+    <col min="29" max="29" width="10.88671875" customWidth="1"/>
     <col min="30" max="33" width="12" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" customWidth="1"/>
+    <col min="34" max="34" width="13.109375" customWidth="1"/>
     <col min="35" max="37" width="12" customWidth="1"/>
-    <col min="38" max="38" width="10.85546875" customWidth="1"/>
+    <col min="38" max="38" width="10.88671875" customWidth="1"/>
     <col min="39" max="56" width="12" customWidth="1"/>
-    <col min="57" max="57" width="12.7109375" customWidth="1"/>
-    <col min="58" max="58" width="18.85546875" customWidth="1"/>
-    <col min="59" max="59" width="25.140625" customWidth="1"/>
+    <col min="57" max="57" width="12.6640625" customWidth="1"/>
+    <col min="58" max="58" width="18.88671875" customWidth="1"/>
+    <col min="59" max="59" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -945,7 +936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -998,7 +989,9 @@
         <v>850</v>
       </c>
       <c r="R2" s="4"/>
-      <c r="S2" s="1"/>
+      <c r="S2" s="1">
+        <v>4</v>
+      </c>
       <c r="T2" s="1">
         <v>500</v>
       </c>
@@ -1078,7 +1071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1129,7 +1122,9 @@
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="1"/>
+      <c r="S3" s="1">
+        <v>4</v>
+      </c>
       <c r="T3" s="1">
         <v>507</v>
       </c>
@@ -1151,7 +1146,9 @@
         <v>42</v>
       </c>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="1"/>
+      <c r="AC3" s="1">
+        <v>6</v>
+      </c>
       <c r="AD3" s="1">
         <v>320</v>
       </c>
@@ -1207,7 +1204,7 @@
       </c>
       <c r="BG3" s="1"/>
     </row>
-    <row r="4" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1238,7 +1235,9 @@
       <c r="J4" s="3">
         <v>10</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
       <c r="L4" s="1">
         <v>1810</v>
       </c>
@@ -1256,7 +1255,9 @@
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="1"/>
+      <c r="S4" s="1">
+        <v>4</v>
+      </c>
       <c r="T4" s="1">
         <v>180</v>
       </c>
@@ -1340,7 +1341,7 @@
       </c>
       <c r="BG4" s="1"/>
     </row>
-    <row r="5" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1371,7 +1372,9 @@
       <c r="J5" s="3">
         <v>8</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
       <c r="L5" s="1">
         <v>720</v>
       </c>
@@ -1393,7 +1396,9 @@
       <c r="R5" s="4">
         <v>1.7700000000000001E-3</v>
       </c>
-      <c r="S5" s="1"/>
+      <c r="S5" s="1">
+        <v>4</v>
+      </c>
       <c r="T5" s="1">
         <v>180</v>
       </c>
@@ -1415,7 +1420,9 @@
         <v>42</v>
       </c>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="1"/>
+      <c r="AC5" s="1">
+        <v>6</v>
+      </c>
       <c r="AD5" s="1">
         <v>290</v>
       </c>
@@ -1473,7 +1480,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="6" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1504,7 +1511,9 @@
       <c r="J6" s="3">
         <v>8</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
       <c r="L6" s="1">
         <v>1230</v>
       </c>
@@ -1522,7 +1531,9 @@
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="1"/>
+      <c r="S6" s="1">
+        <v>4</v>
+      </c>
       <c r="T6" s="1">
         <v>830</v>
       </c>
@@ -1606,7 +1617,7 @@
       </c>
       <c r="BG6" s="1"/>
     </row>
-    <row r="7" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1637,7 +1648,9 @@
       <c r="J7" s="3">
         <v>9</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
       <c r="L7" s="1">
         <v>560</v>
       </c>
@@ -1655,7 +1668,9 @@
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1">
+        <v>4</v>
+      </c>
       <c r="T7" s="1">
         <v>200</v>
       </c>
@@ -1681,7 +1696,9 @@
       <c r="AB7" s="5">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="AC7" s="1"/>
+      <c r="AC7" s="1">
+        <v>6</v>
+      </c>
       <c r="AD7" s="1">
         <v>350</v>
       </c>
@@ -1743,7 +1760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -1774,7 +1791,9 @@
       <c r="J8" s="3">
         <v>8</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
       <c r="L8" s="1">
         <v>1100</v>
       </c>
@@ -1792,7 +1811,9 @@
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="1"/>
+      <c r="S8" s="1">
+        <v>4</v>
+      </c>
       <c r="T8" s="1">
         <v>1800</v>
       </c>
@@ -1876,7 +1897,7 @@
       </c>
       <c r="BG8" s="1"/>
     </row>
-    <row r="9" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1907,7 +1928,9 @@
       <c r="J9" s="3">
         <v>10</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
       <c r="L9" s="1">
         <v>1250</v>
       </c>
@@ -1925,7 +1948,9 @@
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="1"/>
+      <c r="S9" s="1">
+        <v>4</v>
+      </c>
       <c r="T9" s="1">
         <v>650</v>
       </c>
@@ -1947,7 +1972,9 @@
         <v>42</v>
       </c>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="1"/>
+      <c r="AC9" s="1">
+        <v>6</v>
+      </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="1"/>
@@ -1999,7 +2026,7 @@
       </c>
       <c r="BG9" s="1"/>
     </row>
-    <row r="10" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -2072,7 +2099,9 @@
         <v>42</v>
       </c>
       <c r="AB10" s="5"/>
-      <c r="AC10" s="1"/>
+      <c r="AC10" s="1">
+        <v>6</v>
+      </c>
       <c r="AD10" s="1">
         <v>690</v>
       </c>
@@ -2128,7 +2157,7 @@
       </c>
       <c r="BG10" s="1"/>
     </row>
-    <row r="11" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -2159,7 +2188,9 @@
       <c r="J11" s="3">
         <v>10</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
       <c r="L11" s="1">
         <v>1040</v>
       </c>
@@ -2177,7 +2208,9 @@
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="1"/>
+      <c r="S11" s="1">
+        <v>4</v>
+      </c>
       <c r="T11" s="1">
         <v>250</v>
       </c>
@@ -2199,7 +2232,9 @@
         <v>42</v>
       </c>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="1"/>
+      <c r="AC11" s="1">
+        <v>6</v>
+      </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="1"/>
@@ -2255,7 +2290,7 @@
       </c>
       <c r="BG11" s="1"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2286,7 +2321,9 @@
       <c r="J12" s="3">
         <v>11</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
       <c r="L12" s="1">
         <v>1450</v>
       </c>
@@ -2304,7 +2341,9 @@
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="1"/>
+      <c r="S12" s="1">
+        <v>4</v>
+      </c>
       <c r="T12" s="1">
         <v>530</v>
       </c>
@@ -2326,7 +2365,9 @@
         <v>42</v>
       </c>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="1"/>
+      <c r="AC12" s="1">
+        <v>6</v>
+      </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="1"/>
@@ -2378,7 +2419,7 @@
       </c>
       <c r="BG12" s="1"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -2409,7 +2450,9 @@
       <c r="J13" s="3">
         <v>10</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
       <c r="L13" s="1">
         <v>2210</v>
       </c>
@@ -2427,7 +2470,9 @@
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1">
+        <v>4</v>
+      </c>
       <c r="T13" s="1">
         <v>1030</v>
       </c>
@@ -2447,7 +2492,9 @@
         <v>42</v>
       </c>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="1"/>
+      <c r="AC13" s="1">
+        <v>6</v>
+      </c>
       <c r="AD13" s="1">
         <v>700</v>
       </c>
@@ -2503,7 +2550,7 @@
       </c>
       <c r="BG13" s="1"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -2534,7 +2581,9 @@
       <c r="J14" s="3">
         <v>11</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
       <c r="L14" s="1">
         <v>560</v>
       </c>
@@ -2554,7 +2603,9 @@
         <v>950</v>
       </c>
       <c r="R14" s="4"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1">
+        <v>4</v>
+      </c>
       <c r="T14" s="1">
         <v>860</v>
       </c>
@@ -2574,7 +2625,9 @@
         <v>42</v>
       </c>
       <c r="AB14" s="5"/>
-      <c r="AC14" s="1"/>
+      <c r="AC14" s="1">
+        <v>6</v>
+      </c>
       <c r="AD14" s="1">
         <v>560</v>
       </c>
@@ -2630,7 +2683,7 @@
       </c>
       <c r="BG14" s="1"/>
     </row>
-    <row r="15" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -2661,7 +2714,9 @@
       <c r="J15" s="3">
         <v>9</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
       <c r="L15" s="1">
         <v>577</v>
       </c>
@@ -2703,7 +2758,9 @@
         <v>42</v>
       </c>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="6"/>
+      <c r="AC15" s="1">
+        <v>6</v>
+      </c>
       <c r="AD15" s="1">
         <v>350</v>
       </c>
@@ -2763,7 +2820,7 @@
       </c>
       <c r="BG15" s="1"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -2896,7 +2953,7 @@
       </c>
       <c r="BG16" s="1"/>
     </row>
-    <row r="17" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -2927,7 +2984,9 @@
       <c r="J17" s="3">
         <v>8</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1">
+        <v>2</v>
+      </c>
       <c r="L17" s="1">
         <v>950</v>
       </c>
@@ -2947,7 +3006,9 @@
         <v>2000</v>
       </c>
       <c r="R17" s="4"/>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1">
+        <v>4</v>
+      </c>
       <c r="T17" s="1">
         <v>160</v>
       </c>
@@ -2969,7 +3030,9 @@
         <v>42</v>
       </c>
       <c r="AB17" s="5"/>
-      <c r="AC17" s="1"/>
+      <c r="AC17" s="1">
+        <v>6</v>
+      </c>
       <c r="AD17" s="1">
         <v>380</v>
       </c>
@@ -3025,7 +3088,7 @@
       </c>
       <c r="BG17" s="1"/>
     </row>
-    <row r="18" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -3056,7 +3119,9 @@
       <c r="J18" s="3">
         <v>8</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1">
+        <v>2</v>
+      </c>
       <c r="L18" s="1">
         <v>950</v>
       </c>
@@ -3076,7 +3141,9 @@
         <v>650</v>
       </c>
       <c r="R18" s="4"/>
-      <c r="S18" s="1"/>
+      <c r="S18" s="1">
+        <v>4</v>
+      </c>
       <c r="T18" s="1">
         <v>500</v>
       </c>
@@ -3154,7 +3221,7 @@
       </c>
       <c r="BG18" s="1"/>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -3185,7 +3252,9 @@
       <c r="J19" s="3">
         <v>8</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1">
+        <v>2</v>
+      </c>
       <c r="L19" s="1">
         <v>982</v>
       </c>
@@ -3203,7 +3272,9 @@
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="1"/>
+      <c r="S19" s="1">
+        <v>4</v>
+      </c>
       <c r="T19" s="1">
         <v>218</v>
       </c>
@@ -3281,7 +3352,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -3312,7 +3383,9 @@
       <c r="J20" s="3">
         <v>8</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1">
+        <v>2</v>
+      </c>
       <c r="L20" s="1">
         <v>450</v>
       </c>
@@ -3414,7 +3487,7 @@
       </c>
       <c r="BG20" s="1"/>
     </row>
-    <row r="21" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -3445,7 +3518,9 @@
       <c r="J21" s="3">
         <v>8</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1">
+        <v>2</v>
+      </c>
       <c r="L21" s="1">
         <v>920</v>
       </c>
@@ -3463,7 +3538,9 @@
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="1"/>
+      <c r="S21" s="1">
+        <v>4</v>
+      </c>
       <c r="T21" s="1">
         <v>350</v>
       </c>
@@ -3543,7 +3620,7 @@
       </c>
       <c r="BG21" s="1"/>
     </row>
-    <row r="22" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,7 +3651,9 @@
       <c r="J22" s="3">
         <v>8</v>
       </c>
-      <c r="K22" s="1"/>
+      <c r="K22" s="1">
+        <v>2</v>
+      </c>
       <c r="L22" s="1">
         <v>577</v>
       </c>
@@ -3592,7 +3671,9 @@
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="1"/>
+      <c r="S22" s="1">
+        <v>4</v>
+      </c>
       <c r="T22" s="1">
         <v>400</v>
       </c>
@@ -3668,7 +3749,7 @@
       </c>
       <c r="BG22" s="1"/>
     </row>
-    <row r="23" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -3699,7 +3780,9 @@
       <c r="J23" s="3">
         <v>11</v>
       </c>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
       <c r="L23" s="1">
         <v>398</v>
       </c>
@@ -3717,7 +3800,9 @@
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="1"/>
+      <c r="S23" s="1">
+        <v>4</v>
+      </c>
       <c r="T23" s="1">
         <v>420</v>
       </c>
@@ -3797,7 +3882,7 @@
       </c>
       <c r="BG23" s="1"/>
     </row>
-    <row r="24" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -3828,7 +3913,9 @@
       <c r="J24" s="3">
         <v>8</v>
       </c>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
       <c r="L24" s="1">
         <v>209</v>
       </c>
@@ -3926,7 +4013,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -3957,7 +4044,9 @@
       <c r="J25" s="3">
         <v>8</v>
       </c>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
       <c r="L25" s="1">
         <v>683</v>
       </c>
@@ -4057,7 +4146,7 @@
       </c>
       <c r="BG25" s="1"/>
     </row>
-    <row r="26" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -4088,7 +4177,9 @@
       <c r="J26" s="3">
         <v>6</v>
       </c>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
       <c r="L26" s="1">
         <v>8910</v>
       </c>
@@ -4108,7 +4199,9 @@
         <v>850</v>
       </c>
       <c r="R26" s="4"/>
-      <c r="S26" s="1"/>
+      <c r="S26" s="1">
+        <v>4</v>
+      </c>
       <c r="T26" s="1">
         <v>750</v>
       </c>
@@ -4190,7 +4283,7 @@
       </c>
       <c r="BG26" s="1"/>
     </row>
-    <row r="27" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -4221,7 +4314,9 @@
       <c r="J27" s="3">
         <v>9</v>
       </c>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
       <c r="L27" s="1">
         <v>620</v>
       </c>
@@ -4239,7 +4334,9 @@
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="1"/>
+      <c r="S27" s="1">
+        <v>4</v>
+      </c>
       <c r="T27" s="1">
         <v>350</v>
       </c>
@@ -4317,7 +4414,7 @@
       </c>
       <c r="BG27" s="1"/>
     </row>
-    <row r="28" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
@@ -4348,7 +4445,9 @@
       <c r="J28" s="3">
         <v>11</v>
       </c>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1">
+        <v>2</v>
+      </c>
       <c r="L28" s="1">
         <v>1175</v>
       </c>
@@ -4366,7 +4465,9 @@
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="1"/>
+      <c r="S28" s="1">
+        <v>4</v>
+      </c>
       <c r="T28" s="1">
         <v>600</v>
       </c>
@@ -4440,7 +4541,7 @@
       </c>
       <c r="BG28" s="1"/>
     </row>
-    <row r="29" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -4493,7 +4594,9 @@
         <v>1600</v>
       </c>
       <c r="R29" s="4"/>
-      <c r="S29" s="1"/>
+      <c r="S29" s="1">
+        <v>4</v>
+      </c>
       <c r="T29" s="1">
         <v>212</v>
       </c>
@@ -4569,7 +4672,7 @@
       </c>
       <c r="BG29" s="1"/>
     </row>
-    <row r="30" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -4700,7 +4803,7 @@
       </c>
       <c r="BG30" s="1"/>
     </row>
-    <row r="31" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -4731,7 +4834,9 @@
       <c r="J31" s="3">
         <v>8</v>
       </c>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1">
+        <v>1.5</v>
+      </c>
       <c r="L31" s="1">
         <v>720</v>
       </c>
@@ -4773,7 +4878,9 @@
         <v>42</v>
       </c>
       <c r="AB31" s="5"/>
-      <c r="AC31" s="1"/>
+      <c r="AC31" s="1">
+        <v>6</v>
+      </c>
       <c r="AD31" s="1">
         <v>850</v>
       </c>
@@ -4829,7 +4936,7 @@
       </c>
       <c r="BG31" s="1"/>
     </row>
-    <row r="32" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -4860,7 +4967,9 @@
       <c r="J32" s="3">
         <v>8</v>
       </c>
-      <c r="K32" s="1"/>
+      <c r="K32" s="1">
+        <v>1.5</v>
+      </c>
       <c r="L32" s="1">
         <v>577</v>
       </c>
@@ -4902,7 +5011,9 @@
         <v>42</v>
       </c>
       <c r="AB32" s="5"/>
-      <c r="AC32" s="1"/>
+      <c r="AC32" s="1">
+        <v>6</v>
+      </c>
       <c r="AD32" s="1">
         <v>420</v>
       </c>
@@ -4956,7 +5067,7 @@
       </c>
       <c r="BG32" s="1"/>
     </row>
-    <row r="33" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -4987,7 +5098,9 @@
       <c r="J33" s="3">
         <v>11</v>
       </c>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1">
+        <v>1.5</v>
+      </c>
       <c r="L33" s="1">
         <v>835</v>
       </c>
@@ -5029,7 +5142,9 @@
         <v>42</v>
       </c>
       <c r="AB33" s="5"/>
-      <c r="AC33" s="1"/>
+      <c r="AC33" s="1">
+        <v>6</v>
+      </c>
       <c r="AD33" s="1">
         <v>320</v>
       </c>
@@ -5083,7 +5198,7 @@
       </c>
       <c r="BG33" s="1"/>
     </row>
-    <row r="34" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -5114,7 +5229,9 @@
       <c r="J34" s="3">
         <v>9</v>
       </c>
-      <c r="K34" s="1"/>
+      <c r="K34" s="1">
+        <v>1.5</v>
+      </c>
       <c r="L34" s="1">
         <v>720</v>
       </c>
@@ -5158,7 +5275,9 @@
         <v>42</v>
       </c>
       <c r="AB34" s="5"/>
-      <c r="AC34" s="1"/>
+      <c r="AC34" s="1">
+        <v>6</v>
+      </c>
       <c r="AD34" s="1">
         <v>650</v>
       </c>
@@ -5216,7 +5335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -5291,7 +5410,9 @@
         <v>42</v>
       </c>
       <c r="AB35" s="5"/>
-      <c r="AC35" s="1"/>
+      <c r="AC35" s="1">
+        <v>6</v>
+      </c>
       <c r="AD35" s="1">
         <v>460</v>
       </c>
@@ -5345,7 +5466,7 @@
       </c>
       <c r="BG35" s="1"/>
     </row>
-    <row r="36" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -5376,7 +5497,9 @@
       <c r="J36" s="3">
         <v>8</v>
       </c>
-      <c r="K36" s="1"/>
+      <c r="K36" s="1">
+        <v>2</v>
+      </c>
       <c r="L36" s="1">
         <v>700</v>
       </c>
@@ -5416,7 +5539,9 @@
         <v>42</v>
       </c>
       <c r="AB36" s="5"/>
-      <c r="AC36" s="1"/>
+      <c r="AC36" s="1">
+        <v>6</v>
+      </c>
       <c r="AD36" s="1">
         <v>600</v>
       </c>
@@ -5470,7 +5595,7 @@
       </c>
       <c r="BG36" s="1"/>
     </row>
-    <row r="37" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -5523,7 +5648,9 @@
         <v>950</v>
       </c>
       <c r="R37" s="4"/>
-      <c r="S37" s="1"/>
+      <c r="S37" s="1">
+        <v>4</v>
+      </c>
       <c r="T37" s="1">
         <v>507</v>
       </c>
@@ -5545,7 +5672,9 @@
         <v>42</v>
       </c>
       <c r="AB37" s="5"/>
-      <c r="AC37" s="1"/>
+      <c r="AC37" s="1">
+        <v>6</v>
+      </c>
       <c r="AD37" s="1">
         <v>350</v>
       </c>
@@ -5599,7 +5728,7 @@
       </c>
       <c r="BG37" s="1"/>
     </row>
-    <row r="38" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -5642,7 +5771,9 @@
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="1"/>
+      <c r="S38" s="1">
+        <v>4</v>
+      </c>
       <c r="T38" s="1"/>
       <c r="U38" s="3"/>
       <c r="V38" s="1"/>
@@ -5656,7 +5787,9 @@
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
-      <c r="AC38" s="1"/>
+      <c r="AC38" s="1">
+        <v>6</v>
+      </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="1"/>
@@ -5716,7 +5849,7 @@
       </c>
       <c r="BG38" s="1"/>
     </row>
-    <row r="39" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -5767,7 +5900,9 @@
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="1"/>
+      <c r="S39" s="1">
+        <v>4</v>
+      </c>
       <c r="T39" s="1">
         <v>400</v>
       </c>
@@ -5787,7 +5922,9 @@
         <v>42</v>
       </c>
       <c r="AB39" s="5"/>
-      <c r="AC39" s="1"/>
+      <c r="AC39" s="1">
+        <v>6</v>
+      </c>
       <c r="AD39" s="1">
         <v>960</v>
       </c>
@@ -5847,7 +5984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -5874,7 +6011,9 @@
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="6"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="1">
+        <v>2</v>
+      </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="1" t="s">
@@ -5888,7 +6027,9 @@
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="1"/>
+      <c r="S40" s="1">
+        <v>4</v>
+      </c>
       <c r="T40" s="1"/>
       <c r="U40" s="3"/>
       <c r="V40" s="1"/>
@@ -5902,7 +6043,9 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
-      <c r="AC40" s="1"/>
+      <c r="AC40" s="1">
+        <v>6</v>
+      </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="1"/>
@@ -5962,7 +6105,7 @@
       </c>
       <c r="BG40" s="1"/>
     </row>
-    <row r="41" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -5989,7 +6132,9 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="1">
+        <v>2</v>
+      </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="1" t="s">
@@ -6003,7 +6148,9 @@
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="1"/>
+      <c r="S41" s="1">
+        <v>4</v>
+      </c>
       <c r="T41" s="1"/>
       <c r="U41" s="3"/>
       <c r="V41" s="1"/>
@@ -6017,7 +6164,9 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
-      <c r="AC41" s="1"/>
+      <c r="AC41" s="1">
+        <v>6</v>
+      </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="3"/>
       <c r="AF41" s="1"/>
@@ -6077,7 +6226,7 @@
       </c>
       <c r="BG41" s="1"/>
     </row>
-    <row r="42" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -6104,7 +6253,9 @@
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="1">
+        <v>2</v>
+      </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="1" t="s">
@@ -6118,7 +6269,9 @@
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="1"/>
+      <c r="S42" s="1">
+        <v>4</v>
+      </c>
       <c r="T42" s="1"/>
       <c r="U42" s="3"/>
       <c r="V42" s="1"/>
@@ -6132,7 +6285,9 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
-      <c r="AC42" s="1"/>
+      <c r="AC42" s="1">
+        <v>6</v>
+      </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="3"/>
       <c r="AF42" s="1"/>
@@ -6192,7 +6347,7 @@
       </c>
       <c r="BG42" s="1"/>
     </row>
-    <row r="43" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
@@ -6219,7 +6374,9 @@
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="1">
+        <v>2</v>
+      </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="1" t="s">
@@ -6233,7 +6390,9 @@
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="1"/>
+      <c r="S43" s="1">
+        <v>4</v>
+      </c>
       <c r="T43" s="1"/>
       <c r="U43" s="3"/>
       <c r="V43" s="1"/>
@@ -6247,7 +6406,9 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
-      <c r="AC43" s="1"/>
+      <c r="AC43" s="1">
+        <v>6</v>
+      </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="3"/>
       <c r="AF43" s="1"/>
@@ -6307,7 +6468,7 @@
       </c>
       <c r="BG43" s="1"/>
     </row>
-    <row r="44" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
@@ -6368,7 +6529,7 @@
       <c r="BF44" s="9"/>
       <c r="BG44" s="9"/>
     </row>
-    <row r="45" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
@@ -6429,7 +6590,7 @@
       <c r="BF45" s="9"/>
       <c r="BG45" s="9"/>
     </row>
-    <row r="46" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
@@ -6490,7 +6651,7 @@
       <c r="BF46" s="9"/>
       <c r="BG46" s="9"/>
     </row>
-    <row r="47" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
@@ -6551,7 +6712,7 @@
       <c r="BF47" s="9"/>
       <c r="BG47" s="9"/>
     </row>
-    <row r="48" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
@@ -6612,7 +6773,7 @@
       <c r="BF48" s="9"/>
       <c r="BG48" s="9"/>
     </row>
-    <row r="49" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="10"/>
@@ -6673,7 +6834,7 @@
       <c r="BF49" s="9"/>
       <c r="BG49" s="9"/>
     </row>
-    <row r="50" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
@@ -6734,7 +6895,7 @@
       <c r="BF50" s="9"/>
       <c r="BG50" s="9"/>
     </row>
-    <row r="51" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
@@ -6795,7 +6956,7 @@
       <c r="BF51" s="9"/>
       <c r="BG51" s="9"/>
     </row>
-    <row r="52" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
@@ -6856,7 +7017,7 @@
       <c r="BF52" s="9"/>
       <c r="BG52" s="9"/>
     </row>
-    <row r="53" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="10"/>
@@ -6917,7 +7078,7 @@
       <c r="BF53" s="9"/>
       <c r="BG53" s="9"/>
     </row>
-    <row r="54" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
@@ -6978,7 +7139,7 @@
       <c r="BF54" s="9"/>
       <c r="BG54" s="9"/>
     </row>
-    <row r="55" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
@@ -7039,7 +7200,7 @@
       <c r="BF55" s="9"/>
       <c r="BG55" s="9"/>
     </row>
-    <row r="56" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
@@ -7100,7 +7261,7 @@
       <c r="BF56" s="9"/>
       <c r="BG56" s="9"/>
     </row>
-    <row r="57" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="10"/>
@@ -7161,7 +7322,7 @@
       <c r="BF57" s="9"/>
       <c r="BG57" s="9"/>
     </row>
-    <row r="58" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
@@ -7222,7 +7383,7 @@
       <c r="BF58" s="9"/>
       <c r="BG58" s="9"/>
     </row>
-    <row r="59" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="10"/>
@@ -7283,7 +7444,7 @@
       <c r="BF59" s="9"/>
       <c r="BG59" s="9"/>
     </row>
-    <row r="60" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
@@ -7344,7 +7505,7 @@
       <c r="BF60" s="9"/>
       <c r="BG60" s="9"/>
     </row>
-    <row r="61" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="10"/>
@@ -7405,7 +7566,7 @@
       <c r="BF61" s="9"/>
       <c r="BG61" s="9"/>
     </row>
-    <row r="62" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="10"/>
@@ -7466,7 +7627,7 @@
       <c r="BF62" s="9"/>
       <c r="BG62" s="9"/>
     </row>
-    <row r="63" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
@@ -7527,7 +7688,7 @@
       <c r="BF63" s="9"/>
       <c r="BG63" s="9"/>
     </row>
-    <row r="64" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
@@ -7588,7 +7749,7 @@
       <c r="BF64" s="9"/>
       <c r="BG64" s="9"/>
     </row>
-    <row r="65" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
@@ -7649,7 +7810,7 @@
       <c r="BF65" s="9"/>
       <c r="BG65" s="9"/>
     </row>
-    <row r="66" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="10"/>
@@ -7710,7 +7871,7 @@
       <c r="BF66" s="9"/>
       <c r="BG66" s="9"/>
     </row>
-    <row r="67" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="10"/>
@@ -7771,7 +7932,7 @@
       <c r="BF67" s="9"/>
       <c r="BG67" s="9"/>
     </row>
-    <row r="68" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="10"/>
@@ -7832,7 +7993,7 @@
       <c r="BF68" s="9"/>
       <c r="BG68" s="9"/>
     </row>
-    <row r="69" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="10"/>
@@ -7893,7 +8054,7 @@
       <c r="BF69" s="9"/>
       <c r="BG69" s="9"/>
     </row>
-    <row r="70" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="10"/>
@@ -7954,7 +8115,7 @@
       <c r="BF70" s="9"/>
       <c r="BG70" s="9"/>
     </row>
-    <row r="71" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="10"/>
@@ -8015,7 +8176,7 @@
       <c r="BF71" s="9"/>
       <c r="BG71" s="9"/>
     </row>
-    <row r="72" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="10"/>
@@ -8076,7 +8237,7 @@
       <c r="BF72" s="9"/>
       <c r="BG72" s="9"/>
     </row>
-    <row r="73" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="10"/>
@@ -8137,7 +8298,7 @@
       <c r="BF73" s="9"/>
       <c r="BG73" s="9"/>
     </row>
-    <row r="74" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="10"/>
@@ -8198,7 +8359,7 @@
       <c r="BF74" s="9"/>
       <c r="BG74" s="9"/>
     </row>
-    <row r="75" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
@@ -8259,7 +8420,7 @@
       <c r="BF75" s="9"/>
       <c r="BG75" s="9"/>
     </row>
-    <row r="76" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="10"/>
@@ -8320,7 +8481,7 @@
       <c r="BF76" s="9"/>
       <c r="BG76" s="9"/>
     </row>
-    <row r="77" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="10"/>
@@ -8381,7 +8542,7 @@
       <c r="BF77" s="9"/>
       <c r="BG77" s="9"/>
     </row>
-    <row r="78" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
@@ -8442,7 +8603,7 @@
       <c r="BF78" s="9"/>
       <c r="BG78" s="9"/>
     </row>
-    <row r="79" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="10"/>
@@ -8503,7 +8664,7 @@
       <c r="BF79" s="9"/>
       <c r="BG79" s="9"/>
     </row>
-    <row r="80" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
@@ -8564,7 +8725,7 @@
       <c r="BF80" s="9"/>
       <c r="BG80" s="9"/>
     </row>
-    <row r="81" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
@@ -8625,7 +8786,7 @@
       <c r="BF81" s="9"/>
       <c r="BG81" s="9"/>
     </row>
-    <row r="82" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
@@ -8686,7 +8847,7 @@
       <c r="BF82" s="9"/>
       <c r="BG82" s="9"/>
     </row>
-    <row r="83" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="10"/>
@@ -8747,7 +8908,7 @@
       <c r="BF83" s="9"/>
       <c r="BG83" s="9"/>
     </row>
-    <row r="84" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
@@ -8808,7 +8969,7 @@
       <c r="BF84" s="9"/>
       <c r="BG84" s="9"/>
     </row>
-    <row r="85" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="10"/>
@@ -8869,7 +9030,7 @@
       <c r="BF85" s="9"/>
       <c r="BG85" s="9"/>
     </row>
-    <row r="86" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
@@ -8930,7 +9091,7 @@
       <c r="BF86" s="9"/>
       <c r="BG86" s="9"/>
     </row>
-    <row r="87" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="10"/>
@@ -8991,7 +9152,7 @@
       <c r="BF87" s="9"/>
       <c r="BG87" s="9"/>
     </row>
-    <row r="88" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="10"/>
@@ -9052,7 +9213,7 @@
       <c r="BF88" s="9"/>
       <c r="BG88" s="9"/>
     </row>
-    <row r="89" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="10"/>
@@ -9113,7 +9274,7 @@
       <c r="BF89" s="9"/>
       <c r="BG89" s="9"/>
     </row>
-    <row r="90" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
@@ -9174,7 +9335,7 @@
       <c r="BF90" s="9"/>
       <c r="BG90" s="9"/>
     </row>
-    <row r="91" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="10"/>
@@ -9235,7 +9396,7 @@
       <c r="BF91" s="9"/>
       <c r="BG91" s="9"/>
     </row>
-    <row r="92" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="10"/>
@@ -9296,7 +9457,7 @@
       <c r="BF92" s="9"/>
       <c r="BG92" s="9"/>
     </row>
-    <row r="93" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="10"/>
@@ -9357,7 +9518,7 @@
       <c r="BF93" s="9"/>
       <c r="BG93" s="9"/>
     </row>
-    <row r="94" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="10"/>
@@ -9418,7 +9579,7 @@
       <c r="BF94" s="9"/>
       <c r="BG94" s="9"/>
     </row>
-    <row r="95" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="10"/>
@@ -9479,7 +9640,7 @@
       <c r="BF95" s="9"/>
       <c r="BG95" s="9"/>
     </row>
-    <row r="96" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="10"/>
@@ -9540,7 +9701,7 @@
       <c r="BF96" s="9"/>
       <c r="BG96" s="9"/>
     </row>
-    <row r="97" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="10"/>
@@ -9601,7 +9762,7 @@
       <c r="BF97" s="9"/>
       <c r="BG97" s="9"/>
     </row>
-    <row r="98" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="10"/>
@@ -9662,7 +9823,7 @@
       <c r="BF98" s="9"/>
       <c r="BG98" s="9"/>
     </row>
-    <row r="99" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="10"/>
@@ -9723,7 +9884,7 @@
       <c r="BF99" s="9"/>
       <c r="BG99" s="9"/>
     </row>
-    <row r="100" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="10"/>
@@ -9784,7 +9945,7 @@
       <c r="BF100" s="9"/>
       <c r="BG100" s="9"/>
     </row>
-    <row r="101" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="10"/>
@@ -9845,7 +10006,7 @@
       <c r="BF101" s="9"/>
       <c r="BG101" s="9"/>
     </row>
-    <row r="102" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="10"/>
@@ -9906,7 +10067,7 @@
       <c r="BF102" s="9"/>
       <c r="BG102" s="9"/>
     </row>
-    <row r="103" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="10"/>
@@ -9967,7 +10128,7 @@
       <c r="BF103" s="9"/>
       <c r="BG103" s="9"/>
     </row>
-    <row r="104" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="10"/>
@@ -10028,7 +10189,7 @@
       <c r="BF104" s="9"/>
       <c r="BG104" s="9"/>
     </row>
-    <row r="105" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="10"/>
@@ -10089,7 +10250,7 @@
       <c r="BF105" s="9"/>
       <c r="BG105" s="9"/>
     </row>
-    <row r="106" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
@@ -10150,7 +10311,7 @@
       <c r="BF106" s="9"/>
       <c r="BG106" s="9"/>
     </row>
-    <row r="107" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="10"/>
@@ -10211,7 +10372,7 @@
       <c r="BF107" s="9"/>
       <c r="BG107" s="9"/>
     </row>
-    <row r="108" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="10"/>
@@ -10272,7 +10433,7 @@
       <c r="BF108" s="9"/>
       <c r="BG108" s="9"/>
     </row>
-    <row r="109" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="10"/>
@@ -10333,7 +10494,7 @@
       <c r="BF109" s="9"/>
       <c r="BG109" s="9"/>
     </row>
-    <row r="110" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="10"/>
@@ -10394,7 +10555,7 @@
       <c r="BF110" s="9"/>
       <c r="BG110" s="9"/>
     </row>
-    <row r="111" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="10"/>
@@ -10455,7 +10616,7 @@
       <c r="BF111" s="9"/>
       <c r="BG111" s="9"/>
     </row>
-    <row r="112" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="10"/>
@@ -10516,7 +10677,7 @@
       <c r="BF112" s="9"/>
       <c r="BG112" s="9"/>
     </row>
-    <row r="113" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="10"/>
@@ -10577,7 +10738,7 @@
       <c r="BF113" s="9"/>
       <c r="BG113" s="9"/>
     </row>
-    <row r="114" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="10"/>
@@ -10638,7 +10799,7 @@
       <c r="BF114" s="9"/>
       <c r="BG114" s="9"/>
     </row>
-    <row r="115" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="10"/>
@@ -10699,7 +10860,7 @@
       <c r="BF115" s="9"/>
       <c r="BG115" s="9"/>
     </row>
-    <row r="116" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="10"/>
@@ -10760,7 +10921,7 @@
       <c r="BF116" s="9"/>
       <c r="BG116" s="9"/>
     </row>
-    <row r="117" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="10"/>
@@ -10821,7 +10982,7 @@
       <c r="BF117" s="9"/>
       <c r="BG117" s="9"/>
     </row>
-    <row r="118" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="10"/>
@@ -10882,7 +11043,7 @@
       <c r="BF118" s="9"/>
       <c r="BG118" s="9"/>
     </row>
-    <row r="119" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="10"/>
@@ -10943,7 +11104,7 @@
       <c r="BF119" s="9"/>
       <c r="BG119" s="9"/>
     </row>
-    <row r="120" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="10"/>
@@ -11004,7 +11165,7 @@
       <c r="BF120" s="9"/>
       <c r="BG120" s="9"/>
     </row>
-    <row r="121" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="10"/>
@@ -11065,7 +11226,7 @@
       <c r="BF121" s="9"/>
       <c r="BG121" s="9"/>
     </row>
-    <row r="122" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="10"/>
@@ -11126,7 +11287,7 @@
       <c r="BF122" s="9"/>
       <c r="BG122" s="9"/>
     </row>
-    <row r="123" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="10"/>
@@ -11187,7 +11348,7 @@
       <c r="BF123" s="9"/>
       <c r="BG123" s="9"/>
     </row>
-    <row r="124" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="10"/>
@@ -11248,7 +11409,7 @@
       <c r="BF124" s="9"/>
       <c r="BG124" s="9"/>
     </row>
-    <row r="125" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="10"/>
@@ -11309,7 +11470,7 @@
       <c r="BF125" s="9"/>
       <c r="BG125" s="9"/>
     </row>
-    <row r="126" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
@@ -11370,7 +11531,7 @@
       <c r="BF126" s="9"/>
       <c r="BG126" s="9"/>
     </row>
-    <row r="127" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="10"/>
@@ -11431,7 +11592,7 @@
       <c r="BF127" s="9"/>
       <c r="BG127" s="9"/>
     </row>
-    <row r="128" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="10"/>
@@ -11492,7 +11653,7 @@
       <c r="BF128" s="9"/>
       <c r="BG128" s="9"/>
     </row>
-    <row r="129" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="10"/>
@@ -11553,7 +11714,7 @@
       <c r="BF129" s="9"/>
       <c r="BG129" s="9"/>
     </row>
-    <row r="130" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="10"/>
@@ -11614,7 +11775,7 @@
       <c r="BF130" s="9"/>
       <c r="BG130" s="9"/>
     </row>
-    <row r="131" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="10"/>
@@ -11675,7 +11836,7 @@
       <c r="BF131" s="9"/>
       <c r="BG131" s="9"/>
     </row>
-    <row r="132" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="10"/>
@@ -11736,7 +11897,7 @@
       <c r="BF132" s="9"/>
       <c r="BG132" s="9"/>
     </row>
-    <row r="133" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="10"/>
@@ -11797,7 +11958,7 @@
       <c r="BF133" s="9"/>
       <c r="BG133" s="9"/>
     </row>
-    <row r="134" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="10"/>
@@ -11858,7 +12019,7 @@
       <c r="BF134" s="9"/>
       <c r="BG134" s="9"/>
     </row>
-    <row r="135" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="10"/>
@@ -11919,7 +12080,7 @@
       <c r="BF135" s="9"/>
       <c r="BG135" s="9"/>
     </row>
-    <row r="136" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="10"/>
@@ -11980,7 +12141,7 @@
       <c r="BF136" s="9"/>
       <c r="BG136" s="9"/>
     </row>
-    <row r="137" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="10"/>
@@ -12041,7 +12202,7 @@
       <c r="BF137" s="9"/>
       <c r="BG137" s="9"/>
     </row>
-    <row r="138" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="10"/>
@@ -12102,7 +12263,7 @@
       <c r="BF138" s="9"/>
       <c r="BG138" s="9"/>
     </row>
-    <row r="139" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="10"/>
@@ -12163,7 +12324,7 @@
       <c r="BF139" s="9"/>
       <c r="BG139" s="9"/>
     </row>
-    <row r="140" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="10"/>
@@ -12224,7 +12385,7 @@
       <c r="BF140" s="9"/>
       <c r="BG140" s="9"/>
     </row>
-    <row r="141" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="10"/>
@@ -12285,7 +12446,7 @@
       <c r="BF141" s="9"/>
       <c r="BG141" s="9"/>
     </row>
-    <row r="142" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="10"/>
@@ -12346,7 +12507,7 @@
       <c r="BF142" s="9"/>
       <c r="BG142" s="9"/>
     </row>
-    <row r="143" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="10"/>
@@ -12407,7 +12568,7 @@
       <c r="BF143" s="9"/>
       <c r="BG143" s="9"/>
     </row>
-    <row r="144" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="10"/>
@@ -12468,7 +12629,7 @@
       <c r="BF144" s="9"/>
       <c r="BG144" s="9"/>
     </row>
-    <row r="145" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="10"/>
@@ -12529,7 +12690,7 @@
       <c r="BF145" s="9"/>
       <c r="BG145" s="9"/>
     </row>
-    <row r="146" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="10"/>
@@ -12590,7 +12751,7 @@
       <c r="BF146" s="9"/>
       <c r="BG146" s="9"/>
     </row>
-    <row r="147" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="10"/>
@@ -12651,7 +12812,7 @@
       <c r="BF147" s="9"/>
       <c r="BG147" s="9"/>
     </row>
-    <row r="148" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="10"/>
@@ -12712,7 +12873,7 @@
       <c r="BF148" s="9"/>
       <c r="BG148" s="9"/>
     </row>
-    <row r="149" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="10"/>
@@ -12773,7 +12934,7 @@
       <c r="BF149" s="9"/>
       <c r="BG149" s="9"/>
     </row>
-    <row r="150" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="10"/>
@@ -12834,7 +12995,7 @@
       <c r="BF150" s="9"/>
       <c r="BG150" s="9"/>
     </row>
-    <row r="151" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="10"/>
@@ -12895,7 +13056,7 @@
       <c r="BF151" s="9"/>
       <c r="BG151" s="9"/>
     </row>
-    <row r="152" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="10"/>
@@ -12956,7 +13117,7 @@
       <c r="BF152" s="9"/>
       <c r="BG152" s="9"/>
     </row>
-    <row r="153" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="10"/>
@@ -13017,7 +13178,7 @@
       <c r="BF153" s="9"/>
       <c r="BG153" s="9"/>
     </row>
-    <row r="154" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="10"/>
@@ -13078,7 +13239,7 @@
       <c r="BF154" s="9"/>
       <c r="BG154" s="9"/>
     </row>
-    <row r="155" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="10"/>
@@ -13139,7 +13300,7 @@
       <c r="BF155" s="9"/>
       <c r="BG155" s="9"/>
     </row>
-    <row r="156" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="10"/>
@@ -13200,7 +13361,7 @@
       <c r="BF156" s="9"/>
       <c r="BG156" s="9"/>
     </row>
-    <row r="157" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="10"/>
@@ -13261,7 +13422,7 @@
       <c r="BF157" s="9"/>
       <c r="BG157" s="9"/>
     </row>
-    <row r="158" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="10"/>
@@ -13322,7 +13483,7 @@
       <c r="BF158" s="9"/>
       <c r="BG158" s="9"/>
     </row>
-    <row r="159" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="10"/>
@@ -13383,7 +13544,7 @@
       <c r="BF159" s="9"/>
       <c r="BG159" s="9"/>
     </row>
-    <row r="160" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
@@ -13444,7 +13605,7 @@
       <c r="BF160" s="9"/>
       <c r="BG160" s="9"/>
     </row>
-    <row r="161" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="10"/>
@@ -13505,7 +13666,7 @@
       <c r="BF161" s="9"/>
       <c r="BG161" s="9"/>
     </row>
-    <row r="162" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="10"/>
@@ -13566,7 +13727,7 @@
       <c r="BF162" s="9"/>
       <c r="BG162" s="9"/>
     </row>
-    <row r="163" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="10"/>
@@ -13627,7 +13788,7 @@
       <c r="BF163" s="9"/>
       <c r="BG163" s="9"/>
     </row>
-    <row r="164" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="10"/>
@@ -13688,7 +13849,7 @@
       <c r="BF164" s="9"/>
       <c r="BG164" s="9"/>
     </row>
-    <row r="165" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="10"/>
@@ -13749,7 +13910,7 @@
       <c r="BF165" s="9"/>
       <c r="BG165" s="9"/>
     </row>
-    <row r="166" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="10"/>
@@ -13810,7 +13971,7 @@
       <c r="BF166" s="9"/>
       <c r="BG166" s="9"/>
     </row>
-    <row r="167" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="10"/>
@@ -13871,7 +14032,7 @@
       <c r="BF167" s="9"/>
       <c r="BG167" s="9"/>
     </row>
-    <row r="168" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="10"/>
@@ -13932,7 +14093,7 @@
       <c r="BF168" s="9"/>
       <c r="BG168" s="9"/>
     </row>
-    <row r="169" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="10"/>
@@ -13993,7 +14154,7 @@
       <c r="BF169" s="9"/>
       <c r="BG169" s="9"/>
     </row>
-    <row r="170" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="10"/>
@@ -14054,7 +14215,7 @@
       <c r="BF170" s="9"/>
       <c r="BG170" s="9"/>
     </row>
-    <row r="171" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="10"/>
@@ -14115,7 +14276,7 @@
       <c r="BF171" s="9"/>
       <c r="BG171" s="9"/>
     </row>
-    <row r="172" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="10"/>
@@ -14176,7 +14337,7 @@
       <c r="BF172" s="9"/>
       <c r="BG172" s="9"/>
     </row>
-    <row r="173" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="10"/>
@@ -14237,7 +14398,7 @@
       <c r="BF173" s="9"/>
       <c r="BG173" s="9"/>
     </row>
-    <row r="174" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="10"/>
@@ -14298,7 +14459,7 @@
       <c r="BF174" s="9"/>
       <c r="BG174" s="9"/>
     </row>
-    <row r="175" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="10"/>
@@ -14359,7 +14520,7 @@
       <c r="BF175" s="9"/>
       <c r="BG175" s="9"/>
     </row>
-    <row r="176" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="10"/>
@@ -14420,7 +14581,7 @@
       <c r="BF176" s="9"/>
       <c r="BG176" s="9"/>
     </row>
-    <row r="177" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="10"/>
@@ -14481,7 +14642,7 @@
       <c r="BF177" s="9"/>
       <c r="BG177" s="9"/>
     </row>
-    <row r="178" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="10"/>
@@ -14542,7 +14703,7 @@
       <c r="BF178" s="9"/>
       <c r="BG178" s="9"/>
     </row>
-    <row r="179" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="10"/>
@@ -14603,7 +14764,7 @@
       <c r="BF179" s="9"/>
       <c r="BG179" s="9"/>
     </row>
-    <row r="180" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="10"/>
@@ -14664,7 +14825,7 @@
       <c r="BF180" s="9"/>
       <c r="BG180" s="9"/>
     </row>
-    <row r="181" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="10"/>
@@ -14725,7 +14886,7 @@
       <c r="BF181" s="9"/>
       <c r="BG181" s="9"/>
     </row>
-    <row r="182" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="10"/>
@@ -14786,7 +14947,7 @@
       <c r="BF182" s="9"/>
       <c r="BG182" s="9"/>
     </row>
-    <row r="183" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="10"/>
@@ -14847,7 +15008,7 @@
       <c r="BF183" s="9"/>
       <c r="BG183" s="9"/>
     </row>
-    <row r="184" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="10"/>
@@ -14908,7 +15069,7 @@
       <c r="BF184" s="9"/>
       <c r="BG184" s="9"/>
     </row>
-    <row r="185" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="10"/>
@@ -14969,7 +15130,7 @@
       <c r="BF185" s="9"/>
       <c r="BG185" s="9"/>
     </row>
-    <row r="186" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="10"/>
@@ -15030,7 +15191,7 @@
       <c r="BF186" s="9"/>
       <c r="BG186" s="9"/>
     </row>
-    <row r="187" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="10"/>
@@ -15091,7 +15252,7 @@
       <c r="BF187" s="9"/>
       <c r="BG187" s="9"/>
     </row>
-    <row r="188" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="10"/>
@@ -15152,7 +15313,7 @@
       <c r="BF188" s="9"/>
       <c r="BG188" s="9"/>
     </row>
-    <row r="189" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="10"/>
@@ -15213,7 +15374,7 @@
       <c r="BF189" s="9"/>
       <c r="BG189" s="9"/>
     </row>
-    <row r="190" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="10"/>
@@ -15274,7 +15435,7 @@
       <c r="BF190" s="9"/>
       <c r="BG190" s="9"/>
     </row>
-    <row r="191" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="10"/>
@@ -15335,7 +15496,7 @@
       <c r="BF191" s="9"/>
       <c r="BG191" s="9"/>
     </row>
-    <row r="192" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="10"/>
@@ -15396,7 +15557,7 @@
       <c r="BF192" s="9"/>
       <c r="BG192" s="9"/>
     </row>
-    <row r="193" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="10"/>
@@ -15457,7 +15618,7 @@
       <c r="BF193" s="9"/>
       <c r="BG193" s="9"/>
     </row>
-    <row r="194" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="10"/>
@@ -15518,7 +15679,7 @@
       <c r="BF194" s="9"/>
       <c r="BG194" s="9"/>
     </row>
-    <row r="195" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="10"/>
@@ -15579,7 +15740,7 @@
       <c r="BF195" s="9"/>
       <c r="BG195" s="9"/>
     </row>
-    <row r="196" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="10"/>
@@ -15640,7 +15801,7 @@
       <c r="BF196" s="9"/>
       <c r="BG196" s="9"/>
     </row>
-    <row r="197" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="10"/>
@@ -15701,7 +15862,7 @@
       <c r="BF197" s="9"/>
       <c r="BG197" s="9"/>
     </row>
-    <row r="198" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="10"/>
@@ -15762,7 +15923,7 @@
       <c r="BF198" s="9"/>
       <c r="BG198" s="9"/>
     </row>
-    <row r="199" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="10"/>
@@ -15823,7 +15984,7 @@
       <c r="BF199" s="9"/>
       <c r="BG199" s="9"/>
     </row>
-    <row r="200" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="10"/>
@@ -15884,7 +16045,7 @@
       <c r="BF200" s="9"/>
       <c r="BG200" s="9"/>
     </row>
-    <row r="201" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="10"/>
@@ -15945,7 +16106,7 @@
       <c r="BF201" s="9"/>
       <c r="BG201" s="9"/>
     </row>
-    <row r="202" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9"/>
       <c r="B202" s="9"/>
       <c r="C202" s="10"/>
@@ -16006,7 +16167,7 @@
       <c r="BF202" s="9"/>
       <c r="BG202" s="9"/>
     </row>
-    <row r="203" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="10"/>
@@ -16067,7 +16228,7 @@
       <c r="BF203" s="9"/>
       <c r="BG203" s="9"/>
     </row>
-    <row r="204" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="10"/>
@@ -16128,7 +16289,7 @@
       <c r="BF204" s="9"/>
       <c r="BG204" s="9"/>
     </row>
-    <row r="205" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="10"/>
@@ -16189,7 +16350,7 @@
       <c r="BF205" s="9"/>
       <c r="BG205" s="9"/>
     </row>
-    <row r="206" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="10"/>
@@ -16250,7 +16411,7 @@
       <c r="BF206" s="9"/>
       <c r="BG206" s="9"/>
     </row>
-    <row r="207" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="10"/>
@@ -16311,7 +16472,7 @@
       <c r="BF207" s="9"/>
       <c r="BG207" s="9"/>
     </row>
-    <row r="208" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="10"/>
@@ -16372,7 +16533,7 @@
       <c r="BF208" s="9"/>
       <c r="BG208" s="9"/>
     </row>
-    <row r="209" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="10"/>
@@ -16433,7 +16594,7 @@
       <c r="BF209" s="9"/>
       <c r="BG209" s="9"/>
     </row>
-    <row r="210" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="10"/>
@@ -16494,7 +16655,7 @@
       <c r="BF210" s="9"/>
       <c r="BG210" s="9"/>
     </row>
-    <row r="211" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="10"/>
@@ -16555,7 +16716,7 @@
       <c r="BF211" s="9"/>
       <c r="BG211" s="9"/>
     </row>
-    <row r="212" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="10"/>
@@ -16616,7 +16777,7 @@
       <c r="BF212" s="9"/>
       <c r="BG212" s="9"/>
     </row>
-    <row r="213" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="9"/>
       <c r="B213" s="9"/>
       <c r="C213" s="10"/>
@@ -16677,7 +16838,7 @@
       <c r="BF213" s="9"/>
       <c r="BG213" s="9"/>
     </row>
-    <row r="214" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="10"/>
@@ -16738,7 +16899,7 @@
       <c r="BF214" s="9"/>
       <c r="BG214" s="9"/>
     </row>
-    <row r="215" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="10"/>
@@ -16799,7 +16960,7 @@
       <c r="BF215" s="9"/>
       <c r="BG215" s="9"/>
     </row>
-    <row r="216" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="10"/>
@@ -16860,7 +17021,7 @@
       <c r="BF216" s="9"/>
       <c r="BG216" s="9"/>
     </row>
-    <row r="217" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="10"/>
@@ -16921,7 +17082,7 @@
       <c r="BF217" s="9"/>
       <c r="BG217" s="9"/>
     </row>
-    <row r="218" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9"/>
       <c r="B218" s="9"/>
       <c r="C218" s="10"/>
@@ -16982,7 +17143,7 @@
       <c r="BF218" s="9"/>
       <c r="BG218" s="9"/>
     </row>
-    <row r="219" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="10"/>
@@ -17043,7 +17204,7 @@
       <c r="BF219" s="9"/>
       <c r="BG219" s="9"/>
     </row>
-    <row r="220" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="10"/>
@@ -17104,7 +17265,7 @@
       <c r="BF220" s="9"/>
       <c r="BG220" s="9"/>
     </row>
-    <row r="221" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="10"/>
@@ -17165,7 +17326,7 @@
       <c r="BF221" s="9"/>
       <c r="BG221" s="9"/>
     </row>
-    <row r="222" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="10"/>
@@ -17226,7 +17387,7 @@
       <c r="BF222" s="9"/>
       <c r="BG222" s="9"/>
     </row>
-    <row r="223" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="10"/>
@@ -17287,7 +17448,7 @@
       <c r="BF223" s="9"/>
       <c r="BG223" s="9"/>
     </row>
-    <row r="224" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="10"/>
@@ -17348,7 +17509,7 @@
       <c r="BF224" s="9"/>
       <c r="BG224" s="9"/>
     </row>
-    <row r="225" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="10"/>
@@ -17409,7 +17570,7 @@
       <c r="BF225" s="9"/>
       <c r="BG225" s="9"/>
     </row>
-    <row r="226" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="10"/>
@@ -17470,7 +17631,7 @@
       <c r="BF226" s="9"/>
       <c r="BG226" s="9"/>
     </row>
-    <row r="227" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="10"/>
@@ -17531,7 +17692,7 @@
       <c r="BF227" s="9"/>
       <c r="BG227" s="9"/>
     </row>
-    <row r="228" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="10"/>
@@ -17592,7 +17753,7 @@
       <c r="BF228" s="9"/>
       <c r="BG228" s="9"/>
     </row>
-    <row r="229" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9"/>
       <c r="B229" s="9"/>
       <c r="C229" s="10"/>
@@ -17653,7 +17814,7 @@
       <c r="BF229" s="9"/>
       <c r="BG229" s="9"/>
     </row>
-    <row r="230" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="10"/>
@@ -17714,7 +17875,7 @@
       <c r="BF230" s="9"/>
       <c r="BG230" s="9"/>
     </row>
-    <row r="231" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="10"/>
@@ -17775,7 +17936,7 @@
       <c r="BF231" s="9"/>
       <c r="BG231" s="9"/>
     </row>
-    <row r="232" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="10"/>
@@ -17836,7 +17997,7 @@
       <c r="BF232" s="9"/>
       <c r="BG232" s="9"/>
     </row>
-    <row r="233" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="10"/>
@@ -17897,7 +18058,7 @@
       <c r="BF233" s="9"/>
       <c r="BG233" s="9"/>
     </row>
-    <row r="234" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="10"/>
@@ -17958,7 +18119,7 @@
       <c r="BF234" s="9"/>
       <c r="BG234" s="9"/>
     </row>
-    <row r="235" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="10"/>
@@ -18019,7 +18180,7 @@
       <c r="BF235" s="9"/>
       <c r="BG235" s="9"/>
     </row>
-    <row r="236" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="10"/>
@@ -18080,7 +18241,7 @@
       <c r="BF236" s="9"/>
       <c r="BG236" s="9"/>
     </row>
-    <row r="237" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
       <c r="C237" s="10"/>
@@ -18141,7 +18302,7 @@
       <c r="BF237" s="9"/>
       <c r="BG237" s="9"/>
     </row>
-    <row r="238" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="10"/>
@@ -18202,7 +18363,7 @@
       <c r="BF238" s="9"/>
       <c r="BG238" s="9"/>
     </row>
-    <row r="239" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
       <c r="C239" s="10"/>
@@ -18263,7 +18424,7 @@
       <c r="BF239" s="9"/>
       <c r="BG239" s="9"/>
     </row>
-    <row r="240" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="10"/>
@@ -18324,7 +18485,7 @@
       <c r="BF240" s="9"/>
       <c r="BG240" s="9"/>
     </row>
-    <row r="241" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="10"/>
@@ -18385,7 +18546,7 @@
       <c r="BF241" s="9"/>
       <c r="BG241" s="9"/>
     </row>
-    <row r="242" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
       <c r="C242" s="10"/>
@@ -18446,7 +18607,7 @@
       <c r="BF242" s="9"/>
       <c r="BG242" s="9"/>
     </row>
-    <row r="243" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="10"/>
@@ -18507,7 +18668,7 @@
       <c r="BF243" s="9"/>
       <c r="BG243" s="9"/>
     </row>
-    <row r="244" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="10"/>
@@ -18568,7 +18729,7 @@
       <c r="BF244" s="9"/>
       <c r="BG244" s="9"/>
     </row>
-    <row r="245" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="10"/>
@@ -18629,7 +18790,7 @@
       <c r="BF245" s="9"/>
       <c r="BG245" s="9"/>
     </row>
-    <row r="246" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="9"/>
       <c r="B246" s="9"/>
       <c r="C246" s="10"/>
@@ -18690,7 +18851,7 @@
       <c r="BF246" s="9"/>
       <c r="BG246" s="9"/>
     </row>
-    <row r="247" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
       <c r="C247" s="10"/>
@@ -18751,7 +18912,7 @@
       <c r="BF247" s="9"/>
       <c r="BG247" s="9"/>
     </row>
-    <row r="248" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="9"/>
       <c r="B248" s="9"/>
       <c r="C248" s="10"/>
@@ -18812,7 +18973,7 @@
       <c r="BF248" s="9"/>
       <c r="BG248" s="9"/>
     </row>
-    <row r="249" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="9"/>
       <c r="B249" s="9"/>
       <c r="C249" s="10"/>
@@ -18873,7 +19034,7 @@
       <c r="BF249" s="9"/>
       <c r="BG249" s="9"/>
     </row>
-    <row r="250" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="10"/>
@@ -18934,7 +19095,7 @@
       <c r="BF250" s="9"/>
       <c r="BG250" s="9"/>
     </row>
-    <row r="251" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="10"/>
@@ -18995,7 +19156,7 @@
       <c r="BF251" s="9"/>
       <c r="BG251" s="9"/>
     </row>
-    <row r="252" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="10"/>
@@ -19056,7 +19217,7 @@
       <c r="BF252" s="9"/>
       <c r="BG252" s="9"/>
     </row>
-    <row r="253" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="10"/>
@@ -19117,7 +19278,7 @@
       <c r="BF253" s="9"/>
       <c r="BG253" s="9"/>
     </row>
-    <row r="254" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="9"/>
       <c r="B254" s="9"/>
       <c r="C254" s="10"/>
@@ -19178,7 +19339,7 @@
       <c r="BF254" s="9"/>
       <c r="BG254" s="9"/>
     </row>
-    <row r="255" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="10"/>
@@ -19239,7 +19400,7 @@
       <c r="BF255" s="9"/>
       <c r="BG255" s="9"/>
     </row>
-    <row r="256" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="9"/>
       <c r="B256" s="9"/>
       <c r="C256" s="10"/>
@@ -19300,7 +19461,7 @@
       <c r="BF256" s="9"/>
       <c r="BG256" s="9"/>
     </row>
-    <row r="257" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="10"/>
@@ -19361,7 +19522,7 @@
       <c r="BF257" s="9"/>
       <c r="BG257" s="9"/>
     </row>
-    <row r="258" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="10"/>
@@ -19422,7 +19583,7 @@
       <c r="BF258" s="9"/>
       <c r="BG258" s="9"/>
     </row>
-    <row r="259" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="9"/>
       <c r="B259" s="9"/>
       <c r="C259" s="10"/>
@@ -19483,7 +19644,7 @@
       <c r="BF259" s="9"/>
       <c r="BG259" s="9"/>
     </row>
-    <row r="260" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="10"/>
@@ -19544,7 +19705,7 @@
       <c r="BF260" s="9"/>
       <c r="BG260" s="9"/>
     </row>
-    <row r="261" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="10"/>
@@ -19605,7 +19766,7 @@
       <c r="BF261" s="9"/>
       <c r="BG261" s="9"/>
     </row>
-    <row r="262" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="10"/>
@@ -19666,7 +19827,7 @@
       <c r="BF262" s="9"/>
       <c r="BG262" s="9"/>
     </row>
-    <row r="263" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="10"/>
@@ -19727,7 +19888,7 @@
       <c r="BF263" s="9"/>
       <c r="BG263" s="9"/>
     </row>
-    <row r="264" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="10"/>
@@ -19788,7 +19949,7 @@
       <c r="BF264" s="9"/>
       <c r="BG264" s="9"/>
     </row>
-    <row r="265" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="10"/>
@@ -19849,7 +20010,7 @@
       <c r="BF265" s="9"/>
       <c r="BG265" s="9"/>
     </row>
-    <row r="266" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
       <c r="C266" s="10"/>
@@ -19910,7 +20071,7 @@
       <c r="BF266" s="9"/>
       <c r="BG266" s="9"/>
     </row>
-    <row r="267" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
       <c r="C267" s="10"/>
@@ -19971,7 +20132,7 @@
       <c r="BF267" s="9"/>
       <c r="BG267" s="9"/>
     </row>
-    <row r="268" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="9"/>
       <c r="B268" s="9"/>
       <c r="C268" s="10"/>
@@ -20032,7 +20193,7 @@
       <c r="BF268" s="9"/>
       <c r="BG268" s="9"/>
     </row>
-    <row r="269" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="10"/>
@@ -20093,7 +20254,7 @@
       <c r="BF269" s="9"/>
       <c r="BG269" s="9"/>
     </row>
-    <row r="270" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="10"/>
@@ -20154,7 +20315,7 @@
       <c r="BF270" s="9"/>
       <c r="BG270" s="9"/>
     </row>
-    <row r="271" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="9"/>
       <c r="B271" s="9"/>
       <c r="C271" s="10"/>
@@ -20215,7 +20376,7 @@
       <c r="BF271" s="9"/>
       <c r="BG271" s="9"/>
     </row>
-    <row r="272" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="9"/>
       <c r="B272" s="9"/>
       <c r="C272" s="10"/>
@@ -20276,7 +20437,7 @@
       <c r="BF272" s="9"/>
       <c r="BG272" s="9"/>
     </row>
-    <row r="273" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="10"/>
@@ -20337,7 +20498,7 @@
       <c r="BF273" s="9"/>
       <c r="BG273" s="9"/>
     </row>
-    <row r="274" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="9"/>
       <c r="B274" s="9"/>
       <c r="C274" s="10"/>
@@ -20398,7 +20559,7 @@
       <c r="BF274" s="9"/>
       <c r="BG274" s="9"/>
     </row>
-    <row r="275" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="9"/>
       <c r="B275" s="9"/>
       <c r="C275" s="10"/>
@@ -20459,7 +20620,7 @@
       <c r="BF275" s="9"/>
       <c r="BG275" s="9"/>
     </row>
-    <row r="276" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="9"/>
       <c r="B276" s="9"/>
       <c r="C276" s="10"/>
@@ -20520,7 +20681,7 @@
       <c r="BF276" s="9"/>
       <c r="BG276" s="9"/>
     </row>
-    <row r="277" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="9"/>
       <c r="B277" s="9"/>
       <c r="C277" s="10"/>
@@ -20581,7 +20742,7 @@
       <c r="BF277" s="9"/>
       <c r="BG277" s="9"/>
     </row>
-    <row r="278" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="9"/>
       <c r="B278" s="9"/>
       <c r="C278" s="10"/>
@@ -20642,7 +20803,7 @@
       <c r="BF278" s="9"/>
       <c r="BG278" s="9"/>
     </row>
-    <row r="279" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="10"/>
@@ -20703,7 +20864,7 @@
       <c r="BF279" s="9"/>
       <c r="BG279" s="9"/>
     </row>
-    <row r="280" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="9"/>
       <c r="B280" s="9"/>
       <c r="C280" s="10"/>
@@ -20764,7 +20925,7 @@
       <c r="BF280" s="9"/>
       <c r="BG280" s="9"/>
     </row>
-    <row r="281" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="9"/>
       <c r="B281" s="9"/>
       <c r="C281" s="10"/>
@@ -20825,7 +20986,7 @@
       <c r="BF281" s="9"/>
       <c r="BG281" s="9"/>
     </row>
-    <row r="282" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="9"/>
       <c r="B282" s="9"/>
       <c r="C282" s="10"/>
@@ -20886,7 +21047,7 @@
       <c r="BF282" s="9"/>
       <c r="BG282" s="9"/>
     </row>
-    <row r="283" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="9"/>
       <c r="B283" s="9"/>
       <c r="C283" s="10"/>
@@ -20947,7 +21108,7 @@
       <c r="BF283" s="9"/>
       <c r="BG283" s="9"/>
     </row>
-    <row r="284" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="9"/>
       <c r="B284" s="9"/>
       <c r="C284" s="10"/>
@@ -21008,7 +21169,7 @@
       <c r="BF284" s="9"/>
       <c r="BG284" s="9"/>
     </row>
-    <row r="285" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
       <c r="C285" s="10"/>
@@ -21069,7 +21230,7 @@
       <c r="BF285" s="9"/>
       <c r="BG285" s="9"/>
     </row>
-    <row r="286" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="9"/>
       <c r="B286" s="9"/>
       <c r="C286" s="10"/>
@@ -21130,7 +21291,7 @@
       <c r="BF286" s="9"/>
       <c r="BG286" s="9"/>
     </row>
-    <row r="287" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="9"/>
       <c r="B287" s="9"/>
       <c r="C287" s="10"/>
@@ -21191,7 +21352,7 @@
       <c r="BF287" s="9"/>
       <c r="BG287" s="9"/>
     </row>
-    <row r="288" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="9"/>
       <c r="B288" s="9"/>
       <c r="C288" s="10"/>
@@ -21252,7 +21413,7 @@
       <c r="BF288" s="9"/>
       <c r="BG288" s="9"/>
     </row>
-    <row r="289" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="9"/>
       <c r="B289" s="9"/>
       <c r="C289" s="10"/>
@@ -21313,7 +21474,7 @@
       <c r="BF289" s="9"/>
       <c r="BG289" s="9"/>
     </row>
-    <row r="290" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="9"/>
       <c r="B290" s="9"/>
       <c r="C290" s="10"/>
@@ -21374,7 +21535,7 @@
       <c r="BF290" s="9"/>
       <c r="BG290" s="9"/>
     </row>
-    <row r="291" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="9"/>
       <c r="B291" s="9"/>
       <c r="C291" s="10"/>
@@ -21435,7 +21596,7 @@
       <c r="BF291" s="9"/>
       <c r="BG291" s="9"/>
     </row>
-    <row r="292" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
       <c r="C292" s="10"/>
@@ -21496,7 +21657,7 @@
       <c r="BF292" s="9"/>
       <c r="BG292" s="9"/>
     </row>
-    <row r="293" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
       <c r="C293" s="10"/>
@@ -21557,7 +21718,7 @@
       <c r="BF293" s="9"/>
       <c r="BG293" s="9"/>
     </row>
-    <row r="294" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="9"/>
       <c r="B294" s="9"/>
       <c r="C294" s="10"/>
@@ -21618,7 +21779,7 @@
       <c r="BF294" s="9"/>
       <c r="BG294" s="9"/>
     </row>
-    <row r="295" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="9"/>
       <c r="B295" s="9"/>
       <c r="C295" s="10"/>
@@ -21679,7 +21840,7 @@
       <c r="BF295" s="9"/>
       <c r="BG295" s="9"/>
     </row>
-    <row r="296" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="9"/>
       <c r="B296" s="9"/>
       <c r="C296" s="10"/>
@@ -21740,7 +21901,7 @@
       <c r="BF296" s="9"/>
       <c r="BG296" s="9"/>
     </row>
-    <row r="297" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="9"/>
       <c r="B297" s="9"/>
       <c r="C297" s="10"/>
@@ -21801,7 +21962,7 @@
       <c r="BF297" s="9"/>
       <c r="BG297" s="9"/>
     </row>
-    <row r="298" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="9"/>
       <c r="B298" s="9"/>
       <c r="C298" s="10"/>
@@ -21862,7 +22023,7 @@
       <c r="BF298" s="9"/>
       <c r="BG298" s="9"/>
     </row>
-    <row r="299" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
       <c r="C299" s="10"/>
@@ -21923,7 +22084,7 @@
       <c r="BF299" s="9"/>
       <c r="BG299" s="9"/>
     </row>
-    <row r="300" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
       <c r="C300" s="10"/>
@@ -21984,7 +22145,7 @@
       <c r="BF300" s="9"/>
       <c r="BG300" s="9"/>
     </row>
-    <row r="301" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
       <c r="C301" s="10"/>
@@ -22045,7 +22206,7 @@
       <c r="BF301" s="9"/>
       <c r="BG301" s="9"/>
     </row>
-    <row r="302" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="9"/>
       <c r="B302" s="9"/>
       <c r="C302" s="10"/>
@@ -22106,7 +22267,7 @@
       <c r="BF302" s="9"/>
       <c r="BG302" s="9"/>
     </row>
-    <row r="303" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="10"/>
@@ -22167,7 +22328,7 @@
       <c r="BF303" s="9"/>
       <c r="BG303" s="9"/>
     </row>
-    <row r="304" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="9"/>
       <c r="B304" s="9"/>
       <c r="C304" s="10"/>
@@ -22228,7 +22389,7 @@
       <c r="BF304" s="9"/>
       <c r="BG304" s="9"/>
     </row>
-    <row r="305" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="9"/>
       <c r="B305" s="9"/>
       <c r="C305" s="10"/>
@@ -22289,7 +22450,7 @@
       <c r="BF305" s="9"/>
       <c r="BG305" s="9"/>
     </row>
-    <row r="306" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="9"/>
       <c r="B306" s="9"/>
       <c r="C306" s="10"/>
@@ -22350,7 +22511,7 @@
       <c r="BF306" s="9"/>
       <c r="BG306" s="9"/>
     </row>
-    <row r="307" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="10"/>
@@ -22411,7 +22572,7 @@
       <c r="BF307" s="9"/>
       <c r="BG307" s="9"/>
     </row>
-    <row r="308" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="9"/>
       <c r="B308" s="9"/>
       <c r="C308" s="10"/>
@@ -22472,7 +22633,7 @@
       <c r="BF308" s="9"/>
       <c r="BG308" s="9"/>
     </row>
-    <row r="309" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="9"/>
       <c r="B309" s="9"/>
       <c r="C309" s="10"/>
@@ -22533,7 +22694,7 @@
       <c r="BF309" s="9"/>
       <c r="BG309" s="9"/>
     </row>
-    <row r="310" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="9"/>
       <c r="B310" s="9"/>
       <c r="C310" s="10"/>
@@ -22594,7 +22755,7 @@
       <c r="BF310" s="9"/>
       <c r="BG310" s="9"/>
     </row>
-    <row r="311" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="9"/>
       <c r="B311" s="9"/>
       <c r="C311" s="10"/>
@@ -22655,7 +22816,7 @@
       <c r="BF311" s="9"/>
       <c r="BG311" s="9"/>
     </row>
-    <row r="312" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="9"/>
       <c r="B312" s="9"/>
       <c r="C312" s="10"/>
@@ -22716,7 +22877,7 @@
       <c r="BF312" s="9"/>
       <c r="BG312" s="9"/>
     </row>
-    <row r="313" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="9"/>
       <c r="B313" s="9"/>
       <c r="C313" s="10"/>
@@ -22777,7 +22938,7 @@
       <c r="BF313" s="9"/>
       <c r="BG313" s="9"/>
     </row>
-    <row r="314" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="9"/>
       <c r="B314" s="9"/>
       <c r="C314" s="10"/>
@@ -22838,7 +22999,7 @@
       <c r="BF314" s="9"/>
       <c r="BG314" s="9"/>
     </row>
-    <row r="315" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="9"/>
       <c r="B315" s="9"/>
       <c r="C315" s="10"/>
@@ -22899,7 +23060,7 @@
       <c r="BF315" s="9"/>
       <c r="BG315" s="9"/>
     </row>
-    <row r="316" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="9"/>
       <c r="B316" s="9"/>
       <c r="C316" s="10"/>
@@ -22960,7 +23121,7 @@
       <c r="BF316" s="9"/>
       <c r="BG316" s="9"/>
     </row>
-    <row r="317" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="9"/>
       <c r="B317" s="9"/>
       <c r="C317" s="10"/>
@@ -23021,7 +23182,7 @@
       <c r="BF317" s="9"/>
       <c r="BG317" s="9"/>
     </row>
-    <row r="318" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="9"/>
       <c r="B318" s="9"/>
       <c r="C318" s="10"/>
@@ -23082,7 +23243,7 @@
       <c r="BF318" s="9"/>
       <c r="BG318" s="9"/>
     </row>
-    <row r="319" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="9"/>
       <c r="B319" s="9"/>
       <c r="C319" s="10"/>
@@ -23143,7 +23304,7 @@
       <c r="BF319" s="9"/>
       <c r="BG319" s="9"/>
     </row>
-    <row r="320" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="9"/>
       <c r="B320" s="9"/>
       <c r="C320" s="10"/>
@@ -23204,7 +23365,7 @@
       <c r="BF320" s="9"/>
       <c r="BG320" s="9"/>
     </row>
-    <row r="321" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="9"/>
       <c r="B321" s="9"/>
       <c r="C321" s="10"/>
@@ -23265,7 +23426,7 @@
       <c r="BF321" s="9"/>
       <c r="BG321" s="9"/>
     </row>
-    <row r="322" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="9"/>
       <c r="B322" s="9"/>
       <c r="C322" s="10"/>
@@ -23326,7 +23487,7 @@
       <c r="BF322" s="9"/>
       <c r="BG322" s="9"/>
     </row>
-    <row r="323" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="9"/>
       <c r="B323" s="9"/>
       <c r="C323" s="10"/>
@@ -23387,7 +23548,7 @@
       <c r="BF323" s="9"/>
       <c r="BG323" s="9"/>
     </row>
-    <row r="324" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="9"/>
       <c r="B324" s="9"/>
       <c r="C324" s="10"/>
@@ -23448,7 +23609,7 @@
       <c r="BF324" s="9"/>
       <c r="BG324" s="9"/>
     </row>
-    <row r="325" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="9"/>
       <c r="B325" s="9"/>
       <c r="C325" s="10"/>
@@ -23509,7 +23670,7 @@
       <c r="BF325" s="9"/>
       <c r="BG325" s="9"/>
     </row>
-    <row r="326" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="9"/>
       <c r="B326" s="9"/>
       <c r="C326" s="10"/>
@@ -23570,7 +23731,7 @@
       <c r="BF326" s="9"/>
       <c r="BG326" s="9"/>
     </row>
-    <row r="327" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="9"/>
       <c r="B327" s="9"/>
       <c r="C327" s="10"/>
@@ -23631,7 +23792,7 @@
       <c r="BF327" s="9"/>
       <c r="BG327" s="9"/>
     </row>
-    <row r="328" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="9"/>
       <c r="B328" s="9"/>
       <c r="C328" s="10"/>
@@ -23692,7 +23853,7 @@
       <c r="BF328" s="9"/>
       <c r="BG328" s="9"/>
     </row>
-    <row r="329" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="9"/>
       <c r="B329" s="9"/>
       <c r="C329" s="10"/>
@@ -23753,7 +23914,7 @@
       <c r="BF329" s="9"/>
       <c r="BG329" s="9"/>
     </row>
-    <row r="330" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="9"/>
       <c r="B330" s="9"/>
       <c r="C330" s="10"/>
@@ -23814,7 +23975,7 @@
       <c r="BF330" s="9"/>
       <c r="BG330" s="9"/>
     </row>
-    <row r="331" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="9"/>
       <c r="B331" s="9"/>
       <c r="C331" s="10"/>
@@ -23875,7 +24036,7 @@
       <c r="BF331" s="9"/>
       <c r="BG331" s="9"/>
     </row>
-    <row r="332" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="9"/>
       <c r="B332" s="9"/>
       <c r="C332" s="10"/>
@@ -23936,7 +24097,7 @@
       <c r="BF332" s="9"/>
       <c r="BG332" s="9"/>
     </row>
-    <row r="333" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="9"/>
       <c r="B333" s="9"/>
       <c r="C333" s="10"/>
@@ -23997,7 +24158,7 @@
       <c r="BF333" s="9"/>
       <c r="BG333" s="9"/>
     </row>
-    <row r="334" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="9"/>
       <c r="B334" s="9"/>
       <c r="C334" s="10"/>
@@ -24058,7 +24219,7 @@
       <c r="BF334" s="9"/>
       <c r="BG334" s="9"/>
     </row>
-    <row r="335" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="9"/>
       <c r="B335" s="9"/>
       <c r="C335" s="10"/>
@@ -24119,7 +24280,7 @@
       <c r="BF335" s="9"/>
       <c r="BG335" s="9"/>
     </row>
-    <row r="336" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="9"/>
       <c r="B336" s="9"/>
       <c r="C336" s="10"/>
@@ -24180,7 +24341,7 @@
       <c r="BF336" s="9"/>
       <c r="BG336" s="9"/>
     </row>
-    <row r="337" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="9"/>
       <c r="B337" s="9"/>
       <c r="C337" s="10"/>
@@ -24241,7 +24402,7 @@
       <c r="BF337" s="9"/>
       <c r="BG337" s="9"/>
     </row>
-    <row r="338" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="9"/>
       <c r="B338" s="9"/>
       <c r="C338" s="10"/>
@@ -24302,7 +24463,7 @@
       <c r="BF338" s="9"/>
       <c r="BG338" s="9"/>
     </row>
-    <row r="339" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="9"/>
       <c r="B339" s="9"/>
       <c r="C339" s="10"/>
@@ -24363,7 +24524,7 @@
       <c r="BF339" s="9"/>
       <c r="BG339" s="9"/>
     </row>
-    <row r="340" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="9"/>
       <c r="B340" s="9"/>
       <c r="C340" s="10"/>
@@ -24424,7 +24585,7 @@
       <c r="BF340" s="9"/>
       <c r="BG340" s="9"/>
     </row>
-    <row r="341" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="9"/>
       <c r="B341" s="9"/>
       <c r="C341" s="10"/>
@@ -24485,7 +24646,7 @@
       <c r="BF341" s="9"/>
       <c r="BG341" s="9"/>
     </row>
-    <row r="342" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="9"/>
       <c r="B342" s="9"/>
       <c r="C342" s="10"/>
@@ -24546,7 +24707,7 @@
       <c r="BF342" s="9"/>
       <c r="BG342" s="9"/>
     </row>
-    <row r="343" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="9"/>
       <c r="B343" s="9"/>
       <c r="C343" s="10"/>
@@ -24607,7 +24768,7 @@
       <c r="BF343" s="9"/>
       <c r="BG343" s="9"/>
     </row>
-    <row r="344" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="9"/>
       <c r="B344" s="9"/>
       <c r="C344" s="10"/>
@@ -24668,7 +24829,7 @@
       <c r="BF344" s="9"/>
       <c r="BG344" s="9"/>
     </row>
-    <row r="345" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="9"/>
       <c r="B345" s="9"/>
       <c r="C345" s="10"/>
@@ -24729,7 +24890,7 @@
       <c r="BF345" s="9"/>
       <c r="BG345" s="9"/>
     </row>
-    <row r="346" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="9"/>
       <c r="B346" s="9"/>
       <c r="C346" s="10"/>
@@ -24790,7 +24951,7 @@
       <c r="BF346" s="9"/>
       <c r="BG346" s="9"/>
     </row>
-    <row r="347" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="9"/>
       <c r="B347" s="9"/>
       <c r="C347" s="10"/>
@@ -24851,7 +25012,7 @@
       <c r="BF347" s="9"/>
       <c r="BG347" s="9"/>
     </row>
-    <row r="348" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="9"/>
       <c r="B348" s="9"/>
       <c r="C348" s="10"/>
@@ -24912,7 +25073,7 @@
       <c r="BF348" s="9"/>
       <c r="BG348" s="9"/>
     </row>
-    <row r="349" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="9"/>
       <c r="B349" s="9"/>
       <c r="C349" s="10"/>
@@ -24973,7 +25134,7 @@
       <c r="BF349" s="9"/>
       <c r="BG349" s="9"/>
     </row>
-    <row r="350" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="9"/>
       <c r="B350" s="9"/>
       <c r="C350" s="10"/>
@@ -25034,7 +25195,7 @@
       <c r="BF350" s="9"/>
       <c r="BG350" s="9"/>
     </row>
-    <row r="351" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="9"/>
       <c r="B351" s="9"/>
       <c r="C351" s="10"/>
@@ -25095,7 +25256,7 @@
       <c r="BF351" s="9"/>
       <c r="BG351" s="9"/>
     </row>
-    <row r="352" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="9"/>
       <c r="B352" s="9"/>
       <c r="C352" s="10"/>
@@ -25156,7 +25317,7 @@
       <c r="BF352" s="9"/>
       <c r="BG352" s="9"/>
     </row>
-    <row r="353" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="9"/>
       <c r="B353" s="9"/>
       <c r="C353" s="10"/>
@@ -25217,7 +25378,7 @@
       <c r="BF353" s="9"/>
       <c r="BG353" s="9"/>
     </row>
-    <row r="354" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="9"/>
       <c r="B354" s="9"/>
       <c r="C354" s="10"/>
@@ -25278,7 +25439,7 @@
       <c r="BF354" s="9"/>
       <c r="BG354" s="9"/>
     </row>
-    <row r="355" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="9"/>
       <c r="B355" s="9"/>
       <c r="C355" s="10"/>
@@ -25339,7 +25500,7 @@
       <c r="BF355" s="9"/>
       <c r="BG355" s="9"/>
     </row>
-    <row r="356" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="9"/>
       <c r="B356" s="9"/>
       <c r="C356" s="10"/>
@@ -25400,7 +25561,7 @@
       <c r="BF356" s="9"/>
       <c r="BG356" s="9"/>
     </row>
-    <row r="357" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="9"/>
       <c r="B357" s="9"/>
       <c r="C357" s="10"/>
@@ -25461,7 +25622,7 @@
       <c r="BF357" s="9"/>
       <c r="BG357" s="9"/>
     </row>
-    <row r="358" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="9"/>
       <c r="B358" s="9"/>
       <c r="C358" s="10"/>
@@ -25522,7 +25683,7 @@
       <c r="BF358" s="9"/>
       <c r="BG358" s="9"/>
     </row>
-    <row r="359" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="9"/>
       <c r="B359" s="9"/>
       <c r="C359" s="10"/>
@@ -25583,7 +25744,7 @@
       <c r="BF359" s="9"/>
       <c r="BG359" s="9"/>
     </row>
-    <row r="360" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="9"/>
       <c r="B360" s="9"/>
       <c r="C360" s="10"/>
@@ -25644,7 +25805,7 @@
       <c r="BF360" s="9"/>
       <c r="BG360" s="9"/>
     </row>
-    <row r="361" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="9"/>
       <c r="B361" s="9"/>
       <c r="C361" s="10"/>
@@ -25705,7 +25866,7 @@
       <c r="BF361" s="9"/>
       <c r="BG361" s="9"/>
     </row>
-    <row r="362" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="9"/>
       <c r="B362" s="9"/>
       <c r="C362" s="10"/>
@@ -25766,7 +25927,7 @@
       <c r="BF362" s="9"/>
       <c r="BG362" s="9"/>
     </row>
-    <row r="363" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="9"/>
       <c r="B363" s="9"/>
       <c r="C363" s="10"/>
@@ -25827,7 +25988,7 @@
       <c r="BF363" s="9"/>
       <c r="BG363" s="9"/>
     </row>
-    <row r="364" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="9"/>
       <c r="B364" s="9"/>
       <c r="C364" s="10"/>
@@ -25888,7 +26049,7 @@
       <c r="BF364" s="9"/>
       <c r="BG364" s="9"/>
     </row>
-    <row r="365" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="9"/>
       <c r="B365" s="9"/>
       <c r="C365" s="10"/>
@@ -25949,7 +26110,7 @@
       <c r="BF365" s="9"/>
       <c r="BG365" s="9"/>
     </row>
-    <row r="366" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="9"/>
       <c r="B366" s="9"/>
       <c r="C366" s="10"/>
@@ -26010,7 +26171,7 @@
       <c r="BF366" s="9"/>
       <c r="BG366" s="9"/>
     </row>
-    <row r="367" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="9"/>
       <c r="B367" s="9"/>
       <c r="C367" s="10"/>
@@ -26071,7 +26232,7 @@
       <c r="BF367" s="9"/>
       <c r="BG367" s="9"/>
     </row>
-    <row r="368" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="9"/>
       <c r="B368" s="9"/>
       <c r="C368" s="10"/>
@@ -26132,7 +26293,7 @@
       <c r="BF368" s="9"/>
       <c r="BG368" s="9"/>
     </row>
-    <row r="369" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="9"/>
       <c r="B369" s="9"/>
       <c r="C369" s="10"/>
@@ -26193,7 +26354,7 @@
       <c r="BF369" s="9"/>
       <c r="BG369" s="9"/>
     </row>
-    <row r="370" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="9"/>
       <c r="B370" s="9"/>
       <c r="C370" s="10"/>
@@ -26254,7 +26415,7 @@
       <c r="BF370" s="9"/>
       <c r="BG370" s="9"/>
     </row>
-    <row r="371" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="9"/>
       <c r="B371" s="9"/>
       <c r="C371" s="10"/>
@@ -26315,7 +26476,7 @@
       <c r="BF371" s="9"/>
       <c r="BG371" s="9"/>
     </row>
-    <row r="372" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="9"/>
       <c r="B372" s="9"/>
       <c r="C372" s="10"/>
@@ -26376,7 +26537,7 @@
       <c r="BF372" s="9"/>
       <c r="BG372" s="9"/>
     </row>
-    <row r="373" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="9"/>
       <c r="B373" s="9"/>
       <c r="C373" s="10"/>
@@ -26437,7 +26598,7 @@
       <c r="BF373" s="9"/>
       <c r="BG373" s="9"/>
     </row>
-    <row r="374" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="9"/>
       <c r="B374" s="9"/>
       <c r="C374" s="10"/>
@@ -26498,7 +26659,7 @@
       <c r="BF374" s="9"/>
       <c r="BG374" s="9"/>
     </row>
-    <row r="375" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="9"/>
       <c r="B375" s="9"/>
       <c r="C375" s="10"/>
@@ -26559,7 +26720,7 @@
       <c r="BF375" s="9"/>
       <c r="BG375" s="9"/>
     </row>
-    <row r="376" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="9"/>
       <c r="B376" s="9"/>
       <c r="C376" s="10"/>
@@ -26620,7 +26781,7 @@
       <c r="BF376" s="9"/>
       <c r="BG376" s="9"/>
     </row>
-    <row r="377" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="9"/>
       <c r="B377" s="9"/>
       <c r="C377" s="10"/>
@@ -26681,7 +26842,7 @@
       <c r="BF377" s="9"/>
       <c r="BG377" s="9"/>
     </row>
-    <row r="378" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="9"/>
       <c r="B378" s="9"/>
       <c r="C378" s="10"/>
@@ -26742,7 +26903,7 @@
       <c r="BF378" s="9"/>
       <c r="BG378" s="9"/>
     </row>
-    <row r="379" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="9"/>
       <c r="B379" s="9"/>
       <c r="C379" s="10"/>
@@ -26803,7 +26964,7 @@
       <c r="BF379" s="9"/>
       <c r="BG379" s="9"/>
     </row>
-    <row r="380" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="9"/>
       <c r="B380" s="9"/>
       <c r="C380" s="10"/>
@@ -26864,7 +27025,7 @@
       <c r="BF380" s="9"/>
       <c r="BG380" s="9"/>
     </row>
-    <row r="381" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="9"/>
       <c r="B381" s="9"/>
       <c r="C381" s="10"/>
@@ -26925,7 +27086,7 @@
       <c r="BF381" s="9"/>
       <c r="BG381" s="9"/>
     </row>
-    <row r="382" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="9"/>
       <c r="B382" s="9"/>
       <c r="C382" s="10"/>
@@ -26986,7 +27147,7 @@
       <c r="BF382" s="9"/>
       <c r="BG382" s="9"/>
     </row>
-    <row r="383" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="9"/>
       <c r="B383" s="9"/>
       <c r="C383" s="10"/>
@@ -27047,7 +27208,7 @@
       <c r="BF383" s="9"/>
       <c r="BG383" s="9"/>
     </row>
-    <row r="384" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="9"/>
       <c r="B384" s="9"/>
       <c r="C384" s="10"/>
@@ -27108,7 +27269,7 @@
       <c r="BF384" s="9"/>
       <c r="BG384" s="9"/>
     </row>
-    <row r="385" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="9"/>
       <c r="B385" s="9"/>
       <c r="C385" s="10"/>
@@ -27169,7 +27330,7 @@
       <c r="BF385" s="9"/>
       <c r="BG385" s="9"/>
     </row>
-    <row r="386" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="9"/>
       <c r="B386" s="9"/>
       <c r="C386" s="10"/>
@@ -27230,7 +27391,7 @@
       <c r="BF386" s="9"/>
       <c r="BG386" s="9"/>
     </row>
-    <row r="387" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="9"/>
       <c r="B387" s="9"/>
       <c r="C387" s="10"/>
@@ -27291,7 +27452,7 @@
       <c r="BF387" s="9"/>
       <c r="BG387" s="9"/>
     </row>
-    <row r="388" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="9"/>
       <c r="B388" s="9"/>
       <c r="C388" s="10"/>
@@ -27352,7 +27513,7 @@
       <c r="BF388" s="9"/>
       <c r="BG388" s="9"/>
     </row>
-    <row r="389" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="9"/>
       <c r="B389" s="9"/>
       <c r="C389" s="10"/>
@@ -27413,7 +27574,7 @@
       <c r="BF389" s="9"/>
       <c r="BG389" s="9"/>
     </row>
-    <row r="390" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="9"/>
       <c r="B390" s="9"/>
       <c r="C390" s="10"/>
@@ -27474,7 +27635,7 @@
       <c r="BF390" s="9"/>
       <c r="BG390" s="9"/>
     </row>
-    <row r="391" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="9"/>
       <c r="B391" s="9"/>
       <c r="C391" s="10"/>
@@ -27535,7 +27696,7 @@
       <c r="BF391" s="9"/>
       <c r="BG391" s="9"/>
     </row>
-    <row r="392" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="9"/>
       <c r="B392" s="9"/>
       <c r="C392" s="10"/>
@@ -27596,7 +27757,7 @@
       <c r="BF392" s="9"/>
       <c r="BG392" s="9"/>
     </row>
-    <row r="393" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="9"/>
       <c r="B393" s="9"/>
       <c r="C393" s="10"/>
@@ -27657,7 +27818,7 @@
       <c r="BF393" s="9"/>
       <c r="BG393" s="9"/>
     </row>
-    <row r="394" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="9"/>
       <c r="B394" s="9"/>
       <c r="C394" s="10"/>
@@ -27718,7 +27879,7 @@
       <c r="BF394" s="9"/>
       <c r="BG394" s="9"/>
     </row>
-    <row r="395" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="9"/>
       <c r="B395" s="9"/>
       <c r="C395" s="10"/>
@@ -27779,7 +27940,7 @@
       <c r="BF395" s="9"/>
       <c r="BG395" s="9"/>
     </row>
-    <row r="396" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="9"/>
       <c r="B396" s="9"/>
       <c r="C396" s="10"/>
@@ -27840,7 +28001,7 @@
       <c r="BF396" s="9"/>
       <c r="BG396" s="9"/>
     </row>
-    <row r="397" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="9"/>
       <c r="B397" s="9"/>
       <c r="C397" s="10"/>
@@ -27901,7 +28062,7 @@
       <c r="BF397" s="9"/>
       <c r="BG397" s="9"/>
     </row>
-    <row r="398" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="9"/>
       <c r="B398" s="9"/>
       <c r="C398" s="10"/>
@@ -27962,7 +28123,7 @@
       <c r="BF398" s="9"/>
       <c r="BG398" s="9"/>
     </row>
-    <row r="399" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="9"/>
       <c r="B399" s="9"/>
       <c r="C399" s="10"/>
@@ -28023,7 +28184,7 @@
       <c r="BF399" s="9"/>
       <c r="BG399" s="9"/>
     </row>
-    <row r="400" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="9"/>
       <c r="B400" s="9"/>
       <c r="C400" s="10"/>
@@ -28084,7 +28245,7 @@
       <c r="BF400" s="9"/>
       <c r="BG400" s="9"/>
     </row>
-    <row r="401" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="9"/>
       <c r="B401" s="9"/>
       <c r="C401" s="10"/>
@@ -28145,7 +28306,7 @@
       <c r="BF401" s="9"/>
       <c r="BG401" s="9"/>
     </row>
-    <row r="402" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="9"/>
       <c r="B402" s="9"/>
       <c r="C402" s="10"/>
@@ -28206,7 +28367,7 @@
       <c r="BF402" s="9"/>
       <c r="BG402" s="9"/>
     </row>
-    <row r="403" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="9"/>
       <c r="B403" s="9"/>
       <c r="C403" s="10"/>
@@ -28267,7 +28428,7 @@
       <c r="BF403" s="9"/>
       <c r="BG403" s="9"/>
     </row>
-    <row r="404" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="9"/>
       <c r="B404" s="9"/>
       <c r="C404" s="10"/>
@@ -28328,7 +28489,7 @@
       <c r="BF404" s="9"/>
       <c r="BG404" s="9"/>
     </row>
-    <row r="405" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="9"/>
       <c r="B405" s="9"/>
       <c r="C405" s="10"/>
@@ -28389,7 +28550,7 @@
       <c r="BF405" s="9"/>
       <c r="BG405" s="9"/>
     </row>
-    <row r="406" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="9"/>
       <c r="B406" s="9"/>
       <c r="C406" s="10"/>
@@ -28450,7 +28611,7 @@
       <c r="BF406" s="9"/>
       <c r="BG406" s="9"/>
     </row>
-    <row r="407" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="9"/>
       <c r="B407" s="9"/>
       <c r="C407" s="10"/>
@@ -28511,7 +28672,7 @@
       <c r="BF407" s="9"/>
       <c r="BG407" s="9"/>
     </row>
-    <row r="408" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="9"/>
       <c r="B408" s="9"/>
       <c r="C408" s="10"/>
@@ -28572,7 +28733,7 @@
       <c r="BF408" s="9"/>
       <c r="BG408" s="9"/>
     </row>
-    <row r="409" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="9"/>
       <c r="B409" s="9"/>
       <c r="C409" s="10"/>
@@ -28633,7 +28794,7 @@
       <c r="BF409" s="9"/>
       <c r="BG409" s="9"/>
     </row>
-    <row r="410" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="9"/>
       <c r="B410" s="9"/>
       <c r="C410" s="10"/>
@@ -28694,7 +28855,7 @@
       <c r="BF410" s="9"/>
       <c r="BG410" s="9"/>
     </row>
-    <row r="411" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="9"/>
       <c r="B411" s="9"/>
       <c r="C411" s="10"/>
@@ -28755,7 +28916,7 @@
       <c r="BF411" s="9"/>
       <c r="BG411" s="9"/>
     </row>
-    <row r="412" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="9"/>
       <c r="B412" s="9"/>
       <c r="C412" s="10"/>
@@ -28816,7 +28977,7 @@
       <c r="BF412" s="9"/>
       <c r="BG412" s="9"/>
     </row>
-    <row r="413" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="9"/>
       <c r="B413" s="9"/>
       <c r="C413" s="10"/>
@@ -28877,7 +29038,7 @@
       <c r="BF413" s="9"/>
       <c r="BG413" s="9"/>
     </row>
-    <row r="414" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="9"/>
       <c r="B414" s="9"/>
       <c r="C414" s="10"/>
@@ -28938,7 +29099,7 @@
       <c r="BF414" s="9"/>
       <c r="BG414" s="9"/>
     </row>
-    <row r="415" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="9"/>
       <c r="B415" s="9"/>
       <c r="C415" s="10"/>
@@ -28999,7 +29160,7 @@
       <c r="BF415" s="9"/>
       <c r="BG415" s="9"/>
     </row>
-    <row r="416" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="9"/>
       <c r="B416" s="9"/>
       <c r="C416" s="10"/>
@@ -29060,7 +29221,7 @@
       <c r="BF416" s="9"/>
       <c r="BG416" s="9"/>
     </row>
-    <row r="417" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="9"/>
       <c r="B417" s="9"/>
       <c r="C417" s="10"/>
@@ -29121,7 +29282,7 @@
       <c r="BF417" s="9"/>
       <c r="BG417" s="9"/>
     </row>
-    <row r="418" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="9"/>
       <c r="B418" s="9"/>
       <c r="C418" s="10"/>
@@ -29182,7 +29343,7 @@
       <c r="BF418" s="9"/>
       <c r="BG418" s="9"/>
     </row>
-    <row r="419" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="9"/>
       <c r="B419" s="9"/>
       <c r="C419" s="10"/>
@@ -29243,7 +29404,7 @@
       <c r="BF419" s="9"/>
       <c r="BG419" s="9"/>
     </row>
-    <row r="420" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="9"/>
       <c r="B420" s="9"/>
       <c r="C420" s="10"/>
@@ -29304,7 +29465,7 @@
       <c r="BF420" s="9"/>
       <c r="BG420" s="9"/>
     </row>
-    <row r="421" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="9"/>
       <c r="B421" s="9"/>
       <c r="C421" s="10"/>
@@ -29365,7 +29526,7 @@
       <c r="BF421" s="9"/>
       <c r="BG421" s="9"/>
     </row>
-    <row r="422" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="9"/>
       <c r="B422" s="9"/>
       <c r="C422" s="10"/>
@@ -29426,7 +29587,7 @@
       <c r="BF422" s="9"/>
       <c r="BG422" s="9"/>
     </row>
-    <row r="423" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="9"/>
       <c r="B423" s="9"/>
       <c r="C423" s="10"/>
@@ -29487,7 +29648,7 @@
       <c r="BF423" s="9"/>
       <c r="BG423" s="9"/>
     </row>
-    <row r="424" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="9"/>
       <c r="B424" s="9"/>
       <c r="C424" s="10"/>
@@ -29548,7 +29709,7 @@
       <c r="BF424" s="9"/>
       <c r="BG424" s="9"/>
     </row>
-    <row r="425" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="9"/>
       <c r="B425" s="9"/>
       <c r="C425" s="10"/>
@@ -29609,7 +29770,7 @@
       <c r="BF425" s="9"/>
       <c r="BG425" s="9"/>
     </row>
-    <row r="426" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="9"/>
       <c r="B426" s="9"/>
       <c r="C426" s="10"/>
@@ -29670,7 +29831,7 @@
       <c r="BF426" s="9"/>
       <c r="BG426" s="9"/>
     </row>
-    <row r="427" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="9"/>
       <c r="B427" s="9"/>
       <c r="C427" s="10"/>
@@ -29731,7 +29892,7 @@
       <c r="BF427" s="9"/>
       <c r="BG427" s="9"/>
     </row>
-    <row r="428" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="9"/>
       <c r="B428" s="9"/>
       <c r="C428" s="10"/>
@@ -29792,7 +29953,7 @@
       <c r="BF428" s="9"/>
       <c r="BG428" s="9"/>
     </row>
-    <row r="429" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="9"/>
       <c r="B429" s="9"/>
       <c r="C429" s="10"/>
@@ -29853,7 +30014,7 @@
       <c r="BF429" s="9"/>
       <c r="BG429" s="9"/>
     </row>
-    <row r="430" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="9"/>
       <c r="B430" s="9"/>
       <c r="C430" s="10"/>
@@ -29914,7 +30075,7 @@
       <c r="BF430" s="9"/>
       <c r="BG430" s="9"/>
     </row>
-    <row r="431" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="9"/>
       <c r="B431" s="9"/>
       <c r="C431" s="10"/>
@@ -29975,7 +30136,7 @@
       <c r="BF431" s="9"/>
       <c r="BG431" s="9"/>
     </row>
-    <row r="432" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="9"/>
       <c r="B432" s="9"/>
       <c r="C432" s="10"/>
@@ -30036,7 +30197,7 @@
       <c r="BF432" s="9"/>
       <c r="BG432" s="9"/>
     </row>
-    <row r="433" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="9"/>
       <c r="B433" s="9"/>
       <c r="C433" s="10"/>
@@ -30097,7 +30258,7 @@
       <c r="BF433" s="9"/>
       <c r="BG433" s="9"/>
     </row>
-    <row r="434" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="9"/>
       <c r="B434" s="9"/>
       <c r="C434" s="10"/>
@@ -30158,7 +30319,7 @@
       <c r="BF434" s="9"/>
       <c r="BG434" s="9"/>
     </row>
-    <row r="435" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="9"/>
       <c r="B435" s="9"/>
       <c r="C435" s="10"/>
@@ -30219,7 +30380,7 @@
       <c r="BF435" s="9"/>
       <c r="BG435" s="9"/>
     </row>
-    <row r="436" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="9"/>
       <c r="B436" s="9"/>
       <c r="C436" s="10"/>
@@ -30280,7 +30441,7 @@
       <c r="BF436" s="9"/>
       <c r="BG436" s="9"/>
     </row>
-    <row r="437" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="9"/>
       <c r="B437" s="9"/>
       <c r="C437" s="10"/>
@@ -30341,7 +30502,7 @@
       <c r="BF437" s="9"/>
       <c r="BG437" s="9"/>
     </row>
-    <row r="438" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="9"/>
       <c r="B438" s="9"/>
       <c r="C438" s="10"/>
@@ -30402,7 +30563,7 @@
       <c r="BF438" s="9"/>
       <c r="BG438" s="9"/>
     </row>
-    <row r="439" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="9"/>
       <c r="B439" s="9"/>
       <c r="C439" s="10"/>
@@ -30463,7 +30624,7 @@
       <c r="BF439" s="9"/>
       <c r="BG439" s="9"/>
     </row>
-    <row r="440" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="9"/>
       <c r="B440" s="9"/>
       <c r="C440" s="10"/>
@@ -30524,7 +30685,7 @@
       <c r="BF440" s="9"/>
       <c r="BG440" s="9"/>
     </row>
-    <row r="441" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="9"/>
       <c r="B441" s="9"/>
       <c r="C441" s="10"/>
@@ -30585,7 +30746,7 @@
       <c r="BF441" s="9"/>
       <c r="BG441" s="9"/>
     </row>
-    <row r="442" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="9"/>
       <c r="B442" s="9"/>
       <c r="C442" s="10"/>
@@ -30646,7 +30807,7 @@
       <c r="BF442" s="9"/>
       <c r="BG442" s="9"/>
     </row>
-    <row r="443" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="9"/>
       <c r="B443" s="9"/>
       <c r="C443" s="10"/>
@@ -30707,7 +30868,7 @@
       <c r="BF443" s="9"/>
       <c r="BG443" s="9"/>
     </row>
-    <row r="444" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="9"/>
       <c r="B444" s="9"/>
       <c r="C444" s="10"/>
@@ -30768,7 +30929,7 @@
       <c r="BF444" s="9"/>
       <c r="BG444" s="9"/>
     </row>
-    <row r="445" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="9"/>
       <c r="B445" s="9"/>
       <c r="C445" s="10"/>
@@ -30829,7 +30990,7 @@
       <c r="BF445" s="9"/>
       <c r="BG445" s="9"/>
     </row>
-    <row r="446" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="9"/>
       <c r="B446" s="9"/>
       <c r="C446" s="10"/>
@@ -30890,7 +31051,7 @@
       <c r="BF446" s="9"/>
       <c r="BG446" s="9"/>
     </row>
-    <row r="447" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="9"/>
       <c r="B447" s="9"/>
       <c r="C447" s="10"/>
@@ -30951,7 +31112,7 @@
       <c r="BF447" s="9"/>
       <c r="BG447" s="9"/>
     </row>
-    <row r="448" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="9"/>
       <c r="B448" s="9"/>
       <c r="C448" s="10"/>
@@ -31012,7 +31173,7 @@
       <c r="BF448" s="9"/>
       <c r="BG448" s="9"/>
     </row>
-    <row r="449" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="9"/>
       <c r="B449" s="9"/>
       <c r="C449" s="10"/>
@@ -31073,7 +31234,7 @@
       <c r="BF449" s="9"/>
       <c r="BG449" s="9"/>
     </row>
-    <row r="450" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="9"/>
       <c r="B450" s="9"/>
       <c r="C450" s="10"/>
@@ -31134,7 +31295,7 @@
       <c r="BF450" s="9"/>
       <c r="BG450" s="9"/>
     </row>
-    <row r="451" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="9"/>
       <c r="B451" s="9"/>
       <c r="C451" s="10"/>
@@ -31195,7 +31356,7 @@
       <c r="BF451" s="9"/>
       <c r="BG451" s="9"/>
     </row>
-    <row r="452" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="9"/>
       <c r="B452" s="9"/>
       <c r="C452" s="10"/>
@@ -31256,7 +31417,7 @@
       <c r="BF452" s="9"/>
       <c r="BG452" s="9"/>
     </row>
-    <row r="453" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="9"/>
       <c r="B453" s="9"/>
       <c r="C453" s="10"/>
@@ -31317,7 +31478,7 @@
       <c r="BF453" s="9"/>
       <c r="BG453" s="9"/>
     </row>
-    <row r="454" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="9"/>
       <c r="B454" s="9"/>
       <c r="C454" s="10"/>
@@ -31378,7 +31539,7 @@
       <c r="BF454" s="9"/>
       <c r="BG454" s="9"/>
     </row>
-    <row r="455" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="9"/>
       <c r="B455" s="9"/>
       <c r="C455" s="10"/>
@@ -31439,7 +31600,7 @@
       <c r="BF455" s="9"/>
       <c r="BG455" s="9"/>
     </row>
-    <row r="456" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="9"/>
       <c r="B456" s="9"/>
       <c r="C456" s="10"/>
@@ -31500,7 +31661,7 @@
       <c r="BF456" s="9"/>
       <c r="BG456" s="9"/>
     </row>
-    <row r="457" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="9"/>
       <c r="B457" s="9"/>
       <c r="C457" s="10"/>
@@ -31561,7 +31722,7 @@
       <c r="BF457" s="9"/>
       <c r="BG457" s="9"/>
     </row>
-    <row r="458" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="9"/>
       <c r="B458" s="9"/>
       <c r="C458" s="10"/>
@@ -31622,7 +31783,7 @@
       <c r="BF458" s="9"/>
       <c r="BG458" s="9"/>
     </row>
-    <row r="459" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="9"/>
       <c r="B459" s="9"/>
       <c r="C459" s="10"/>
@@ -31683,7 +31844,7 @@
       <c r="BF459" s="9"/>
       <c r="BG459" s="9"/>
     </row>
-    <row r="460" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="9"/>
       <c r="B460" s="9"/>
       <c r="C460" s="10"/>
@@ -31744,7 +31905,7 @@
       <c r="BF460" s="9"/>
       <c r="BG460" s="9"/>
     </row>
-    <row r="461" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="9"/>
       <c r="B461" s="9"/>
       <c r="C461" s="10"/>
@@ -31805,7 +31966,7 @@
       <c r="BF461" s="9"/>
       <c r="BG461" s="9"/>
     </row>
-    <row r="462" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="9"/>
       <c r="B462" s="9"/>
       <c r="C462" s="10"/>
@@ -31866,7 +32027,7 @@
       <c r="BF462" s="9"/>
       <c r="BG462" s="9"/>
     </row>
-    <row r="463" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="9"/>
       <c r="B463" s="9"/>
       <c r="C463" s="10"/>
@@ -31927,7 +32088,7 @@
       <c r="BF463" s="9"/>
       <c r="BG463" s="9"/>
     </row>
-    <row r="464" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="9"/>
       <c r="B464" s="9"/>
       <c r="C464" s="10"/>
@@ -31988,7 +32149,7 @@
       <c r="BF464" s="9"/>
       <c r="BG464" s="9"/>
     </row>
-    <row r="465" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="9"/>
       <c r="B465" s="9"/>
       <c r="C465" s="10"/>
@@ -32049,7 +32210,7 @@
       <c r="BF465" s="9"/>
       <c r="BG465" s="9"/>
     </row>
-    <row r="466" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="9"/>
       <c r="B466" s="9"/>
       <c r="C466" s="10"/>
@@ -32110,7 +32271,7 @@
       <c r="BF466" s="9"/>
       <c r="BG466" s="9"/>
     </row>
-    <row r="467" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="9"/>
       <c r="B467" s="9"/>
       <c r="C467" s="10"/>
@@ -32171,7 +32332,7 @@
       <c r="BF467" s="9"/>
       <c r="BG467" s="9"/>
     </row>
-    <row r="468" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="9"/>
       <c r="B468" s="9"/>
       <c r="C468" s="10"/>
@@ -32232,7 +32393,7 @@
       <c r="BF468" s="9"/>
       <c r="BG468" s="9"/>
     </row>
-    <row r="469" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="9"/>
       <c r="B469" s="9"/>
       <c r="C469" s="10"/>
@@ -32293,7 +32454,7 @@
       <c r="BF469" s="9"/>
       <c r="BG469" s="9"/>
     </row>
-    <row r="470" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="9"/>
       <c r="B470" s="9"/>
       <c r="C470" s="10"/>
@@ -32354,7 +32515,7 @@
       <c r="BF470" s="9"/>
       <c r="BG470" s="9"/>
     </row>
-    <row r="471" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="9"/>
       <c r="B471" s="9"/>
       <c r="C471" s="10"/>
@@ -32415,7 +32576,7 @@
       <c r="BF471" s="9"/>
       <c r="BG471" s="9"/>
     </row>
-    <row r="472" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="9"/>
       <c r="B472" s="9"/>
       <c r="C472" s="10"/>
@@ -32476,7 +32637,7 @@
       <c r="BF472" s="9"/>
       <c r="BG472" s="9"/>
     </row>
-    <row r="473" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="9"/>
       <c r="B473" s="9"/>
       <c r="C473" s="10"/>
@@ -32537,7 +32698,7 @@
       <c r="BF473" s="9"/>
       <c r="BG473" s="9"/>
     </row>
-    <row r="474" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="9"/>
       <c r="B474" s="9"/>
       <c r="C474" s="10"/>
@@ -32598,7 +32759,7 @@
       <c r="BF474" s="9"/>
       <c r="BG474" s="9"/>
     </row>
-    <row r="475" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="9"/>
       <c r="B475" s="9"/>
       <c r="C475" s="10"/>
@@ -32659,7 +32820,7 @@
       <c r="BF475" s="9"/>
       <c r="BG475" s="9"/>
     </row>
-    <row r="476" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="9"/>
       <c r="B476" s="9"/>
       <c r="C476" s="10"/>
@@ -32720,7 +32881,7 @@
       <c r="BF476" s="9"/>
       <c r="BG476" s="9"/>
     </row>
-    <row r="477" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="9"/>
       <c r="B477" s="9"/>
       <c r="C477" s="10"/>
@@ -32781,7 +32942,7 @@
       <c r="BF477" s="9"/>
       <c r="BG477" s="9"/>
     </row>
-    <row r="478" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="9"/>
       <c r="B478" s="9"/>
       <c r="C478" s="10"/>
@@ -32842,7 +33003,7 @@
       <c r="BF478" s="9"/>
       <c r="BG478" s="9"/>
     </row>
-    <row r="479" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="9"/>
       <c r="B479" s="9"/>
       <c r="C479" s="10"/>
@@ -32903,7 +33064,7 @@
       <c r="BF479" s="9"/>
       <c r="BG479" s="9"/>
     </row>
-    <row r="480" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="9"/>
       <c r="B480" s="9"/>
       <c r="C480" s="10"/>
@@ -32964,7 +33125,7 @@
       <c r="BF480" s="9"/>
       <c r="BG480" s="9"/>
     </row>
-    <row r="481" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="9"/>
       <c r="B481" s="9"/>
       <c r="C481" s="10"/>
@@ -33025,7 +33186,7 @@
       <c r="BF481" s="9"/>
       <c r="BG481" s="9"/>
     </row>
-    <row r="482" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="9"/>
       <c r="B482" s="9"/>
       <c r="C482" s="10"/>
@@ -33086,7 +33247,7 @@
       <c r="BF482" s="9"/>
       <c r="BG482" s="9"/>
     </row>
-    <row r="483" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="9"/>
       <c r="B483" s="9"/>
       <c r="C483" s="10"/>
@@ -33147,7 +33308,7 @@
       <c r="BF483" s="9"/>
       <c r="BG483" s="9"/>
     </row>
-    <row r="484" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="9"/>
       <c r="B484" s="9"/>
       <c r="C484" s="10"/>
@@ -33208,7 +33369,7 @@
       <c r="BF484" s="9"/>
       <c r="BG484" s="9"/>
     </row>
-    <row r="485" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="9"/>
       <c r="B485" s="9"/>
       <c r="C485" s="10"/>
@@ -33269,7 +33430,7 @@
       <c r="BF485" s="9"/>
       <c r="BG485" s="9"/>
     </row>
-    <row r="486" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="9"/>
       <c r="B486" s="9"/>
       <c r="C486" s="10"/>
@@ -33330,7 +33491,7 @@
       <c r="BF486" s="9"/>
       <c r="BG486" s="9"/>
     </row>
-    <row r="487" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="9"/>
       <c r="B487" s="9"/>
       <c r="C487" s="10"/>
@@ -33391,7 +33552,7 @@
       <c r="BF487" s="9"/>
       <c r="BG487" s="9"/>
     </row>
-    <row r="488" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="9"/>
       <c r="B488" s="9"/>
       <c r="C488" s="10"/>
@@ -33452,7 +33613,7 @@
       <c r="BF488" s="9"/>
       <c r="BG488" s="9"/>
     </row>
-    <row r="489" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="9"/>
       <c r="B489" s="9"/>
       <c r="C489" s="10"/>
@@ -33513,7 +33674,7 @@
       <c r="BF489" s="9"/>
       <c r="BG489" s="9"/>
     </row>
-    <row r="490" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="9"/>
       <c r="B490" s="9"/>
       <c r="C490" s="10"/>
@@ -33574,7 +33735,7 @@
       <c r="BF490" s="9"/>
       <c r="BG490" s="9"/>
     </row>
-    <row r="491" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="9"/>
       <c r="B491" s="9"/>
       <c r="C491" s="10"/>
@@ -33635,7 +33796,7 @@
       <c r="BF491" s="9"/>
       <c r="BG491" s="9"/>
     </row>
-    <row r="492" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="9"/>
       <c r="B492" s="9"/>
       <c r="C492" s="10"/>
@@ -33696,7 +33857,7 @@
       <c r="BF492" s="9"/>
       <c r="BG492" s="9"/>
     </row>
-    <row r="493" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="9"/>
       <c r="B493" s="9"/>
       <c r="C493" s="10"/>
@@ -33757,7 +33918,7 @@
       <c r="BF493" s="9"/>
       <c r="BG493" s="9"/>
     </row>
-    <row r="494" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="9"/>
       <c r="B494" s="9"/>
       <c r="C494" s="10"/>
@@ -33818,7 +33979,7 @@
       <c r="BF494" s="9"/>
       <c r="BG494" s="9"/>
     </row>
-    <row r="495" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="9"/>
       <c r="B495" s="9"/>
       <c r="C495" s="10"/>
@@ -33879,7 +34040,7 @@
       <c r="BF495" s="9"/>
       <c r="BG495" s="9"/>
     </row>
-    <row r="496" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="9"/>
       <c r="B496" s="9"/>
       <c r="C496" s="10"/>
@@ -33940,7 +34101,7 @@
       <c r="BF496" s="9"/>
       <c r="BG496" s="9"/>
     </row>
-    <row r="497" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="9"/>
       <c r="B497" s="9"/>
       <c r="C497" s="10"/>
@@ -34001,7 +34162,7 @@
       <c r="BF497" s="9"/>
       <c r="BG497" s="9"/>
     </row>
-    <row r="498" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="9"/>
       <c r="B498" s="9"/>
       <c r="C498" s="10"/>
@@ -34062,7 +34223,7 @@
       <c r="BF498" s="9"/>
       <c r="BG498" s="9"/>
     </row>
-    <row r="499" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="9"/>
       <c r="B499" s="9"/>
       <c r="C499" s="10"/>
@@ -34123,7 +34284,7 @@
       <c r="BF499" s="9"/>
       <c r="BG499" s="9"/>
     </row>
-    <row r="500" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="9"/>
       <c r="B500" s="9"/>
       <c r="C500" s="10"/>
@@ -34184,7 +34345,7 @@
       <c r="BF500" s="9"/>
       <c r="BG500" s="9"/>
     </row>
-    <row r="501" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="9"/>
       <c r="B501" s="9"/>
       <c r="C501" s="10"/>
@@ -34245,7 +34406,7 @@
       <c r="BF501" s="9"/>
       <c r="BG501" s="9"/>
     </row>
-    <row r="502" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="9"/>
       <c r="B502" s="9"/>
       <c r="C502" s="10"/>
@@ -34306,7 +34467,7 @@
       <c r="BF502" s="9"/>
       <c r="BG502" s="9"/>
     </row>
-    <row r="503" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="9"/>
       <c r="B503" s="9"/>
       <c r="C503" s="10"/>
@@ -34367,7 +34528,7 @@
       <c r="BF503" s="9"/>
       <c r="BG503" s="9"/>
     </row>
-    <row r="504" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="9"/>
       <c r="B504" s="9"/>
       <c r="C504" s="10"/>
@@ -34428,7 +34589,7 @@
       <c r="BF504" s="9"/>
       <c r="BG504" s="9"/>
     </row>
-    <row r="505" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="9"/>
       <c r="B505" s="9"/>
       <c r="C505" s="10"/>
@@ -34489,7 +34650,7 @@
       <c r="BF505" s="9"/>
       <c r="BG505" s="9"/>
     </row>
-    <row r="506" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="9"/>
       <c r="B506" s="9"/>
       <c r="C506" s="10"/>
@@ -34550,7 +34711,7 @@
       <c r="BF506" s="9"/>
       <c r="BG506" s="9"/>
     </row>
-    <row r="507" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="9"/>
       <c r="B507" s="9"/>
       <c r="C507" s="10"/>
@@ -34611,7 +34772,7 @@
       <c r="BF507" s="9"/>
       <c r="BG507" s="9"/>
     </row>
-    <row r="508" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="9"/>
       <c r="B508" s="9"/>
       <c r="C508" s="10"/>
@@ -34672,7 +34833,7 @@
       <c r="BF508" s="9"/>
       <c r="BG508" s="9"/>
     </row>
-    <row r="509" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="9"/>
       <c r="B509" s="9"/>
       <c r="C509" s="10"/>
@@ -34733,7 +34894,7 @@
       <c r="BF509" s="9"/>
       <c r="BG509" s="9"/>
     </row>
-    <row r="510" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="9"/>
       <c r="B510" s="9"/>
       <c r="C510" s="10"/>
@@ -34794,7 +34955,7 @@
       <c r="BF510" s="9"/>
       <c r="BG510" s="9"/>
     </row>
-    <row r="511" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="9"/>
       <c r="B511" s="9"/>
       <c r="C511" s="10"/>
@@ -34855,7 +35016,7 @@
       <c r="BF511" s="9"/>
       <c r="BG511" s="9"/>
     </row>
-    <row r="512" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="9"/>
       <c r="B512" s="9"/>
       <c r="C512" s="10"/>
@@ -34916,7 +35077,7 @@
       <c r="BF512" s="9"/>
       <c r="BG512" s="9"/>
     </row>
-    <row r="513" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="9"/>
       <c r="B513" s="9"/>
       <c r="C513" s="10"/>
@@ -34977,7 +35138,7 @@
       <c r="BF513" s="9"/>
       <c r="BG513" s="9"/>
     </row>
-    <row r="514" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="9"/>
       <c r="B514" s="9"/>
       <c r="C514" s="10"/>
@@ -35038,7 +35199,7 @@
       <c r="BF514" s="9"/>
       <c r="BG514" s="9"/>
     </row>
-    <row r="515" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="9"/>
       <c r="B515" s="9"/>
       <c r="C515" s="10"/>
@@ -35099,7 +35260,7 @@
       <c r="BF515" s="9"/>
       <c r="BG515" s="9"/>
     </row>
-    <row r="516" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="9"/>
       <c r="B516" s="9"/>
       <c r="C516" s="10"/>
@@ -35160,7 +35321,7 @@
       <c r="BF516" s="9"/>
       <c r="BG516" s="9"/>
     </row>
-    <row r="517" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="9"/>
       <c r="B517" s="9"/>
       <c r="C517" s="10"/>
@@ -35221,7 +35382,7 @@
       <c r="BF517" s="9"/>
       <c r="BG517" s="9"/>
     </row>
-    <row r="518" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="9"/>
       <c r="B518" s="9"/>
       <c r="C518" s="10"/>
@@ -35282,7 +35443,7 @@
       <c r="BF518" s="9"/>
       <c r="BG518" s="9"/>
     </row>
-    <row r="519" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="9"/>
       <c r="B519" s="9"/>
       <c r="C519" s="10"/>
@@ -35343,7 +35504,7 @@
       <c r="BF519" s="9"/>
       <c r="BG519" s="9"/>
     </row>
-    <row r="520" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="9"/>
       <c r="B520" s="9"/>
       <c r="C520" s="10"/>
@@ -35404,7 +35565,7 @@
       <c r="BF520" s="9"/>
       <c r="BG520" s="9"/>
     </row>
-    <row r="521" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="9"/>
       <c r="B521" s="9"/>
       <c r="C521" s="10"/>
@@ -35465,7 +35626,7 @@
       <c r="BF521" s="9"/>
       <c r="BG521" s="9"/>
     </row>
-    <row r="522" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="9"/>
       <c r="B522" s="9"/>
       <c r="C522" s="10"/>
@@ -35526,7 +35687,7 @@
       <c r="BF522" s="9"/>
       <c r="BG522" s="9"/>
     </row>
-    <row r="523" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="9"/>
       <c r="B523" s="9"/>
       <c r="C523" s="10"/>
@@ -35587,7 +35748,7 @@
       <c r="BF523" s="9"/>
       <c r="BG523" s="9"/>
     </row>
-    <row r="524" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="9"/>
       <c r="B524" s="9"/>
       <c r="C524" s="10"/>
@@ -35648,7 +35809,7 @@
       <c r="BF524" s="9"/>
       <c r="BG524" s="9"/>
     </row>
-    <row r="525" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="9"/>
       <c r="B525" s="9"/>
       <c r="C525" s="10"/>
@@ -35709,7 +35870,7 @@
       <c r="BF525" s="9"/>
       <c r="BG525" s="9"/>
     </row>
-    <row r="526" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="9"/>
       <c r="B526" s="9"/>
       <c r="C526" s="10"/>
@@ -35770,7 +35931,7 @@
       <c r="BF526" s="9"/>
       <c r="BG526" s="9"/>
     </row>
-    <row r="527" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="9"/>
       <c r="B527" s="9"/>
       <c r="C527" s="10"/>
@@ -35831,7 +35992,7 @@
       <c r="BF527" s="9"/>
       <c r="BG527" s="9"/>
     </row>
-    <row r="528" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="9"/>
       <c r="B528" s="9"/>
       <c r="C528" s="10"/>
@@ -35892,7 +36053,7 @@
       <c r="BF528" s="9"/>
       <c r="BG528" s="9"/>
     </row>
-    <row r="529" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="9"/>
       <c r="B529" s="9"/>
       <c r="C529" s="10"/>
@@ -35953,7 +36114,7 @@
       <c r="BF529" s="9"/>
       <c r="BG529" s="9"/>
     </row>
-    <row r="530" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="9"/>
       <c r="B530" s="9"/>
       <c r="C530" s="10"/>
@@ -36014,7 +36175,7 @@
       <c r="BF530" s="9"/>
       <c r="BG530" s="9"/>
     </row>
-    <row r="531" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="9"/>
       <c r="B531" s="9"/>
       <c r="C531" s="10"/>
@@ -36075,7 +36236,7 @@
       <c r="BF531" s="9"/>
       <c r="BG531" s="9"/>
     </row>
-    <row r="532" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="9"/>
       <c r="B532" s="9"/>
       <c r="C532" s="10"/>
@@ -36136,7 +36297,7 @@
       <c r="BF532" s="9"/>
       <c r="BG532" s="9"/>
     </row>
-    <row r="533" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="9"/>
       <c r="B533" s="9"/>
       <c r="C533" s="10"/>
@@ -36197,7 +36358,7 @@
       <c r="BF533" s="9"/>
       <c r="BG533" s="9"/>
     </row>
-    <row r="534" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="9"/>
       <c r="B534" s="9"/>
       <c r="C534" s="10"/>
@@ -36258,7 +36419,7 @@
       <c r="BF534" s="9"/>
       <c r="BG534" s="9"/>
     </row>
-    <row r="535" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="9"/>
       <c r="B535" s="9"/>
       <c r="C535" s="10"/>
@@ -36319,7 +36480,7 @@
       <c r="BF535" s="9"/>
       <c r="BG535" s="9"/>
     </row>
-    <row r="536" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="9"/>
       <c r="B536" s="9"/>
       <c r="C536" s="10"/>
@@ -36380,7 +36541,7 @@
       <c r="BF536" s="9"/>
       <c r="BG536" s="9"/>
     </row>
-    <row r="537" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="9"/>
       <c r="B537" s="9"/>
       <c r="C537" s="10"/>
@@ -36441,7 +36602,7 @@
       <c r="BF537" s="9"/>
       <c r="BG537" s="9"/>
     </row>
-    <row r="538" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="9"/>
       <c r="B538" s="9"/>
       <c r="C538" s="10"/>
@@ -36502,7 +36663,7 @@
       <c r="BF538" s="9"/>
       <c r="BG538" s="9"/>
     </row>
-    <row r="539" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="9"/>
       <c r="B539" s="9"/>
       <c r="C539" s="10"/>
@@ -36563,7 +36724,7 @@
       <c r="BF539" s="9"/>
       <c r="BG539" s="9"/>
     </row>
-    <row r="540" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="9"/>
       <c r="B540" s="9"/>
       <c r="C540" s="10"/>
@@ -36624,7 +36785,7 @@
       <c r="BF540" s="9"/>
       <c r="BG540" s="9"/>
     </row>
-    <row r="541" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="9"/>
       <c r="B541" s="9"/>
       <c r="C541" s="10"/>
@@ -36685,7 +36846,7 @@
       <c r="BF541" s="9"/>
       <c r="BG541" s="9"/>
     </row>
-    <row r="542" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="9"/>
       <c r="B542" s="9"/>
       <c r="C542" s="10"/>
@@ -36746,7 +36907,7 @@
       <c r="BF542" s="9"/>
       <c r="BG542" s="9"/>
     </row>
-    <row r="543" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="9"/>
       <c r="B543" s="9"/>
       <c r="C543" s="10"/>
@@ -36807,7 +36968,7 @@
       <c r="BF543" s="9"/>
       <c r="BG543" s="9"/>
     </row>
-    <row r="544" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="9"/>
       <c r="B544" s="9"/>
       <c r="C544" s="10"/>
@@ -36868,7 +37029,7 @@
       <c r="BF544" s="9"/>
       <c r="BG544" s="9"/>
     </row>
-    <row r="545" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="9"/>
       <c r="B545" s="9"/>
       <c r="C545" s="10"/>
@@ -36929,7 +37090,7 @@
       <c r="BF545" s="9"/>
       <c r="BG545" s="9"/>
     </row>
-    <row r="546" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="9"/>
       <c r="B546" s="9"/>
       <c r="C546" s="10"/>
@@ -36990,7 +37151,7 @@
       <c r="BF546" s="9"/>
       <c r="BG546" s="9"/>
     </row>
-    <row r="547" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="9"/>
       <c r="B547" s="9"/>
       <c r="C547" s="10"/>
@@ -37051,7 +37212,7 @@
       <c r="BF547" s="9"/>
       <c r="BG547" s="9"/>
     </row>
-    <row r="548" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="9"/>
       <c r="B548" s="9"/>
       <c r="C548" s="10"/>
@@ -37112,7 +37273,7 @@
       <c r="BF548" s="9"/>
       <c r="BG548" s="9"/>
     </row>
-    <row r="549" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="9"/>
       <c r="B549" s="9"/>
       <c r="C549" s="10"/>
@@ -37173,7 +37334,7 @@
       <c r="BF549" s="9"/>
       <c r="BG549" s="9"/>
     </row>
-    <row r="550" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="9"/>
       <c r="B550" s="9"/>
       <c r="C550" s="10"/>
@@ -37234,7 +37395,7 @@
       <c r="BF550" s="9"/>
       <c r="BG550" s="9"/>
     </row>
-    <row r="551" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="9"/>
       <c r="B551" s="9"/>
       <c r="C551" s="10"/>
@@ -37295,7 +37456,7 @@
       <c r="BF551" s="9"/>
       <c r="BG551" s="9"/>
     </row>
-    <row r="552" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="9"/>
       <c r="B552" s="9"/>
       <c r="C552" s="10"/>
@@ -37356,7 +37517,7 @@
       <c r="BF552" s="9"/>
       <c r="BG552" s="9"/>
     </row>
-    <row r="553" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="9"/>
       <c r="B553" s="9"/>
       <c r="C553" s="10"/>
@@ -37417,7 +37578,7 @@
       <c r="BF553" s="9"/>
       <c r="BG553" s="9"/>
     </row>
-    <row r="554" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="9"/>
       <c r="B554" s="9"/>
       <c r="C554" s="10"/>
@@ -37478,7 +37639,7 @@
       <c r="BF554" s="9"/>
       <c r="BG554" s="9"/>
     </row>
-    <row r="555" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="9"/>
       <c r="B555" s="9"/>
       <c r="C555" s="10"/>
@@ -37539,7 +37700,7 @@
       <c r="BF555" s="9"/>
       <c r="BG555" s="9"/>
     </row>
-    <row r="556" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="9"/>
       <c r="B556" s="9"/>
       <c r="C556" s="10"/>
@@ -37600,7 +37761,7 @@
       <c r="BF556" s="9"/>
       <c r="BG556" s="9"/>
     </row>
-    <row r="557" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="9"/>
       <c r="B557" s="9"/>
       <c r="C557" s="10"/>
@@ -37661,7 +37822,7 @@
       <c r="BF557" s="9"/>
       <c r="BG557" s="9"/>
     </row>
-    <row r="558" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="9"/>
       <c r="B558" s="9"/>
       <c r="C558" s="10"/>
@@ -37722,7 +37883,7 @@
       <c r="BF558" s="9"/>
       <c r="BG558" s="9"/>
     </row>
-    <row r="559" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="9"/>
       <c r="B559" s="9"/>
       <c r="C559" s="10"/>
@@ -37783,7 +37944,7 @@
       <c r="BF559" s="9"/>
       <c r="BG559" s="9"/>
     </row>
-    <row r="560" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="9"/>
       <c r="B560" s="9"/>
       <c r="C560" s="10"/>
@@ -37844,7 +38005,7 @@
       <c r="BF560" s="9"/>
       <c r="BG560" s="9"/>
     </row>
-    <row r="561" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="9"/>
       <c r="B561" s="9"/>
       <c r="C561" s="10"/>
@@ -37905,7 +38066,7 @@
       <c r="BF561" s="9"/>
       <c r="BG561" s="9"/>
     </row>
-    <row r="562" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="9"/>
       <c r="B562" s="9"/>
       <c r="C562" s="10"/>
@@ -37966,7 +38127,7 @@
       <c r="BF562" s="9"/>
       <c r="BG562" s="9"/>
     </row>
-    <row r="563" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="9"/>
       <c r="B563" s="9"/>
       <c r="C563" s="10"/>
@@ -38027,7 +38188,7 @@
       <c r="BF563" s="9"/>
       <c r="BG563" s="9"/>
     </row>
-    <row r="564" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="9"/>
       <c r="B564" s="9"/>
       <c r="C564" s="10"/>
@@ -38088,7 +38249,7 @@
       <c r="BF564" s="9"/>
       <c r="BG564" s="9"/>
     </row>
-    <row r="565" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="9"/>
       <c r="B565" s="9"/>
       <c r="C565" s="10"/>
@@ -38149,7 +38310,7 @@
       <c r="BF565" s="9"/>
       <c r="BG565" s="9"/>
     </row>
-    <row r="566" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="9"/>
       <c r="B566" s="9"/>
       <c r="C566" s="10"/>
@@ -38210,7 +38371,7 @@
       <c r="BF566" s="9"/>
       <c r="BG566" s="9"/>
     </row>
-    <row r="567" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="9"/>
       <c r="B567" s="9"/>
       <c r="C567" s="10"/>
@@ -38271,7 +38432,7 @@
       <c r="BF567" s="9"/>
       <c r="BG567" s="9"/>
     </row>
-    <row r="568" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="9"/>
       <c r="B568" s="9"/>
       <c r="C568" s="10"/>
@@ -38332,7 +38493,7 @@
       <c r="BF568" s="9"/>
       <c r="BG568" s="9"/>
     </row>
-    <row r="569" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="9"/>
       <c r="B569" s="9"/>
       <c r="C569" s="10"/>
@@ -38393,7 +38554,7 @@
       <c r="BF569" s="9"/>
       <c r="BG569" s="9"/>
     </row>
-    <row r="570" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="9"/>
       <c r="B570" s="9"/>
       <c r="C570" s="10"/>
@@ -38454,7 +38615,7 @@
       <c r="BF570" s="9"/>
       <c r="BG570" s="9"/>
     </row>
-    <row r="571" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="9"/>
       <c r="B571" s="9"/>
       <c r="C571" s="10"/>
@@ -38515,7 +38676,7 @@
       <c r="BF571" s="9"/>
       <c r="BG571" s="9"/>
     </row>
-    <row r="572" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="9"/>
       <c r="B572" s="9"/>
       <c r="C572" s="10"/>
@@ -38576,7 +38737,7 @@
       <c r="BF572" s="9"/>
       <c r="BG572" s="9"/>
     </row>
-    <row r="573" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="9"/>
       <c r="B573" s="9"/>
       <c r="C573" s="10"/>
@@ -38637,7 +38798,7 @@
       <c r="BF573" s="9"/>
       <c r="BG573" s="9"/>
     </row>
-    <row r="574" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="9"/>
       <c r="B574" s="9"/>
       <c r="C574" s="10"/>
@@ -38698,7 +38859,7 @@
       <c r="BF574" s="9"/>
       <c r="BG574" s="9"/>
     </row>
-    <row r="575" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="9"/>
       <c r="B575" s="9"/>
       <c r="C575" s="10"/>
@@ -38759,7 +38920,7 @@
       <c r="BF575" s="9"/>
       <c r="BG575" s="9"/>
     </row>
-    <row r="576" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="9"/>
       <c r="B576" s="9"/>
       <c r="C576" s="10"/>
@@ -38820,7 +38981,7 @@
       <c r="BF576" s="9"/>
       <c r="BG576" s="9"/>
     </row>
-    <row r="577" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="9"/>
       <c r="B577" s="9"/>
       <c r="C577" s="10"/>
@@ -38881,7 +39042,7 @@
       <c r="BF577" s="9"/>
       <c r="BG577" s="9"/>
     </row>
-    <row r="578" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="9"/>
       <c r="B578" s="9"/>
       <c r="C578" s="10"/>
@@ -38942,7 +39103,7 @@
       <c r="BF578" s="9"/>
       <c r="BG578" s="9"/>
     </row>
-    <row r="579" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="9"/>
       <c r="B579" s="9"/>
       <c r="C579" s="10"/>
@@ -39003,7 +39164,7 @@
       <c r="BF579" s="9"/>
       <c r="BG579" s="9"/>
     </row>
-    <row r="580" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="9"/>
       <c r="B580" s="9"/>
       <c r="C580" s="10"/>
@@ -39064,7 +39225,7 @@
       <c r="BF580" s="9"/>
       <c r="BG580" s="9"/>
     </row>
-    <row r="581" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="9"/>
       <c r="B581" s="9"/>
       <c r="C581" s="10"/>
@@ -39125,7 +39286,7 @@
       <c r="BF581" s="9"/>
       <c r="BG581" s="9"/>
     </row>
-    <row r="582" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="9"/>
       <c r="B582" s="9"/>
       <c r="C582" s="10"/>
@@ -39186,7 +39347,7 @@
       <c r="BF582" s="9"/>
       <c r="BG582" s="9"/>
     </row>
-    <row r="583" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="9"/>
       <c r="B583" s="9"/>
       <c r="C583" s="10"/>
@@ -39247,7 +39408,7 @@
       <c r="BF583" s="9"/>
       <c r="BG583" s="9"/>
     </row>
-    <row r="584" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="9"/>
       <c r="B584" s="9"/>
       <c r="C584" s="10"/>
@@ -39308,7 +39469,7 @@
       <c r="BF584" s="9"/>
       <c r="BG584" s="9"/>
     </row>
-    <row r="585" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="9"/>
       <c r="B585" s="9"/>
       <c r="C585" s="10"/>
@@ -39369,7 +39530,7 @@
       <c r="BF585" s="9"/>
       <c r="BG585" s="9"/>
     </row>
-    <row r="586" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="9"/>
       <c r="B586" s="9"/>
       <c r="C586" s="10"/>
@@ -39430,7 +39591,7 @@
       <c r="BF586" s="9"/>
       <c r="BG586" s="9"/>
     </row>
-    <row r="587" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="9"/>
       <c r="B587" s="9"/>
       <c r="C587" s="10"/>
@@ -39491,7 +39652,7 @@
       <c r="BF587" s="9"/>
       <c r="BG587" s="9"/>
     </row>
-    <row r="588" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="9"/>
       <c r="B588" s="9"/>
       <c r="C588" s="10"/>
@@ -39552,7 +39713,7 @@
       <c r="BF588" s="9"/>
       <c r="BG588" s="9"/>
     </row>
-    <row r="589" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="9"/>
       <c r="B589" s="9"/>
       <c r="C589" s="10"/>
@@ -39613,7 +39774,7 @@
       <c r="BF589" s="9"/>
       <c r="BG589" s="9"/>
     </row>
-    <row r="590" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="9"/>
       <c r="B590" s="9"/>
       <c r="C590" s="10"/>
@@ -39674,7 +39835,7 @@
       <c r="BF590" s="9"/>
       <c r="BG590" s="9"/>
     </row>
-    <row r="591" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="9"/>
       <c r="B591" s="9"/>
       <c r="C591" s="10"/>
@@ -39735,7 +39896,7 @@
       <c r="BF591" s="9"/>
       <c r="BG591" s="9"/>
     </row>
-    <row r="592" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="9"/>
       <c r="B592" s="9"/>
       <c r="C592" s="10"/>
@@ -39796,7 +39957,7 @@
       <c r="BF592" s="9"/>
       <c r="BG592" s="9"/>
     </row>
-    <row r="593" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="9"/>
       <c r="B593" s="9"/>
       <c r="C593" s="10"/>
@@ -39857,7 +40018,7 @@
       <c r="BF593" s="9"/>
       <c r="BG593" s="9"/>
     </row>
-    <row r="594" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="9"/>
       <c r="B594" s="9"/>
       <c r="C594" s="10"/>
@@ -39918,7 +40079,7 @@
       <c r="BF594" s="9"/>
       <c r="BG594" s="9"/>
     </row>
-    <row r="595" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="9"/>
       <c r="B595" s="9"/>
       <c r="C595" s="10"/>
@@ -39979,7 +40140,7 @@
       <c r="BF595" s="9"/>
       <c r="BG595" s="9"/>
     </row>
-    <row r="596" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="9"/>
       <c r="B596" s="9"/>
       <c r="C596" s="10"/>
@@ -40040,7 +40201,7 @@
       <c r="BF596" s="9"/>
       <c r="BG596" s="9"/>
     </row>
-    <row r="597" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="9"/>
       <c r="B597" s="9"/>
       <c r="C597" s="10"/>
@@ -40101,7 +40262,7 @@
       <c r="BF597" s="9"/>
       <c r="BG597" s="9"/>
     </row>
-    <row r="598" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="9"/>
       <c r="B598" s="9"/>
       <c r="C598" s="10"/>
@@ -40162,7 +40323,7 @@
       <c r="BF598" s="9"/>
       <c r="BG598" s="9"/>
     </row>
-    <row r="599" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="9"/>
       <c r="B599" s="9"/>
       <c r="C599" s="10"/>
@@ -40223,7 +40384,7 @@
       <c r="BF599" s="9"/>
       <c r="BG599" s="9"/>
     </row>
-    <row r="600" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="9"/>
       <c r="B600" s="9"/>
       <c r="C600" s="10"/>
@@ -40284,7 +40445,7 @@
       <c r="BF600" s="9"/>
       <c r="BG600" s="9"/>
     </row>
-    <row r="601" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="9"/>
       <c r="B601" s="9"/>
       <c r="C601" s="10"/>
@@ -40345,7 +40506,7 @@
       <c r="BF601" s="9"/>
       <c r="BG601" s="9"/>
     </row>
-    <row r="602" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="9"/>
       <c r="B602" s="9"/>
       <c r="C602" s="10"/>
@@ -40406,7 +40567,7 @@
       <c r="BF602" s="9"/>
       <c r="BG602" s="9"/>
     </row>
-    <row r="603" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="9"/>
       <c r="B603" s="9"/>
       <c r="C603" s="10"/>
@@ -40467,7 +40628,7 @@
       <c r="BF603" s="9"/>
       <c r="BG603" s="9"/>
     </row>
-    <row r="604" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="9"/>
       <c r="B604" s="9"/>
       <c r="C604" s="10"/>
@@ -40528,7 +40689,7 @@
       <c r="BF604" s="9"/>
       <c r="BG604" s="9"/>
     </row>
-    <row r="605" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="9"/>
       <c r="B605" s="9"/>
       <c r="C605" s="10"/>
@@ -40589,7 +40750,7 @@
       <c r="BF605" s="9"/>
       <c r="BG605" s="9"/>
     </row>
-    <row r="606" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="9"/>
       <c r="B606" s="9"/>
       <c r="C606" s="10"/>
@@ -40650,7 +40811,7 @@
       <c r="BF606" s="9"/>
       <c r="BG606" s="9"/>
     </row>
-    <row r="607" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="9"/>
       <c r="B607" s="9"/>
       <c r="C607" s="10"/>
@@ -40711,7 +40872,7 @@
       <c r="BF607" s="9"/>
       <c r="BG607" s="9"/>
     </row>
-    <row r="608" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="9"/>
       <c r="B608" s="9"/>
       <c r="C608" s="10"/>
@@ -40772,7 +40933,7 @@
       <c r="BF608" s="9"/>
       <c r="BG608" s="9"/>
     </row>
-    <row r="609" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="9"/>
       <c r="B609" s="9"/>
       <c r="C609" s="10"/>
@@ -40833,7 +40994,7 @@
       <c r="BF609" s="9"/>
       <c r="BG609" s="9"/>
     </row>
-    <row r="610" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="9"/>
       <c r="B610" s="9"/>
       <c r="C610" s="10"/>
@@ -40894,7 +41055,7 @@
       <c r="BF610" s="9"/>
       <c r="BG610" s="9"/>
     </row>
-    <row r="611" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="9"/>
       <c r="B611" s="9"/>
       <c r="C611" s="10"/>
@@ -40955,7 +41116,7 @@
       <c r="BF611" s="9"/>
       <c r="BG611" s="9"/>
     </row>
-    <row r="612" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="9"/>
       <c r="B612" s="9"/>
       <c r="C612" s="10"/>
@@ -41016,7 +41177,7 @@
       <c r="BF612" s="9"/>
       <c r="BG612" s="9"/>
     </row>
-    <row r="613" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="9"/>
       <c r="B613" s="9"/>
       <c r="C613" s="10"/>
@@ -41077,7 +41238,7 @@
       <c r="BF613" s="9"/>
       <c r="BG613" s="9"/>
     </row>
-    <row r="614" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="9"/>
       <c r="B614" s="9"/>
       <c r="C614" s="10"/>
@@ -41138,7 +41299,7 @@
       <c r="BF614" s="9"/>
       <c r="BG614" s="9"/>
     </row>
-    <row r="615" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="9"/>
       <c r="B615" s="9"/>
       <c r="C615" s="10"/>
@@ -41199,7 +41360,7 @@
       <c r="BF615" s="9"/>
       <c r="BG615" s="9"/>
     </row>
-    <row r="616" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="9"/>
       <c r="B616" s="9"/>
       <c r="C616" s="10"/>
@@ -41260,7 +41421,7 @@
       <c r="BF616" s="9"/>
       <c r="BG616" s="9"/>
     </row>
-    <row r="617" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="9"/>
       <c r="B617" s="9"/>
       <c r="C617" s="10"/>
@@ -41321,7 +41482,7 @@
       <c r="BF617" s="9"/>
       <c r="BG617" s="9"/>
     </row>
-    <row r="618" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="9"/>
       <c r="B618" s="9"/>
       <c r="C618" s="10"/>
@@ -41382,7 +41543,7 @@
       <c r="BF618" s="9"/>
       <c r="BG618" s="9"/>
     </row>
-    <row r="619" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="9"/>
       <c r="B619" s="9"/>
       <c r="C619" s="10"/>
@@ -41443,7 +41604,7 @@
       <c r="BF619" s="9"/>
       <c r="BG619" s="9"/>
     </row>
-    <row r="620" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="9"/>
       <c r="B620" s="9"/>
       <c r="C620" s="10"/>
@@ -41504,7 +41665,7 @@
       <c r="BF620" s="9"/>
       <c r="BG620" s="9"/>
     </row>
-    <row r="621" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="9"/>
       <c r="B621" s="9"/>
       <c r="C621" s="10"/>
@@ -41565,7 +41726,7 @@
       <c r="BF621" s="9"/>
       <c r="BG621" s="9"/>
     </row>
-    <row r="622" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="9"/>
       <c r="B622" s="9"/>
       <c r="C622" s="10"/>
@@ -41626,7 +41787,7 @@
       <c r="BF622" s="9"/>
       <c r="BG622" s="9"/>
     </row>
-    <row r="623" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="9"/>
       <c r="B623" s="9"/>
       <c r="C623" s="10"/>
@@ -41687,7 +41848,7 @@
       <c r="BF623" s="9"/>
       <c r="BG623" s="9"/>
     </row>
-    <row r="624" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="9"/>
       <c r="B624" s="9"/>
       <c r="C624" s="10"/>
@@ -41748,7 +41909,7 @@
       <c r="BF624" s="9"/>
       <c r="BG624" s="9"/>
     </row>
-    <row r="625" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="9"/>
       <c r="B625" s="9"/>
       <c r="C625" s="10"/>
@@ -41809,7 +41970,7 @@
       <c r="BF625" s="9"/>
       <c r="BG625" s="9"/>
     </row>
-    <row r="626" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="9"/>
       <c r="B626" s="9"/>
       <c r="C626" s="10"/>
@@ -41870,7 +42031,7 @@
       <c r="BF626" s="9"/>
       <c r="BG626" s="9"/>
     </row>
-    <row r="627" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="9"/>
       <c r="B627" s="9"/>
       <c r="C627" s="10"/>
@@ -41931,7 +42092,7 @@
       <c r="BF627" s="9"/>
       <c r="BG627" s="9"/>
     </row>
-    <row r="628" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="9"/>
       <c r="B628" s="9"/>
       <c r="C628" s="10"/>
@@ -41992,7 +42153,7 @@
       <c r="BF628" s="9"/>
       <c r="BG628" s="9"/>
     </row>
-    <row r="629" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="9"/>
       <c r="B629" s="9"/>
       <c r="C629" s="10"/>
@@ -42053,7 +42214,7 @@
       <c r="BF629" s="9"/>
       <c r="BG629" s="9"/>
     </row>
-    <row r="630" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="9"/>
       <c r="B630" s="9"/>
       <c r="C630" s="10"/>
@@ -42114,7 +42275,7 @@
       <c r="BF630" s="9"/>
       <c r="BG630" s="9"/>
     </row>
-    <row r="631" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="9"/>
       <c r="B631" s="9"/>
       <c r="C631" s="10"/>
@@ -42175,7 +42336,7 @@
       <c r="BF631" s="9"/>
       <c r="BG631" s="9"/>
     </row>
-    <row r="632" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="9"/>
       <c r="B632" s="9"/>
       <c r="C632" s="10"/>
@@ -42236,7 +42397,7 @@
       <c r="BF632" s="9"/>
       <c r="BG632" s="9"/>
     </row>
-    <row r="633" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="9"/>
       <c r="B633" s="9"/>
       <c r="C633" s="10"/>
@@ -42297,7 +42458,7 @@
       <c r="BF633" s="9"/>
       <c r="BG633" s="9"/>
     </row>
-    <row r="634" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="9"/>
       <c r="B634" s="9"/>
       <c r="C634" s="10"/>
@@ -42358,7 +42519,7 @@
       <c r="BF634" s="9"/>
       <c r="BG634" s="9"/>
     </row>
-    <row r="635" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="9"/>
       <c r="B635" s="9"/>
       <c r="C635" s="10"/>
@@ -42419,7 +42580,7 @@
       <c r="BF635" s="9"/>
       <c r="BG635" s="9"/>
     </row>
-    <row r="636" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="9"/>
       <c r="B636" s="9"/>
       <c r="C636" s="10"/>
@@ -42480,7 +42641,7 @@
       <c r="BF636" s="9"/>
       <c r="BG636" s="9"/>
     </row>
-    <row r="637" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="9"/>
       <c r="B637" s="9"/>
       <c r="C637" s="10"/>
@@ -42541,7 +42702,7 @@
       <c r="BF637" s="9"/>
       <c r="BG637" s="9"/>
     </row>
-    <row r="638" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="9"/>
       <c r="B638" s="9"/>
       <c r="C638" s="10"/>
@@ -42602,7 +42763,7 @@
       <c r="BF638" s="9"/>
       <c r="BG638" s="9"/>
     </row>
-    <row r="639" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="9"/>
       <c r="B639" s="9"/>
       <c r="C639" s="10"/>
@@ -42663,7 +42824,7 @@
       <c r="BF639" s="9"/>
       <c r="BG639" s="9"/>
     </row>
-    <row r="640" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="9"/>
       <c r="B640" s="9"/>
       <c r="C640" s="10"/>
@@ -42724,7 +42885,7 @@
       <c r="BF640" s="9"/>
       <c r="BG640" s="9"/>
     </row>
-    <row r="641" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="9"/>
       <c r="B641" s="9"/>
       <c r="C641" s="10"/>
@@ -42785,7 +42946,7 @@
       <c r="BF641" s="9"/>
       <c r="BG641" s="9"/>
     </row>
-    <row r="642" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="9"/>
       <c r="B642" s="9"/>
       <c r="C642" s="10"/>
@@ -42846,7 +43007,7 @@
       <c r="BF642" s="9"/>
       <c r="BG642" s="9"/>
     </row>
-    <row r="643" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="9"/>
       <c r="B643" s="9"/>
       <c r="C643" s="10"/>
@@ -42907,7 +43068,7 @@
       <c r="BF643" s="9"/>
       <c r="BG643" s="9"/>
     </row>
-    <row r="644" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="9"/>
       <c r="B644" s="9"/>
       <c r="C644" s="10"/>
@@ -42968,7 +43129,7 @@
       <c r="BF644" s="9"/>
       <c r="BG644" s="9"/>
     </row>
-    <row r="645" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="9"/>
       <c r="B645" s="9"/>
       <c r="C645" s="10"/>
@@ -43029,7 +43190,7 @@
       <c r="BF645" s="9"/>
       <c r="BG645" s="9"/>
     </row>
-    <row r="646" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="9"/>
       <c r="B646" s="9"/>
       <c r="C646" s="10"/>
@@ -43090,7 +43251,7 @@
       <c r="BF646" s="9"/>
       <c r="BG646" s="9"/>
     </row>
-    <row r="647" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="9"/>
       <c r="B647" s="9"/>
       <c r="C647" s="10"/>
@@ -43151,7 +43312,7 @@
       <c r="BF647" s="9"/>
       <c r="BG647" s="9"/>
     </row>
-    <row r="648" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="9"/>
       <c r="B648" s="9"/>
       <c r="C648" s="10"/>
@@ -43212,7 +43373,7 @@
       <c r="BF648" s="9"/>
       <c r="BG648" s="9"/>
     </row>
-    <row r="649" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="9"/>
       <c r="B649" s="9"/>
       <c r="C649" s="10"/>
@@ -43273,7 +43434,7 @@
       <c r="BF649" s="9"/>
       <c r="BG649" s="9"/>
     </row>
-    <row r="650" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="9"/>
       <c r="B650" s="9"/>
       <c r="C650" s="10"/>
@@ -43334,7 +43495,7 @@
       <c r="BF650" s="9"/>
       <c r="BG650" s="9"/>
     </row>
-    <row r="651" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="9"/>
       <c r="B651" s="9"/>
       <c r="C651" s="10"/>
@@ -43395,7 +43556,7 @@
       <c r="BF651" s="9"/>
       <c r="BG651" s="9"/>
     </row>
-    <row r="652" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="9"/>
       <c r="B652" s="9"/>
       <c r="C652" s="10"/>
@@ -43456,7 +43617,7 @@
       <c r="BF652" s="9"/>
       <c r="BG652" s="9"/>
     </row>
-    <row r="653" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="9"/>
       <c r="B653" s="9"/>
       <c r="C653" s="10"/>
@@ -43517,7 +43678,7 @@
       <c r="BF653" s="9"/>
       <c r="BG653" s="9"/>
     </row>
-    <row r="654" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="9"/>
       <c r="B654" s="9"/>
       <c r="C654" s="10"/>
@@ -43578,7 +43739,7 @@
       <c r="BF654" s="9"/>
       <c r="BG654" s="9"/>
     </row>
-    <row r="655" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="9"/>
       <c r="B655" s="9"/>
       <c r="C655" s="10"/>
@@ -43639,7 +43800,7 @@
       <c r="BF655" s="9"/>
       <c r="BG655" s="9"/>
     </row>
-    <row r="656" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="9"/>
       <c r="B656" s="9"/>
       <c r="C656" s="10"/>
@@ -43700,7 +43861,7 @@
       <c r="BF656" s="9"/>
       <c r="BG656" s="9"/>
     </row>
-    <row r="657" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="9"/>
       <c r="B657" s="9"/>
       <c r="C657" s="10"/>
@@ -43761,7 +43922,7 @@
       <c r="BF657" s="9"/>
       <c r="BG657" s="9"/>
     </row>
-    <row r="658" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="9"/>
       <c r="B658" s="9"/>
       <c r="C658" s="10"/>
@@ -43822,7 +43983,7 @@
       <c r="BF658" s="9"/>
       <c r="BG658" s="9"/>
     </row>
-    <row r="659" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="9"/>
       <c r="B659" s="9"/>
       <c r="C659" s="10"/>
@@ -43883,7 +44044,7 @@
       <c r="BF659" s="9"/>
       <c r="BG659" s="9"/>
     </row>
-    <row r="660" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="9"/>
       <c r="B660" s="9"/>
       <c r="C660" s="10"/>
@@ -43944,7 +44105,7 @@
       <c r="BF660" s="9"/>
       <c r="BG660" s="9"/>
     </row>
-    <row r="661" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="9"/>
       <c r="B661" s="9"/>
       <c r="C661" s="10"/>
@@ -44005,7 +44166,7 @@
       <c r="BF661" s="9"/>
       <c r="BG661" s="9"/>
     </row>
-    <row r="662" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="9"/>
       <c r="B662" s="9"/>
       <c r="C662" s="10"/>
@@ -44066,7 +44227,7 @@
       <c r="BF662" s="9"/>
       <c r="BG662" s="9"/>
     </row>
-    <row r="663" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="9"/>
       <c r="B663" s="9"/>
       <c r="C663" s="10"/>
@@ -44127,7 +44288,7 @@
       <c r="BF663" s="9"/>
       <c r="BG663" s="9"/>
     </row>
-    <row r="664" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="9"/>
       <c r="B664" s="9"/>
       <c r="C664" s="10"/>
@@ -44188,7 +44349,7 @@
       <c r="BF664" s="9"/>
       <c r="BG664" s="9"/>
     </row>
-    <row r="665" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="9"/>
       <c r="B665" s="9"/>
       <c r="C665" s="10"/>
@@ -44249,7 +44410,7 @@
       <c r="BF665" s="9"/>
       <c r="BG665" s="9"/>
     </row>
-    <row r="666" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="9"/>
       <c r="B666" s="9"/>
       <c r="C666" s="10"/>
@@ -44310,7 +44471,7 @@
       <c r="BF666" s="9"/>
       <c r="BG666" s="9"/>
     </row>
-    <row r="667" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="9"/>
       <c r="B667" s="9"/>
       <c r="C667" s="10"/>
@@ -44371,7 +44532,7 @@
       <c r="BF667" s="9"/>
       <c r="BG667" s="9"/>
     </row>
-    <row r="668" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="9"/>
       <c r="B668" s="9"/>
       <c r="C668" s="10"/>
@@ -44432,7 +44593,7 @@
       <c r="BF668" s="9"/>
       <c r="BG668" s="9"/>
     </row>
-    <row r="669" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="9"/>
       <c r="B669" s="9"/>
       <c r="C669" s="10"/>
@@ -44493,7 +44654,7 @@
       <c r="BF669" s="9"/>
       <c r="BG669" s="9"/>
     </row>
-    <row r="670" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="9"/>
       <c r="B670" s="9"/>
       <c r="C670" s="10"/>
@@ -44554,7 +44715,7 @@
       <c r="BF670" s="9"/>
       <c r="BG670" s="9"/>
     </row>
-    <row r="671" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="9"/>
       <c r="B671" s="9"/>
       <c r="C671" s="10"/>
@@ -44615,7 +44776,7 @@
       <c r="BF671" s="9"/>
       <c r="BG671" s="9"/>
     </row>
-    <row r="672" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="9"/>
       <c r="B672" s="9"/>
       <c r="C672" s="10"/>
@@ -44676,7 +44837,7 @@
       <c r="BF672" s="9"/>
       <c r="BG672" s="9"/>
     </row>
-    <row r="673" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="9"/>
       <c r="B673" s="9"/>
       <c r="C673" s="10"/>
@@ -44737,7 +44898,7 @@
       <c r="BF673" s="9"/>
       <c r="BG673" s="9"/>
     </row>
-    <row r="674" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="9"/>
       <c r="B674" s="9"/>
       <c r="C674" s="10"/>
@@ -44798,7 +44959,7 @@
       <c r="BF674" s="9"/>
       <c r="BG674" s="9"/>
     </row>
-    <row r="675" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="9"/>
       <c r="B675" s="9"/>
       <c r="C675" s="10"/>
@@ -44859,7 +45020,7 @@
       <c r="BF675" s="9"/>
       <c r="BG675" s="9"/>
     </row>
-    <row r="676" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="9"/>
       <c r="B676" s="9"/>
       <c r="C676" s="10"/>
@@ -44920,7 +45081,7 @@
       <c r="BF676" s="9"/>
       <c r="BG676" s="9"/>
     </row>
-    <row r="677" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="9"/>
       <c r="B677" s="9"/>
       <c r="C677" s="10"/>
@@ -44981,7 +45142,7 @@
       <c r="BF677" s="9"/>
       <c r="BG677" s="9"/>
     </row>
-    <row r="678" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="9"/>
       <c r="B678" s="9"/>
       <c r="C678" s="10"/>
@@ -45042,7 +45203,7 @@
       <c r="BF678" s="9"/>
       <c r="BG678" s="9"/>
     </row>
-    <row r="679" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="9"/>
       <c r="B679" s="9"/>
       <c r="C679" s="10"/>
@@ -45103,7 +45264,7 @@
       <c r="BF679" s="9"/>
       <c r="BG679" s="9"/>
     </row>
-    <row r="680" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="9"/>
       <c r="B680" s="9"/>
       <c r="C680" s="10"/>
@@ -45164,7 +45325,7 @@
       <c r="BF680" s="9"/>
       <c r="BG680" s="9"/>
     </row>
-    <row r="681" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="9"/>
       <c r="B681" s="9"/>
       <c r="C681" s="10"/>
@@ -45225,7 +45386,7 @@
       <c r="BF681" s="9"/>
       <c r="BG681" s="9"/>
     </row>
-    <row r="682" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="9"/>
       <c r="B682" s="9"/>
       <c r="C682" s="10"/>
@@ -45286,7 +45447,7 @@
       <c r="BF682" s="9"/>
       <c r="BG682" s="9"/>
     </row>
-    <row r="683" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="9"/>
       <c r="B683" s="9"/>
       <c r="C683" s="10"/>
@@ -45347,7 +45508,7 @@
       <c r="BF683" s="9"/>
       <c r="BG683" s="9"/>
     </row>
-    <row r="684" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="9"/>
       <c r="B684" s="9"/>
       <c r="C684" s="10"/>
@@ -45408,7 +45569,7 @@
       <c r="BF684" s="9"/>
       <c r="BG684" s="9"/>
     </row>
-    <row r="685" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="9"/>
       <c r="B685" s="9"/>
       <c r="C685" s="10"/>
@@ -45469,7 +45630,7 @@
       <c r="BF685" s="9"/>
       <c r="BG685" s="9"/>
     </row>
-    <row r="686" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="9"/>
       <c r="B686" s="9"/>
       <c r="C686" s="10"/>
@@ -45530,7 +45691,7 @@
       <c r="BF686" s="9"/>
       <c r="BG686" s="9"/>
     </row>
-    <row r="687" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="9"/>
       <c r="B687" s="9"/>
       <c r="C687" s="10"/>
@@ -45591,7 +45752,7 @@
       <c r="BF687" s="9"/>
       <c r="BG687" s="9"/>
     </row>
-    <row r="688" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="9"/>
       <c r="B688" s="9"/>
       <c r="C688" s="10"/>
@@ -45652,7 +45813,7 @@
       <c r="BF688" s="9"/>
       <c r="BG688" s="9"/>
     </row>
-    <row r="689" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="9"/>
       <c r="B689" s="9"/>
       <c r="C689" s="10"/>
@@ -45713,7 +45874,7 @@
       <c r="BF689" s="9"/>
       <c r="BG689" s="9"/>
     </row>
-    <row r="690" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="9"/>
       <c r="B690" s="9"/>
       <c r="C690" s="10"/>
@@ -45774,7 +45935,7 @@
       <c r="BF690" s="9"/>
       <c r="BG690" s="9"/>
     </row>
-    <row r="691" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="9"/>
       <c r="B691" s="9"/>
       <c r="C691" s="10"/>
@@ -45835,7 +45996,7 @@
       <c r="BF691" s="9"/>
       <c r="BG691" s="9"/>
     </row>
-    <row r="692" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="9"/>
       <c r="B692" s="9"/>
       <c r="C692" s="10"/>
@@ -45896,7 +46057,7 @@
       <c r="BF692" s="9"/>
       <c r="BG692" s="9"/>
     </row>
-    <row r="693" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="9"/>
       <c r="B693" s="9"/>
       <c r="C693" s="10"/>
@@ -45957,7 +46118,7 @@
       <c r="BF693" s="9"/>
       <c r="BG693" s="9"/>
     </row>
-    <row r="694" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="9"/>
       <c r="B694" s="9"/>
       <c r="C694" s="10"/>
@@ -46018,7 +46179,7 @@
       <c r="BF694" s="9"/>
       <c r="BG694" s="9"/>
     </row>
-    <row r="695" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="9"/>
       <c r="B695" s="9"/>
       <c r="C695" s="10"/>
@@ -46079,7 +46240,7 @@
       <c r="BF695" s="9"/>
       <c r="BG695" s="9"/>
     </row>
-    <row r="696" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="9"/>
       <c r="B696" s="9"/>
       <c r="C696" s="10"/>
@@ -46140,7 +46301,7 @@
       <c r="BF696" s="9"/>
       <c r="BG696" s="9"/>
     </row>
-    <row r="697" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="9"/>
       <c r="B697" s="9"/>
       <c r="C697" s="10"/>
@@ -46201,7 +46362,7 @@
       <c r="BF697" s="9"/>
       <c r="BG697" s="9"/>
     </row>
-    <row r="698" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="9"/>
       <c r="B698" s="9"/>
       <c r="C698" s="10"/>
@@ -46262,7 +46423,7 @@
       <c r="BF698" s="9"/>
       <c r="BG698" s="9"/>
     </row>
-    <row r="699" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="9"/>
       <c r="B699" s="9"/>
       <c r="C699" s="10"/>
@@ -46323,7 +46484,7 @@
       <c r="BF699" s="9"/>
       <c r="BG699" s="9"/>
     </row>
-    <row r="700" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="9"/>
       <c r="B700" s="9"/>
       <c r="C700" s="10"/>
@@ -46384,7 +46545,7 @@
       <c r="BF700" s="9"/>
       <c r="BG700" s="9"/>
     </row>
-    <row r="701" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="9"/>
       <c r="B701" s="9"/>
       <c r="C701" s="10"/>
@@ -46445,7 +46606,7 @@
       <c r="BF701" s="9"/>
       <c r="BG701" s="9"/>
     </row>
-    <row r="702" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="9"/>
       <c r="B702" s="9"/>
       <c r="C702" s="10"/>
@@ -46506,7 +46667,7 @@
       <c r="BF702" s="9"/>
       <c r="BG702" s="9"/>
     </row>
-    <row r="703" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="9"/>
       <c r="B703" s="9"/>
       <c r="C703" s="10"/>
@@ -46567,7 +46728,7 @@
       <c r="BF703" s="9"/>
       <c r="BG703" s="9"/>
     </row>
-    <row r="704" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="9"/>
       <c r="B704" s="9"/>
       <c r="C704" s="10"/>
@@ -46628,7 +46789,7 @@
       <c r="BF704" s="9"/>
       <c r="BG704" s="9"/>
     </row>
-    <row r="705" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="9"/>
       <c r="B705" s="9"/>
       <c r="C705" s="10"/>
@@ -46689,7 +46850,7 @@
       <c r="BF705" s="9"/>
       <c r="BG705" s="9"/>
     </row>
-    <row r="706" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="9"/>
       <c r="B706" s="9"/>
       <c r="C706" s="10"/>
@@ -46750,7 +46911,7 @@
       <c r="BF706" s="9"/>
       <c r="BG706" s="9"/>
     </row>
-    <row r="707" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="9"/>
       <c r="B707" s="9"/>
       <c r="C707" s="10"/>
@@ -46811,7 +46972,7 @@
       <c r="BF707" s="9"/>
       <c r="BG707" s="9"/>
     </row>
-    <row r="708" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="9"/>
       <c r="B708" s="9"/>
       <c r="C708" s="10"/>
@@ -46872,7 +47033,7 @@
       <c r="BF708" s="9"/>
       <c r="BG708" s="9"/>
     </row>
-    <row r="709" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="9"/>
       <c r="B709" s="9"/>
       <c r="C709" s="10"/>
@@ -46933,7 +47094,7 @@
       <c r="BF709" s="9"/>
       <c r="BG709" s="9"/>
     </row>
-    <row r="710" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="9"/>
       <c r="B710" s="9"/>
       <c r="C710" s="10"/>
@@ -46994,7 +47155,7 @@
       <c r="BF710" s="9"/>
       <c r="BG710" s="9"/>
     </row>
-    <row r="711" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="9"/>
       <c r="B711" s="9"/>
       <c r="C711" s="10"/>
@@ -47055,7 +47216,7 @@
       <c r="BF711" s="9"/>
       <c r="BG711" s="9"/>
     </row>
-    <row r="712" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="9"/>
       <c r="B712" s="9"/>
       <c r="C712" s="10"/>
@@ -47116,7 +47277,7 @@
       <c r="BF712" s="9"/>
       <c r="BG712" s="9"/>
     </row>
-    <row r="713" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="9"/>
       <c r="B713" s="9"/>
       <c r="C713" s="10"/>
@@ -47177,7 +47338,7 @@
       <c r="BF713" s="9"/>
       <c r="BG713" s="9"/>
     </row>
-    <row r="714" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="9"/>
       <c r="B714" s="9"/>
       <c r="C714" s="10"/>
@@ -47238,7 +47399,7 @@
       <c r="BF714" s="9"/>
       <c r="BG714" s="9"/>
     </row>
-    <row r="715" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="9"/>
       <c r="B715" s="9"/>
       <c r="C715" s="10"/>
@@ -47299,7 +47460,7 @@
       <c r="BF715" s="9"/>
       <c r="BG715" s="9"/>
     </row>
-    <row r="716" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="9"/>
       <c r="B716" s="9"/>
       <c r="C716" s="10"/>
@@ -47360,7 +47521,7 @@
       <c r="BF716" s="9"/>
       <c r="BG716" s="9"/>
     </row>
-    <row r="717" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="9"/>
       <c r="B717" s="9"/>
       <c r="C717" s="10"/>
@@ -47421,7 +47582,7 @@
       <c r="BF717" s="9"/>
       <c r="BG717" s="9"/>
     </row>
-    <row r="718" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="9"/>
       <c r="B718" s="9"/>
       <c r="C718" s="10"/>
@@ -47482,7 +47643,7 @@
       <c r="BF718" s="9"/>
       <c r="BG718" s="9"/>
     </row>
-    <row r="719" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="9"/>
       <c r="B719" s="9"/>
       <c r="C719" s="10"/>
@@ -47543,7 +47704,7 @@
       <c r="BF719" s="9"/>
       <c r="BG719" s="9"/>
     </row>
-    <row r="720" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="9"/>
       <c r="B720" s="9"/>
       <c r="C720" s="10"/>
@@ -47604,7 +47765,7 @@
       <c r="BF720" s="9"/>
       <c r="BG720" s="9"/>
     </row>
-    <row r="721" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="9"/>
       <c r="B721" s="9"/>
       <c r="C721" s="10"/>
@@ -47665,7 +47826,7 @@
       <c r="BF721" s="9"/>
       <c r="BG721" s="9"/>
     </row>
-    <row r="722" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="9"/>
       <c r="B722" s="9"/>
       <c r="C722" s="10"/>
@@ -47726,7 +47887,7 @@
       <c r="BF722" s="9"/>
       <c r="BG722" s="9"/>
     </row>
-    <row r="723" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="9"/>
       <c r="B723" s="9"/>
       <c r="C723" s="10"/>
@@ -47787,7 +47948,7 @@
       <c r="BF723" s="9"/>
       <c r="BG723" s="9"/>
     </row>
-    <row r="724" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="9"/>
       <c r="B724" s="9"/>
       <c r="C724" s="10"/>
@@ -47848,7 +48009,7 @@
       <c r="BF724" s="9"/>
       <c r="BG724" s="9"/>
     </row>
-    <row r="725" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="9"/>
       <c r="B725" s="9"/>
       <c r="C725" s="10"/>
@@ -47909,7 +48070,7 @@
       <c r="BF725" s="9"/>
       <c r="BG725" s="9"/>
     </row>
-    <row r="726" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="9"/>
       <c r="B726" s="9"/>
       <c r="C726" s="10"/>
@@ -47970,7 +48131,7 @@
       <c r="BF726" s="9"/>
       <c r="BG726" s="9"/>
     </row>
-    <row r="727" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="9"/>
       <c r="B727" s="9"/>
       <c r="C727" s="10"/>
@@ -48031,7 +48192,7 @@
       <c r="BF727" s="9"/>
       <c r="BG727" s="9"/>
     </row>
-    <row r="728" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="9"/>
       <c r="B728" s="9"/>
       <c r="C728" s="10"/>
@@ -48092,7 +48253,7 @@
       <c r="BF728" s="9"/>
       <c r="BG728" s="9"/>
     </row>
-    <row r="729" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="9"/>
       <c r="B729" s="9"/>
       <c r="C729" s="10"/>
@@ -48153,7 +48314,7 @@
       <c r="BF729" s="9"/>
       <c r="BG729" s="9"/>
     </row>
-    <row r="730" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="9"/>
       <c r="B730" s="9"/>
       <c r="C730" s="10"/>
@@ -48214,7 +48375,7 @@
       <c r="BF730" s="9"/>
       <c r="BG730" s="9"/>
     </row>
-    <row r="731" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="9"/>
       <c r="B731" s="9"/>
       <c r="C731" s="10"/>
@@ -48275,7 +48436,7 @@
       <c r="BF731" s="9"/>
       <c r="BG731" s="9"/>
     </row>
-    <row r="732" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="9"/>
       <c r="B732" s="9"/>
       <c r="C732" s="10"/>
@@ -48336,7 +48497,7 @@
       <c r="BF732" s="9"/>
       <c r="BG732" s="9"/>
     </row>
-    <row r="733" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="9"/>
       <c r="B733" s="9"/>
       <c r="C733" s="10"/>
@@ -48397,7 +48558,7 @@
       <c r="BF733" s="9"/>
       <c r="BG733" s="9"/>
     </row>
-    <row r="734" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="9"/>
       <c r="B734" s="9"/>
       <c r="C734" s="10"/>
@@ -48458,7 +48619,7 @@
       <c r="BF734" s="9"/>
       <c r="BG734" s="9"/>
     </row>
-    <row r="735" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="9"/>
       <c r="B735" s="9"/>
       <c r="C735" s="10"/>
@@ -48519,7 +48680,7 @@
       <c r="BF735" s="9"/>
       <c r="BG735" s="9"/>
     </row>
-    <row r="736" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="9"/>
       <c r="B736" s="9"/>
       <c r="C736" s="10"/>
@@ -48580,7 +48741,7 @@
       <c r="BF736" s="9"/>
       <c r="BG736" s="9"/>
     </row>
-    <row r="737" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="9"/>
       <c r="B737" s="9"/>
       <c r="C737" s="10"/>
@@ -48641,7 +48802,7 @@
       <c r="BF737" s="9"/>
       <c r="BG737" s="9"/>
     </row>
-    <row r="738" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="9"/>
       <c r="B738" s="9"/>
       <c r="C738" s="10"/>
@@ -48702,7 +48863,7 @@
       <c r="BF738" s="9"/>
       <c r="BG738" s="9"/>
     </row>
-    <row r="739" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="9"/>
       <c r="B739" s="9"/>
       <c r="C739" s="10"/>
@@ -48763,7 +48924,7 @@
       <c r="BF739" s="9"/>
       <c r="BG739" s="9"/>
     </row>
-    <row r="740" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="9"/>
       <c r="B740" s="9"/>
       <c r="C740" s="10"/>
@@ -48824,7 +48985,7 @@
       <c r="BF740" s="9"/>
       <c r="BG740" s="9"/>
     </row>
-    <row r="741" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="9"/>
       <c r="B741" s="9"/>
       <c r="C741" s="10"/>
@@ -48885,7 +49046,7 @@
       <c r="BF741" s="9"/>
       <c r="BG741" s="9"/>
     </row>
-    <row r="742" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="9"/>
       <c r="B742" s="9"/>
       <c r="C742" s="10"/>
@@ -48946,7 +49107,7 @@
       <c r="BF742" s="9"/>
       <c r="BG742" s="9"/>
     </row>
-    <row r="743" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="9"/>
       <c r="B743" s="9"/>
       <c r="C743" s="10"/>
@@ -49007,7 +49168,7 @@
       <c r="BF743" s="9"/>
       <c r="BG743" s="9"/>
     </row>
-    <row r="744" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="9"/>
       <c r="B744" s="9"/>
       <c r="C744" s="10"/>
@@ -49068,7 +49229,7 @@
       <c r="BF744" s="9"/>
       <c r="BG744" s="9"/>
     </row>
-    <row r="745" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="9"/>
       <c r="B745" s="9"/>
       <c r="C745" s="10"/>
@@ -49129,7 +49290,7 @@
       <c r="BF745" s="9"/>
       <c r="BG745" s="9"/>
     </row>
-    <row r="746" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="9"/>
       <c r="B746" s="9"/>
       <c r="C746" s="10"/>
@@ -49190,7 +49351,7 @@
       <c r="BF746" s="9"/>
       <c r="BG746" s="9"/>
     </row>
-    <row r="747" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="9"/>
       <c r="B747" s="9"/>
       <c r="C747" s="10"/>
@@ -49251,7 +49412,7 @@
       <c r="BF747" s="9"/>
       <c r="BG747" s="9"/>
     </row>
-    <row r="748" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="9"/>
       <c r="B748" s="9"/>
       <c r="C748" s="10"/>
@@ -49312,7 +49473,7 @@
       <c r="BF748" s="9"/>
       <c r="BG748" s="9"/>
     </row>
-    <row r="749" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="9"/>
       <c r="B749" s="9"/>
       <c r="C749" s="10"/>
@@ -49373,7 +49534,7 @@
       <c r="BF749" s="9"/>
       <c r="BG749" s="9"/>
     </row>
-    <row r="750" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="9"/>
       <c r="B750" s="9"/>
       <c r="C750" s="10"/>
@@ -49434,7 +49595,7 @@
       <c r="BF750" s="9"/>
       <c r="BG750" s="9"/>
     </row>
-    <row r="751" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="9"/>
       <c r="B751" s="9"/>
       <c r="C751" s="10"/>
@@ -49495,7 +49656,7 @@
       <c r="BF751" s="9"/>
       <c r="BG751" s="9"/>
     </row>
-    <row r="752" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="9"/>
       <c r="B752" s="9"/>
       <c r="C752" s="10"/>
@@ -49556,7 +49717,7 @@
       <c r="BF752" s="9"/>
       <c r="BG752" s="9"/>
     </row>
-    <row r="753" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="9"/>
       <c r="B753" s="9"/>
       <c r="C753" s="10"/>
@@ -49617,7 +49778,7 @@
       <c r="BF753" s="9"/>
       <c r="BG753" s="9"/>
     </row>
-    <row r="754" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="9"/>
       <c r="B754" s="9"/>
       <c r="C754" s="10"/>
@@ -49678,7 +49839,7 @@
       <c r="BF754" s="9"/>
       <c r="BG754" s="9"/>
     </row>
-    <row r="755" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="9"/>
       <c r="B755" s="9"/>
       <c r="C755" s="10"/>
@@ -49739,7 +49900,7 @@
       <c r="BF755" s="9"/>
       <c r="BG755" s="9"/>
     </row>
-    <row r="756" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="9"/>
       <c r="B756" s="9"/>
       <c r="C756" s="10"/>
@@ -49800,7 +49961,7 @@
       <c r="BF756" s="9"/>
       <c r="BG756" s="9"/>
     </row>
-    <row r="757" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="9"/>
       <c r="B757" s="9"/>
       <c r="C757" s="10"/>
@@ -49861,7 +50022,7 @@
       <c r="BF757" s="9"/>
       <c r="BG757" s="9"/>
     </row>
-    <row r="758" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="9"/>
       <c r="B758" s="9"/>
       <c r="C758" s="10"/>
@@ -49922,7 +50083,7 @@
       <c r="BF758" s="9"/>
       <c r="BG758" s="9"/>
     </row>
-    <row r="759" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="9"/>
       <c r="B759" s="9"/>
       <c r="C759" s="10"/>
@@ -49983,7 +50144,7 @@
       <c r="BF759" s="9"/>
       <c r="BG759" s="9"/>
     </row>
-    <row r="760" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="9"/>
       <c r="B760" s="9"/>
       <c r="C760" s="10"/>
@@ -50044,7 +50205,7 @@
       <c r="BF760" s="9"/>
       <c r="BG760" s="9"/>
     </row>
-    <row r="761" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="9"/>
       <c r="B761" s="9"/>
       <c r="C761" s="10"/>
@@ -50105,7 +50266,7 @@
       <c r="BF761" s="9"/>
       <c r="BG761" s="9"/>
     </row>
-    <row r="762" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="9"/>
       <c r="B762" s="9"/>
       <c r="C762" s="10"/>
@@ -50166,7 +50327,7 @@
       <c r="BF762" s="9"/>
       <c r="BG762" s="9"/>
     </row>
-    <row r="763" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="9"/>
       <c r="B763" s="9"/>
       <c r="C763" s="10"/>
@@ -50227,7 +50388,7 @@
       <c r="BF763" s="9"/>
       <c r="BG763" s="9"/>
     </row>
-    <row r="764" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="9"/>
       <c r="B764" s="9"/>
       <c r="C764" s="10"/>
@@ -50288,7 +50449,7 @@
       <c r="BF764" s="9"/>
       <c r="BG764" s="9"/>
     </row>
-    <row r="765" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="9"/>
       <c r="B765" s="9"/>
       <c r="C765" s="10"/>
@@ -50349,7 +50510,7 @@
       <c r="BF765" s="9"/>
       <c r="BG765" s="9"/>
     </row>
-    <row r="766" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="9"/>
       <c r="B766" s="9"/>
       <c r="C766" s="10"/>
@@ -50410,7 +50571,7 @@
       <c r="BF766" s="9"/>
       <c r="BG766" s="9"/>
     </row>
-    <row r="767" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="9"/>
       <c r="B767" s="9"/>
       <c r="C767" s="10"/>
@@ -50471,7 +50632,7 @@
       <c r="BF767" s="9"/>
       <c r="BG767" s="9"/>
     </row>
-    <row r="768" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="9"/>
       <c r="B768" s="9"/>
       <c r="C768" s="10"/>
@@ -50532,7 +50693,7 @@
       <c r="BF768" s="9"/>
       <c r="BG768" s="9"/>
     </row>
-    <row r="769" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="9"/>
       <c r="B769" s="9"/>
       <c r="C769" s="10"/>
@@ -50593,7 +50754,7 @@
       <c r="BF769" s="9"/>
       <c r="BG769" s="9"/>
     </row>
-    <row r="770" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="9"/>
       <c r="B770" s="9"/>
       <c r="C770" s="10"/>
@@ -50654,7 +50815,7 @@
       <c r="BF770" s="9"/>
       <c r="BG770" s="9"/>
     </row>
-    <row r="771" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="9"/>
       <c r="B771" s="9"/>
       <c r="C771" s="10"/>
@@ -50715,7 +50876,7 @@
       <c r="BF771" s="9"/>
       <c r="BG771" s="9"/>
     </row>
-    <row r="772" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="9"/>
       <c r="B772" s="9"/>
       <c r="C772" s="10"/>
@@ -50776,7 +50937,7 @@
       <c r="BF772" s="9"/>
       <c r="BG772" s="9"/>
     </row>
-    <row r="773" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="9"/>
       <c r="B773" s="9"/>
       <c r="C773" s="10"/>
@@ -50837,7 +50998,7 @@
       <c r="BF773" s="9"/>
       <c r="BG773" s="9"/>
     </row>
-    <row r="774" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="9"/>
       <c r="B774" s="9"/>
       <c r="C774" s="10"/>
@@ -50898,7 +51059,7 @@
       <c r="BF774" s="9"/>
       <c r="BG774" s="9"/>
     </row>
-    <row r="775" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="9"/>
       <c r="B775" s="9"/>
       <c r="C775" s="10"/>
@@ -50959,7 +51120,7 @@
       <c r="BF775" s="9"/>
       <c r="BG775" s="9"/>
     </row>
-    <row r="776" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="9"/>
       <c r="B776" s="9"/>
       <c r="C776" s="10"/>
@@ -51020,7 +51181,7 @@
       <c r="BF776" s="9"/>
       <c r="BG776" s="9"/>
     </row>
-    <row r="777" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="9"/>
       <c r="B777" s="9"/>
       <c r="C777" s="10"/>
@@ -51081,7 +51242,7 @@
       <c r="BF777" s="9"/>
       <c r="BG777" s="9"/>
     </row>
-    <row r="778" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="9"/>
       <c r="B778" s="9"/>
       <c r="C778" s="10"/>
@@ -51142,7 +51303,7 @@
       <c r="BF778" s="9"/>
       <c r="BG778" s="9"/>
     </row>
-    <row r="779" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="9"/>
       <c r="B779" s="9"/>
       <c r="C779" s="10"/>
@@ -51203,7 +51364,7 @@
       <c r="BF779" s="9"/>
       <c r="BG779" s="9"/>
     </row>
-    <row r="780" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="9"/>
       <c r="B780" s="9"/>
       <c r="C780" s="10"/>
@@ -51264,7 +51425,7 @@
       <c r="BF780" s="9"/>
       <c r="BG780" s="9"/>
     </row>
-    <row r="781" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="9"/>
       <c r="B781" s="9"/>
       <c r="C781" s="10"/>
@@ -51325,7 +51486,7 @@
       <c r="BF781" s="9"/>
       <c r="BG781" s="9"/>
     </row>
-    <row r="782" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="9"/>
       <c r="B782" s="9"/>
       <c r="C782" s="10"/>
@@ -51386,7 +51547,7 @@
       <c r="BF782" s="9"/>
       <c r="BG782" s="9"/>
     </row>
-    <row r="783" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="9"/>
       <c r="B783" s="9"/>
       <c r="C783" s="10"/>
@@ -51447,7 +51608,7 @@
       <c r="BF783" s="9"/>
       <c r="BG783" s="9"/>
     </row>
-    <row r="784" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="9"/>
       <c r="B784" s="9"/>
       <c r="C784" s="10"/>
@@ -51508,7 +51669,7 @@
       <c r="BF784" s="9"/>
       <c r="BG784" s="9"/>
     </row>
-    <row r="785" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="9"/>
       <c r="B785" s="9"/>
       <c r="C785" s="10"/>
@@ -51569,7 +51730,7 @@
       <c r="BF785" s="9"/>
       <c r="BG785" s="9"/>
     </row>
-    <row r="786" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="9"/>
       <c r="B786" s="9"/>
       <c r="C786" s="10"/>
@@ -51630,7 +51791,7 @@
       <c r="BF786" s="9"/>
       <c r="BG786" s="9"/>
     </row>
-    <row r="787" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="9"/>
       <c r="B787" s="9"/>
       <c r="C787" s="10"/>
@@ -51691,7 +51852,7 @@
       <c r="BF787" s="9"/>
       <c r="BG787" s="9"/>
     </row>
-    <row r="788" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="9"/>
       <c r="B788" s="9"/>
       <c r="C788" s="10"/>
@@ -51752,7 +51913,7 @@
       <c r="BF788" s="9"/>
       <c r="BG788" s="9"/>
     </row>
-    <row r="789" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="9"/>
       <c r="B789" s="9"/>
       <c r="C789" s="10"/>
@@ -51813,7 +51974,7 @@
       <c r="BF789" s="9"/>
       <c r="BG789" s="9"/>
     </row>
-    <row r="790" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="9"/>
       <c r="B790" s="9"/>
       <c r="C790" s="10"/>
@@ -51874,7 +52035,7 @@
       <c r="BF790" s="9"/>
       <c r="BG790" s="9"/>
     </row>
-    <row r="791" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="9"/>
       <c r="B791" s="9"/>
       <c r="C791" s="10"/>
@@ -51935,7 +52096,7 @@
       <c r="BF791" s="9"/>
       <c r="BG791" s="9"/>
     </row>
-    <row r="792" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="9"/>
       <c r="B792" s="9"/>
       <c r="C792" s="10"/>
@@ -51996,7 +52157,7 @@
       <c r="BF792" s="9"/>
       <c r="BG792" s="9"/>
     </row>
-    <row r="793" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="9"/>
       <c r="B793" s="9"/>
       <c r="C793" s="10"/>
@@ -52057,7 +52218,7 @@
       <c r="BF793" s="9"/>
       <c r="BG793" s="9"/>
     </row>
-    <row r="794" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="9"/>
       <c r="B794" s="9"/>
       <c r="C794" s="10"/>
@@ -52118,7 +52279,7 @@
       <c r="BF794" s="9"/>
       <c r="BG794" s="9"/>
     </row>
-    <row r="795" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="9"/>
       <c r="B795" s="9"/>
       <c r="C795" s="10"/>
@@ -52179,7 +52340,7 @@
       <c r="BF795" s="9"/>
       <c r="BG795" s="9"/>
     </row>
-    <row r="796" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="9"/>
       <c r="B796" s="9"/>
       <c r="C796" s="10"/>
@@ -52240,7 +52401,7 @@
       <c r="BF796" s="9"/>
       <c r="BG796" s="9"/>
     </row>
-    <row r="797" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="9"/>
       <c r="B797" s="9"/>
       <c r="C797" s="10"/>
@@ -52301,7 +52462,7 @@
       <c r="BF797" s="9"/>
       <c r="BG797" s="9"/>
     </row>
-    <row r="798" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="9"/>
       <c r="B798" s="9"/>
       <c r="C798" s="10"/>
@@ -52362,7 +52523,7 @@
       <c r="BF798" s="9"/>
       <c r="BG798" s="9"/>
     </row>
-    <row r="799" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="9"/>
       <c r="B799" s="9"/>
       <c r="C799" s="10"/>
@@ -52423,7 +52584,7 @@
       <c r="BF799" s="9"/>
       <c r="BG799" s="9"/>
     </row>
-    <row r="800" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="9"/>
       <c r="B800" s="9"/>
       <c r="C800" s="10"/>
@@ -52484,7 +52645,7 @@
       <c r="BF800" s="9"/>
       <c r="BG800" s="9"/>
     </row>
-    <row r="801" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="9"/>
       <c r="B801" s="9"/>
       <c r="C801" s="10"/>
@@ -52545,7 +52706,7 @@
       <c r="BF801" s="9"/>
       <c r="BG801" s="9"/>
     </row>
-    <row r="802" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="9"/>
       <c r="B802" s="9"/>
       <c r="C802" s="10"/>
@@ -52606,7 +52767,7 @@
       <c r="BF802" s="9"/>
       <c r="BG802" s="9"/>
     </row>
-    <row r="803" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="9"/>
       <c r="B803" s="9"/>
       <c r="C803" s="10"/>
@@ -52667,7 +52828,7 @@
       <c r="BF803" s="9"/>
       <c r="BG803" s="9"/>
     </row>
-    <row r="804" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="9"/>
       <c r="B804" s="9"/>
       <c r="C804" s="10"/>
@@ -52728,7 +52889,7 @@
       <c r="BF804" s="9"/>
       <c r="BG804" s="9"/>
     </row>
-    <row r="805" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="9"/>
       <c r="B805" s="9"/>
       <c r="C805" s="10"/>
@@ -52789,7 +52950,7 @@
       <c r="BF805" s="9"/>
       <c r="BG805" s="9"/>
     </row>
-    <row r="806" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="9"/>
       <c r="B806" s="9"/>
       <c r="C806" s="10"/>
@@ -52850,7 +53011,7 @@
       <c r="BF806" s="9"/>
       <c r="BG806" s="9"/>
     </row>
-    <row r="807" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="9"/>
       <c r="B807" s="9"/>
       <c r="C807" s="10"/>
@@ -52911,7 +53072,7 @@
       <c r="BF807" s="9"/>
       <c r="BG807" s="9"/>
     </row>
-    <row r="808" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="9"/>
       <c r="B808" s="9"/>
       <c r="C808" s="10"/>
@@ -52972,7 +53133,7 @@
       <c r="BF808" s="9"/>
       <c r="BG808" s="9"/>
     </row>
-    <row r="809" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="9"/>
       <c r="B809" s="9"/>
       <c r="C809" s="10"/>
@@ -53033,7 +53194,7 @@
       <c r="BF809" s="9"/>
       <c r="BG809" s="9"/>
     </row>
-    <row r="810" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="9"/>
       <c r="B810" s="9"/>
       <c r="C810" s="10"/>
@@ -53094,7 +53255,7 @@
       <c r="BF810" s="9"/>
       <c r="BG810" s="9"/>
     </row>
-    <row r="811" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="9"/>
       <c r="B811" s="9"/>
       <c r="C811" s="10"/>
@@ -53155,7 +53316,7 @@
       <c r="BF811" s="9"/>
       <c r="BG811" s="9"/>
     </row>
-    <row r="812" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="9"/>
       <c r="B812" s="9"/>
       <c r="C812" s="10"/>
@@ -53216,7 +53377,7 @@
       <c r="BF812" s="9"/>
       <c r="BG812" s="9"/>
     </row>
-    <row r="813" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="9"/>
       <c r="B813" s="9"/>
       <c r="C813" s="10"/>
@@ -53277,7 +53438,7 @@
       <c r="BF813" s="9"/>
       <c r="BG813" s="9"/>
     </row>
-    <row r="814" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="9"/>
       <c r="B814" s="9"/>
       <c r="C814" s="10"/>
@@ -53338,7 +53499,7 @@
       <c r="BF814" s="9"/>
       <c r="BG814" s="9"/>
     </row>
-    <row r="815" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="9"/>
       <c r="B815" s="9"/>
       <c r="C815" s="10"/>
@@ -53399,7 +53560,7 @@
       <c r="BF815" s="9"/>
       <c r="BG815" s="9"/>
     </row>
-    <row r="816" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="9"/>
       <c r="B816" s="9"/>
       <c r="C816" s="10"/>
@@ -53460,7 +53621,7 @@
       <c r="BF816" s="9"/>
       <c r="BG816" s="9"/>
     </row>
-    <row r="817" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="9"/>
       <c r="B817" s="9"/>
       <c r="C817" s="10"/>
@@ -53521,7 +53682,7 @@
       <c r="BF817" s="9"/>
       <c r="BG817" s="9"/>
     </row>
-    <row r="818" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="9"/>
       <c r="B818" s="9"/>
       <c r="C818" s="10"/>
@@ -53582,7 +53743,7 @@
       <c r="BF818" s="9"/>
       <c r="BG818" s="9"/>
     </row>
-    <row r="819" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="9"/>
       <c r="B819" s="9"/>
       <c r="C819" s="10"/>
@@ -53643,7 +53804,7 @@
       <c r="BF819" s="9"/>
       <c r="BG819" s="9"/>
     </row>
-    <row r="820" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="9"/>
       <c r="B820" s="9"/>
       <c r="C820" s="10"/>
@@ -53704,7 +53865,7 @@
       <c r="BF820" s="9"/>
       <c r="BG820" s="9"/>
     </row>
-    <row r="821" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="9"/>
       <c r="B821" s="9"/>
       <c r="C821" s="10"/>
@@ -53765,7 +53926,7 @@
       <c r="BF821" s="9"/>
       <c r="BG821" s="9"/>
     </row>
-    <row r="822" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="9"/>
       <c r="B822" s="9"/>
       <c r="C822" s="10"/>
@@ -53826,7 +53987,7 @@
       <c r="BF822" s="9"/>
       <c r="BG822" s="9"/>
     </row>
-    <row r="823" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="9"/>
       <c r="B823" s="9"/>
       <c r="C823" s="10"/>
@@ -53887,7 +54048,7 @@
       <c r="BF823" s="9"/>
       <c r="BG823" s="9"/>
     </row>
-    <row r="824" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="9"/>
       <c r="B824" s="9"/>
       <c r="C824" s="10"/>
@@ -53948,7 +54109,7 @@
       <c r="BF824" s="9"/>
       <c r="BG824" s="9"/>
     </row>
-    <row r="825" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="9"/>
       <c r="B825" s="9"/>
       <c r="C825" s="10"/>
@@ -54009,7 +54170,7 @@
       <c r="BF825" s="9"/>
       <c r="BG825" s="9"/>
     </row>
-    <row r="826" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="9"/>
       <c r="B826" s="9"/>
       <c r="C826" s="10"/>
@@ -54070,7 +54231,7 @@
       <c r="BF826" s="9"/>
       <c r="BG826" s="9"/>
     </row>
-    <row r="827" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="9"/>
       <c r="B827" s="9"/>
       <c r="C827" s="10"/>
@@ -54131,7 +54292,7 @@
       <c r="BF827" s="9"/>
       <c r="BG827" s="9"/>
     </row>
-    <row r="828" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="9"/>
       <c r="B828" s="9"/>
       <c r="C828" s="10"/>
@@ -54192,7 +54353,7 @@
       <c r="BF828" s="9"/>
       <c r="BG828" s="9"/>
     </row>
-    <row r="829" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="9"/>
       <c r="B829" s="9"/>
       <c r="C829" s="10"/>
@@ -54253,7 +54414,7 @@
       <c r="BF829" s="9"/>
       <c r="BG829" s="9"/>
     </row>
-    <row r="830" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="9"/>
       <c r="B830" s="9"/>
       <c r="C830" s="10"/>
@@ -54314,7 +54475,7 @@
       <c r="BF830" s="9"/>
       <c r="BG830" s="9"/>
     </row>
-    <row r="831" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="9"/>
       <c r="B831" s="9"/>
       <c r="C831" s="10"/>
@@ -54375,7 +54536,7 @@
       <c r="BF831" s="9"/>
       <c r="BG831" s="9"/>
     </row>
-    <row r="832" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="9"/>
       <c r="B832" s="9"/>
       <c r="C832" s="10"/>
@@ -54436,7 +54597,7 @@
       <c r="BF832" s="9"/>
       <c r="BG832" s="9"/>
     </row>
-    <row r="833" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="9"/>
       <c r="B833" s="9"/>
       <c r="C833" s="10"/>
@@ -54497,7 +54658,7 @@
       <c r="BF833" s="9"/>
       <c r="BG833" s="9"/>
     </row>
-    <row r="834" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="9"/>
       <c r="B834" s="9"/>
       <c r="C834" s="10"/>
@@ -54558,7 +54719,7 @@
       <c r="BF834" s="9"/>
       <c r="BG834" s="9"/>
     </row>
-    <row r="835" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="9"/>
       <c r="B835" s="9"/>
       <c r="C835" s="10"/>
@@ -54619,7 +54780,7 @@
       <c r="BF835" s="9"/>
       <c r="BG835" s="9"/>
     </row>
-    <row r="836" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="9"/>
       <c r="B836" s="9"/>
       <c r="C836" s="10"/>
@@ -54680,7 +54841,7 @@
       <c r="BF836" s="9"/>
       <c r="BG836" s="9"/>
     </row>
-    <row r="837" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="9"/>
       <c r="B837" s="9"/>
       <c r="C837" s="10"/>
@@ -54741,7 +54902,7 @@
       <c r="BF837" s="9"/>
       <c r="BG837" s="9"/>
     </row>
-    <row r="838" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="9"/>
       <c r="B838" s="9"/>
       <c r="C838" s="10"/>
@@ -54802,7 +54963,7 @@
       <c r="BF838" s="9"/>
       <c r="BG838" s="9"/>
     </row>
-    <row r="839" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="9"/>
       <c r="B839" s="9"/>
       <c r="C839" s="10"/>
@@ -54863,7 +55024,7 @@
       <c r="BF839" s="9"/>
       <c r="BG839" s="9"/>
     </row>
-    <row r="840" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="9"/>
       <c r="B840" s="9"/>
       <c r="C840" s="10"/>
@@ -54924,7 +55085,7 @@
       <c r="BF840" s="9"/>
       <c r="BG840" s="9"/>
     </row>
-    <row r="841" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="9"/>
       <c r="B841" s="9"/>
       <c r="C841" s="10"/>
@@ -54985,7 +55146,7 @@
       <c r="BF841" s="9"/>
       <c r="BG841" s="9"/>
     </row>
-    <row r="842" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="9"/>
       <c r="B842" s="9"/>
       <c r="C842" s="10"/>
@@ -55046,7 +55207,7 @@
       <c r="BF842" s="9"/>
       <c r="BG842" s="9"/>
     </row>
-    <row r="843" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="9"/>
       <c r="B843" s="9"/>
       <c r="C843" s="10"/>
@@ -55107,7 +55268,7 @@
       <c r="BF843" s="9"/>
       <c r="BG843" s="9"/>
     </row>
-    <row r="844" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="9"/>
       <c r="B844" s="9"/>
       <c r="C844" s="10"/>
@@ -55168,7 +55329,7 @@
       <c r="BF844" s="9"/>
       <c r="BG844" s="9"/>
     </row>
-    <row r="845" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="9"/>
       <c r="B845" s="9"/>
       <c r="C845" s="10"/>
@@ -55229,7 +55390,7 @@
       <c r="BF845" s="9"/>
       <c r="BG845" s="9"/>
     </row>
-    <row r="846" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="9"/>
       <c r="B846" s="9"/>
       <c r="C846" s="10"/>
@@ -55290,7 +55451,7 @@
       <c r="BF846" s="9"/>
       <c r="BG846" s="9"/>
     </row>
-    <row r="847" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="9"/>
       <c r="B847" s="9"/>
       <c r="C847" s="10"/>
@@ -55351,7 +55512,7 @@
       <c r="BF847" s="9"/>
       <c r="BG847" s="9"/>
     </row>
-    <row r="848" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="9"/>
       <c r="B848" s="9"/>
       <c r="C848" s="10"/>
@@ -55412,7 +55573,7 @@
       <c r="BF848" s="9"/>
       <c r="BG848" s="9"/>
     </row>
-    <row r="849" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="9"/>
       <c r="B849" s="9"/>
       <c r="C849" s="10"/>
@@ -55473,7 +55634,7 @@
       <c r="BF849" s="9"/>
       <c r="BG849" s="9"/>
     </row>
-    <row r="850" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="9"/>
       <c r="B850" s="9"/>
       <c r="C850" s="10"/>
@@ -55534,7 +55695,7 @@
       <c r="BF850" s="9"/>
       <c r="BG850" s="9"/>
     </row>
-    <row r="851" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="9"/>
       <c r="B851" s="9"/>
       <c r="C851" s="10"/>
@@ -55595,7 +55756,7 @@
       <c r="BF851" s="9"/>
       <c r="BG851" s="9"/>
     </row>
-    <row r="852" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="9"/>
       <c r="B852" s="9"/>
       <c r="C852" s="10"/>
@@ -55656,7 +55817,7 @@
       <c r="BF852" s="9"/>
       <c r="BG852" s="9"/>
     </row>
-    <row r="853" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="9"/>
       <c r="B853" s="9"/>
       <c r="C853" s="10"/>
@@ -55717,7 +55878,7 @@
       <c r="BF853" s="9"/>
       <c r="BG853" s="9"/>
     </row>
-    <row r="854" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="9"/>
       <c r="B854" s="9"/>
       <c r="C854" s="10"/>
@@ -55778,7 +55939,7 @@
       <c r="BF854" s="9"/>
       <c r="BG854" s="9"/>
     </row>
-    <row r="855" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="9"/>
       <c r="B855" s="9"/>
       <c r="C855" s="10"/>
@@ -55839,7 +56000,7 @@
       <c r="BF855" s="9"/>
       <c r="BG855" s="9"/>
     </row>
-    <row r="856" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="9"/>
       <c r="B856" s="9"/>
       <c r="C856" s="10"/>
@@ -55900,7 +56061,7 @@
       <c r="BF856" s="9"/>
       <c r="BG856" s="9"/>
     </row>
-    <row r="857" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="9"/>
       <c r="B857" s="9"/>
       <c r="C857" s="10"/>
@@ -55961,7 +56122,7 @@
       <c r="BF857" s="9"/>
       <c r="BG857" s="9"/>
     </row>
-    <row r="858" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="9"/>
       <c r="B858" s="9"/>
       <c r="C858" s="10"/>
@@ -56022,7 +56183,7 @@
       <c r="BF858" s="9"/>
       <c r="BG858" s="9"/>
     </row>
-    <row r="859" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="9"/>
       <c r="B859" s="9"/>
       <c r="C859" s="10"/>
@@ -56083,7 +56244,7 @@
       <c r="BF859" s="9"/>
       <c r="BG859" s="9"/>
     </row>
-    <row r="860" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="9"/>
       <c r="B860" s="9"/>
       <c r="C860" s="10"/>
@@ -56144,7 +56305,7 @@
       <c r="BF860" s="9"/>
       <c r="BG860" s="9"/>
     </row>
-    <row r="861" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="9"/>
       <c r="B861" s="9"/>
       <c r="C861" s="10"/>
@@ -56205,7 +56366,7 @@
       <c r="BF861" s="9"/>
       <c r="BG861" s="9"/>
     </row>
-    <row r="862" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="9"/>
       <c r="B862" s="9"/>
       <c r="C862" s="10"/>
@@ -56266,7 +56427,7 @@
       <c r="BF862" s="9"/>
       <c r="BG862" s="9"/>
     </row>
-    <row r="863" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="9"/>
       <c r="B863" s="9"/>
       <c r="C863" s="10"/>
@@ -56327,7 +56488,7 @@
       <c r="BF863" s="9"/>
       <c r="BG863" s="9"/>
     </row>
-    <row r="864" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="9"/>
       <c r="B864" s="9"/>
       <c r="C864" s="10"/>
@@ -56388,7 +56549,7 @@
       <c r="BF864" s="9"/>
       <c r="BG864" s="9"/>
     </row>
-    <row r="865" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="9"/>
       <c r="B865" s="9"/>
       <c r="C865" s="10"/>
@@ -56449,7 +56610,7 @@
       <c r="BF865" s="9"/>
       <c r="BG865" s="9"/>
     </row>
-    <row r="866" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="9"/>
       <c r="B866" s="9"/>
       <c r="C866" s="10"/>
@@ -56510,7 +56671,7 @@
       <c r="BF866" s="9"/>
       <c r="BG866" s="9"/>
     </row>
-    <row r="867" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="9"/>
       <c r="B867" s="9"/>
       <c r="C867" s="10"/>
@@ -56571,7 +56732,7 @@
       <c r="BF867" s="9"/>
       <c r="BG867" s="9"/>
     </row>
-    <row r="868" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="9"/>
       <c r="B868" s="9"/>
       <c r="C868" s="10"/>
@@ -56632,7 +56793,7 @@
       <c r="BF868" s="9"/>
       <c r="BG868" s="9"/>
     </row>
-    <row r="869" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="9"/>
       <c r="B869" s="9"/>
       <c r="C869" s="10"/>
@@ -56693,7 +56854,7 @@
       <c r="BF869" s="9"/>
       <c r="BG869" s="9"/>
     </row>
-    <row r="870" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="9"/>
       <c r="B870" s="9"/>
       <c r="C870" s="10"/>
@@ -56754,7 +56915,7 @@
       <c r="BF870" s="9"/>
       <c r="BG870" s="9"/>
     </row>
-    <row r="871" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="9"/>
       <c r="B871" s="9"/>
       <c r="C871" s="10"/>
@@ -56815,7 +56976,7 @@
       <c r="BF871" s="9"/>
       <c r="BG871" s="9"/>
     </row>
-    <row r="872" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="9"/>
       <c r="B872" s="9"/>
       <c r="C872" s="10"/>
@@ -56876,7 +57037,7 @@
       <c r="BF872" s="9"/>
       <c r="BG872" s="9"/>
     </row>
-    <row r="873" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="9"/>
       <c r="B873" s="9"/>
       <c r="C873" s="10"/>
@@ -56937,7 +57098,7 @@
       <c r="BF873" s="9"/>
       <c r="BG873" s="9"/>
     </row>
-    <row r="874" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="9"/>
       <c r="B874" s="9"/>
       <c r="C874" s="10"/>
@@ -56998,7 +57159,7 @@
       <c r="BF874" s="9"/>
       <c r="BG874" s="9"/>
     </row>
-    <row r="875" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="9"/>
       <c r="B875" s="9"/>
       <c r="C875" s="10"/>
@@ -57059,7 +57220,7 @@
       <c r="BF875" s="9"/>
       <c r="BG875" s="9"/>
     </row>
-    <row r="876" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="9"/>
       <c r="B876" s="9"/>
       <c r="C876" s="10"/>
@@ -57120,7 +57281,7 @@
       <c r="BF876" s="9"/>
       <c r="BG876" s="9"/>
     </row>
-    <row r="877" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="9"/>
       <c r="B877" s="9"/>
       <c r="C877" s="10"/>
@@ -57181,7 +57342,7 @@
       <c r="BF877" s="9"/>
       <c r="BG877" s="9"/>
     </row>
-    <row r="878" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="9"/>
       <c r="B878" s="9"/>
       <c r="C878" s="10"/>
@@ -57242,7 +57403,7 @@
       <c r="BF878" s="9"/>
       <c r="BG878" s="9"/>
     </row>
-    <row r="879" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="9"/>
       <c r="B879" s="9"/>
       <c r="C879" s="10"/>
@@ -57303,7 +57464,7 @@
       <c r="BF879" s="9"/>
       <c r="BG879" s="9"/>
     </row>
-    <row r="880" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="9"/>
       <c r="B880" s="9"/>
       <c r="C880" s="10"/>
@@ -57364,7 +57525,7 @@
       <c r="BF880" s="9"/>
       <c r="BG880" s="9"/>
     </row>
-    <row r="881" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="9"/>
       <c r="B881" s="9"/>
       <c r="C881" s="10"/>
@@ -57425,7 +57586,7 @@
       <c r="BF881" s="9"/>
       <c r="BG881" s="9"/>
     </row>
-    <row r="882" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="9"/>
       <c r="B882" s="9"/>
       <c r="C882" s="10"/>
@@ -57486,7 +57647,7 @@
       <c r="BF882" s="9"/>
       <c r="BG882" s="9"/>
     </row>
-    <row r="883" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="9"/>
       <c r="B883" s="9"/>
       <c r="C883" s="10"/>
@@ -57547,7 +57708,7 @@
       <c r="BF883" s="9"/>
       <c r="BG883" s="9"/>
     </row>
-    <row r="884" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="9"/>
       <c r="B884" s="9"/>
       <c r="C884" s="10"/>
@@ -57608,7 +57769,7 @@
       <c r="BF884" s="9"/>
       <c r="BG884" s="9"/>
     </row>
-    <row r="885" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="9"/>
       <c r="B885" s="9"/>
       <c r="C885" s="10"/>
@@ -57669,7 +57830,7 @@
       <c r="BF885" s="9"/>
       <c r="BG885" s="9"/>
     </row>
-    <row r="886" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="9"/>
       <c r="B886" s="9"/>
       <c r="C886" s="10"/>
@@ -57730,7 +57891,7 @@
       <c r="BF886" s="9"/>
       <c r="BG886" s="9"/>
     </row>
-    <row r="887" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="9"/>
       <c r="B887" s="9"/>
       <c r="C887" s="10"/>
@@ -57791,7 +57952,7 @@
       <c r="BF887" s="9"/>
       <c r="BG887" s="9"/>
     </row>
-    <row r="888" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="9"/>
       <c r="B888" s="9"/>
       <c r="C888" s="10"/>
@@ -57852,7 +58013,7 @@
       <c r="BF888" s="9"/>
       <c r="BG888" s="9"/>
     </row>
-    <row r="889" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="9"/>
       <c r="B889" s="9"/>
       <c r="C889" s="10"/>
@@ -57913,7 +58074,7 @@
       <c r="BF889" s="9"/>
       <c r="BG889" s="9"/>
     </row>
-    <row r="890" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="9"/>
       <c r="B890" s="9"/>
       <c r="C890" s="10"/>
@@ -57974,7 +58135,7 @@
       <c r="BF890" s="9"/>
       <c r="BG890" s="9"/>
     </row>
-    <row r="891" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="9"/>
       <c r="B891" s="9"/>
       <c r="C891" s="10"/>
@@ -58035,7 +58196,7 @@
       <c r="BF891" s="9"/>
       <c r="BG891" s="9"/>
     </row>
-    <row r="892" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="9"/>
       <c r="B892" s="9"/>
       <c r="C892" s="10"/>
@@ -58096,7 +58257,7 @@
       <c r="BF892" s="9"/>
       <c r="BG892" s="9"/>
     </row>
-    <row r="893" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="9"/>
       <c r="B893" s="9"/>
       <c r="C893" s="10"/>
@@ -58157,7 +58318,7 @@
       <c r="BF893" s="9"/>
       <c r="BG893" s="9"/>
     </row>
-    <row r="894" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="9"/>
       <c r="B894" s="9"/>
       <c r="C894" s="10"/>
@@ -58218,7 +58379,7 @@
       <c r="BF894" s="9"/>
       <c r="BG894" s="9"/>
     </row>
-    <row r="895" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="9"/>
       <c r="B895" s="9"/>
       <c r="C895" s="10"/>
@@ -58279,7 +58440,7 @@
       <c r="BF895" s="9"/>
       <c r="BG895" s="9"/>
     </row>
-    <row r="896" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="9"/>
       <c r="B896" s="9"/>
       <c r="C896" s="10"/>
@@ -58340,7 +58501,7 @@
       <c r="BF896" s="9"/>
       <c r="BG896" s="9"/>
     </row>
-    <row r="897" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="9"/>
       <c r="B897" s="9"/>
       <c r="C897" s="10"/>
@@ -58401,7 +58562,7 @@
       <c r="BF897" s="9"/>
       <c r="BG897" s="9"/>
     </row>
-    <row r="898" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="9"/>
       <c r="B898" s="9"/>
       <c r="C898" s="10"/>
@@ -58462,7 +58623,7 @@
       <c r="BF898" s="9"/>
       <c r="BG898" s="9"/>
     </row>
-    <row r="899" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="9"/>
       <c r="B899" s="9"/>
       <c r="C899" s="10"/>
@@ -58523,7 +58684,7 @@
       <c r="BF899" s="9"/>
       <c r="BG899" s="9"/>
     </row>
-    <row r="900" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="9"/>
       <c r="B900" s="9"/>
       <c r="C900" s="10"/>
@@ -58584,7 +58745,7 @@
       <c r="BF900" s="9"/>
       <c r="BG900" s="9"/>
     </row>
-    <row r="901" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="9"/>
       <c r="B901" s="9"/>
       <c r="C901" s="10"/>
@@ -58645,7 +58806,7 @@
       <c r="BF901" s="9"/>
       <c r="BG901" s="9"/>
     </row>
-    <row r="902" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="9"/>
       <c r="B902" s="9"/>
       <c r="C902" s="10"/>
@@ -58706,7 +58867,7 @@
       <c r="BF902" s="9"/>
       <c r="BG902" s="9"/>
     </row>
-    <row r="903" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="9"/>
       <c r="B903" s="9"/>
       <c r="C903" s="10"/>
@@ -58767,7 +58928,7 @@
       <c r="BF903" s="9"/>
       <c r="BG903" s="9"/>
     </row>
-    <row r="904" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="9"/>
       <c r="B904" s="9"/>
       <c r="C904" s="10"/>
@@ -58828,7 +58989,7 @@
       <c r="BF904" s="9"/>
       <c r="BG904" s="9"/>
     </row>
-    <row r="905" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="9"/>
       <c r="B905" s="9"/>
       <c r="C905" s="10"/>
@@ -58889,7 +59050,7 @@
       <c r="BF905" s="9"/>
       <c r="BG905" s="9"/>
     </row>
-    <row r="906" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="9"/>
       <c r="B906" s="9"/>
       <c r="C906" s="10"/>
@@ -58950,7 +59111,7 @@
       <c r="BF906" s="9"/>
       <c r="BG906" s="9"/>
     </row>
-    <row r="907" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="9"/>
       <c r="B907" s="9"/>
       <c r="C907" s="10"/>
@@ -59011,7 +59172,7 @@
       <c r="BF907" s="9"/>
       <c r="BG907" s="9"/>
     </row>
-    <row r="908" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="9"/>
       <c r="B908" s="9"/>
       <c r="C908" s="10"/>
@@ -59072,7 +59233,7 @@
       <c r="BF908" s="9"/>
       <c r="BG908" s="9"/>
     </row>
-    <row r="909" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="9"/>
       <c r="B909" s="9"/>
       <c r="C909" s="10"/>
@@ -59133,7 +59294,7 @@
       <c r="BF909" s="9"/>
       <c r="BG909" s="9"/>
     </row>
-    <row r="910" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="9"/>
       <c r="B910" s="9"/>
       <c r="C910" s="10"/>
@@ -59194,7 +59355,7 @@
       <c r="BF910" s="9"/>
       <c r="BG910" s="9"/>
     </row>
-    <row r="911" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="9"/>
       <c r="B911" s="9"/>
       <c r="C911" s="10"/>
@@ -59255,7 +59416,7 @@
       <c r="BF911" s="9"/>
       <c r="BG911" s="9"/>
     </row>
-    <row r="912" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="9"/>
       <c r="B912" s="9"/>
       <c r="C912" s="10"/>
@@ -59316,7 +59477,7 @@
       <c r="BF912" s="9"/>
       <c r="BG912" s="9"/>
     </row>
-    <row r="913" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="9"/>
       <c r="B913" s="9"/>
       <c r="C913" s="10"/>
@@ -59377,7 +59538,7 @@
       <c r="BF913" s="9"/>
       <c r="BG913" s="9"/>
     </row>
-    <row r="914" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="9"/>
       <c r="B914" s="9"/>
       <c r="C914" s="10"/>
@@ -59438,7 +59599,7 @@
       <c r="BF914" s="9"/>
       <c r="BG914" s="9"/>
     </row>
-    <row r="915" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="9"/>
       <c r="B915" s="9"/>
       <c r="C915" s="10"/>
@@ -59499,7 +59660,7 @@
       <c r="BF915" s="9"/>
       <c r="BG915" s="9"/>
     </row>
-    <row r="916" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="9"/>
       <c r="B916" s="9"/>
       <c r="C916" s="10"/>
@@ -59560,7 +59721,7 @@
       <c r="BF916" s="9"/>
       <c r="BG916" s="9"/>
     </row>
-    <row r="917" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="9"/>
       <c r="B917" s="9"/>
       <c r="C917" s="10"/>
@@ -59621,7 +59782,7 @@
       <c r="BF917" s="9"/>
       <c r="BG917" s="9"/>
     </row>
-    <row r="918" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="9"/>
       <c r="B918" s="9"/>
       <c r="C918" s="10"/>
@@ -59682,7 +59843,7 @@
       <c r="BF918" s="9"/>
       <c r="BG918" s="9"/>
     </row>
-    <row r="919" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="9"/>
       <c r="B919" s="9"/>
       <c r="C919" s="10"/>
@@ -59743,7 +59904,7 @@
       <c r="BF919" s="9"/>
       <c r="BG919" s="9"/>
     </row>
-    <row r="920" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="9"/>
       <c r="B920" s="9"/>
       <c r="C920" s="10"/>
@@ -59804,7 +59965,7 @@
       <c r="BF920" s="9"/>
       <c r="BG920" s="9"/>
     </row>
-    <row r="921" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="9"/>
       <c r="B921" s="9"/>
       <c r="C921" s="10"/>
@@ -59865,7 +60026,7 @@
       <c r="BF921" s="9"/>
       <c r="BG921" s="9"/>
     </row>
-    <row r="922" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="9"/>
       <c r="B922" s="9"/>
       <c r="C922" s="10"/>
@@ -59926,7 +60087,7 @@
       <c r="BF922" s="9"/>
       <c r="BG922" s="9"/>
     </row>
-    <row r="923" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="9"/>
       <c r="B923" s="9"/>
       <c r="C923" s="10"/>
@@ -59987,7 +60148,7 @@
       <c r="BF923" s="9"/>
       <c r="BG923" s="9"/>
     </row>
-    <row r="924" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="9"/>
       <c r="B924" s="9"/>
       <c r="C924" s="10"/>
@@ -60048,7 +60209,7 @@
       <c r="BF924" s="9"/>
       <c r="BG924" s="9"/>
     </row>
-    <row r="925" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="9"/>
       <c r="B925" s="9"/>
       <c r="C925" s="10"/>
@@ -60109,7 +60270,7 @@
       <c r="BF925" s="9"/>
       <c r="BG925" s="9"/>
     </row>
-    <row r="926" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="9"/>
       <c r="B926" s="9"/>
       <c r="C926" s="10"/>
@@ -60170,7 +60331,7 @@
       <c r="BF926" s="9"/>
       <c r="BG926" s="9"/>
     </row>
-    <row r="927" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="9"/>
       <c r="B927" s="9"/>
       <c r="C927" s="10"/>
@@ -60231,7 +60392,7 @@
       <c r="BF927" s="9"/>
       <c r="BG927" s="9"/>
     </row>
-    <row r="928" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="9"/>
       <c r="B928" s="9"/>
       <c r="C928" s="10"/>
@@ -60292,7 +60453,7 @@
       <c r="BF928" s="9"/>
       <c r="BG928" s="9"/>
     </row>
-    <row r="929" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="9"/>
       <c r="B929" s="9"/>
       <c r="C929" s="10"/>
@@ -60353,7 +60514,7 @@
       <c r="BF929" s="9"/>
       <c r="BG929" s="9"/>
     </row>
-    <row r="930" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="9"/>
       <c r="B930" s="9"/>
       <c r="C930" s="10"/>
@@ -60414,7 +60575,7 @@
       <c r="BF930" s="9"/>
       <c r="BG930" s="9"/>
     </row>
-    <row r="931" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="9"/>
       <c r="B931" s="9"/>
       <c r="C931" s="10"/>
@@ -60475,7 +60636,7 @@
       <c r="BF931" s="9"/>
       <c r="BG931" s="9"/>
     </row>
-    <row r="932" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="9"/>
       <c r="B932" s="9"/>
       <c r="C932" s="10"/>
@@ -60536,7 +60697,7 @@
       <c r="BF932" s="9"/>
       <c r="BG932" s="9"/>
     </row>
-    <row r="933" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="9"/>
       <c r="B933" s="9"/>
       <c r="C933" s="10"/>
@@ -60597,7 +60758,7 @@
       <c r="BF933" s="9"/>
       <c r="BG933" s="9"/>
     </row>
-    <row r="934" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="9"/>
       <c r="B934" s="9"/>
       <c r="C934" s="10"/>
@@ -60658,7 +60819,7 @@
       <c r="BF934" s="9"/>
       <c r="BG934" s="9"/>
     </row>
-    <row r="935" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="9"/>
       <c r="B935" s="9"/>
       <c r="C935" s="10"/>
@@ -60719,7 +60880,7 @@
       <c r="BF935" s="9"/>
       <c r="BG935" s="9"/>
     </row>
-    <row r="936" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="9"/>
       <c r="B936" s="9"/>
       <c r="C936" s="10"/>
@@ -60780,7 +60941,7 @@
       <c r="BF936" s="9"/>
       <c r="BG936" s="9"/>
     </row>
-    <row r="937" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="9"/>
       <c r="B937" s="9"/>
       <c r="C937" s="10"/>
@@ -60841,7 +61002,7 @@
       <c r="BF937" s="9"/>
       <c r="BG937" s="9"/>
     </row>
-    <row r="938" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="9"/>
       <c r="B938" s="9"/>
       <c r="C938" s="10"/>
@@ -60902,7 +61063,7 @@
       <c r="BF938" s="9"/>
       <c r="BG938" s="9"/>
     </row>
-    <row r="939" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="9"/>
       <c r="B939" s="9"/>
       <c r="C939" s="10"/>
@@ -60963,7 +61124,7 @@
       <c r="BF939" s="9"/>
       <c r="BG939" s="9"/>
     </row>
-    <row r="940" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="9"/>
       <c r="B940" s="9"/>
       <c r="C940" s="10"/>
@@ -61024,7 +61185,7 @@
       <c r="BF940" s="9"/>
       <c r="BG940" s="9"/>
     </row>
-    <row r="941" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="9"/>
       <c r="B941" s="9"/>
       <c r="C941" s="10"/>
@@ -61085,7 +61246,7 @@
       <c r="BF941" s="9"/>
       <c r="BG941" s="9"/>
     </row>
-    <row r="942" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="9"/>
       <c r="B942" s="9"/>
       <c r="C942" s="10"/>
@@ -61146,7 +61307,7 @@
       <c r="BF942" s="9"/>
       <c r="BG942" s="9"/>
     </row>
-    <row r="943" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="9"/>
       <c r="B943" s="9"/>
       <c r="C943" s="10"/>
@@ -61207,7 +61368,7 @@
       <c r="BF943" s="9"/>
       <c r="BG943" s="9"/>
     </row>
-    <row r="944" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="9"/>
       <c r="B944" s="9"/>
       <c r="C944" s="10"/>
@@ -61268,7 +61429,7 @@
       <c r="BF944" s="9"/>
       <c r="BG944" s="9"/>
     </row>
-    <row r="945" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="9"/>
       <c r="B945" s="9"/>
       <c r="C945" s="10"/>
@@ -61329,7 +61490,7 @@
       <c r="BF945" s="9"/>
       <c r="BG945" s="9"/>
     </row>
-    <row r="946" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="9"/>
       <c r="B946" s="9"/>
       <c r="C946" s="10"/>
@@ -61390,7 +61551,7 @@
       <c r="BF946" s="9"/>
       <c r="BG946" s="9"/>
     </row>
-    <row r="947" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="9"/>
       <c r="B947" s="9"/>
       <c r="C947" s="10"/>
@@ -61451,7 +61612,7 @@
       <c r="BF947" s="9"/>
       <c r="BG947" s="9"/>
     </row>
-    <row r="948" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="9"/>
       <c r="B948" s="9"/>
       <c r="C948" s="10"/>
@@ -61512,7 +61673,7 @@
       <c r="BF948" s="9"/>
       <c r="BG948" s="9"/>
     </row>
-    <row r="949" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="9"/>
       <c r="B949" s="9"/>
       <c r="C949" s="10"/>
@@ -61573,7 +61734,7 @@
       <c r="BF949" s="9"/>
       <c r="BG949" s="9"/>
     </row>
-    <row r="950" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="9"/>
       <c r="B950" s="9"/>
       <c r="C950" s="10"/>
@@ -61634,7 +61795,7 @@
       <c r="BF950" s="9"/>
       <c r="BG950" s="9"/>
     </row>
-    <row r="951" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="9"/>
       <c r="B951" s="9"/>
       <c r="C951" s="10"/>
@@ -61695,7 +61856,7 @@
       <c r="BF951" s="9"/>
       <c r="BG951" s="9"/>
     </row>
-    <row r="952" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="9"/>
       <c r="B952" s="9"/>
       <c r="C952" s="10"/>
@@ -61756,7 +61917,7 @@
       <c r="BF952" s="9"/>
       <c r="BG952" s="9"/>
     </row>
-    <row r="953" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="9"/>
       <c r="B953" s="9"/>
       <c r="C953" s="10"/>
@@ -61817,7 +61978,7 @@
       <c r="BF953" s="9"/>
       <c r="BG953" s="9"/>
     </row>
-    <row r="954" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="9"/>
       <c r="B954" s="9"/>
       <c r="C954" s="10"/>
@@ -61878,7 +62039,7 @@
       <c r="BF954" s="9"/>
       <c r="BG954" s="9"/>
     </row>
-    <row r="955" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="9"/>
       <c r="B955" s="9"/>
       <c r="C955" s="10"/>
@@ -61939,7 +62100,7 @@
       <c r="BF955" s="9"/>
       <c r="BG955" s="9"/>
     </row>
-    <row r="956" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="9"/>
       <c r="B956" s="9"/>
       <c r="C956" s="10"/>
@@ -62000,7 +62161,7 @@
       <c r="BF956" s="9"/>
       <c r="BG956" s="9"/>
     </row>
-    <row r="957" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="9"/>
       <c r="B957" s="9"/>
       <c r="C957" s="10"/>
@@ -62061,7 +62222,7 @@
       <c r="BF957" s="9"/>
       <c r="BG957" s="9"/>
     </row>
-    <row r="958" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="9"/>
       <c r="B958" s="9"/>
       <c r="C958" s="10"/>
@@ -62122,7 +62283,7 @@
       <c r="BF958" s="9"/>
       <c r="BG958" s="9"/>
     </row>
-    <row r="959" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="9"/>
       <c r="B959" s="9"/>
       <c r="C959" s="10"/>
@@ -62183,7 +62344,7 @@
       <c r="BF959" s="9"/>
       <c r="BG959" s="9"/>
     </row>
-    <row r="960" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="9"/>
       <c r="B960" s="9"/>
       <c r="C960" s="10"/>
@@ -62244,7 +62405,7 @@
       <c r="BF960" s="9"/>
       <c r="BG960" s="9"/>
     </row>
-    <row r="961" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="9"/>
       <c r="B961" s="9"/>
       <c r="C961" s="10"/>
@@ -62305,7 +62466,7 @@
       <c r="BF961" s="9"/>
       <c r="BG961" s="9"/>
     </row>
-    <row r="962" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="9"/>
       <c r="B962" s="9"/>
       <c r="C962" s="10"/>
@@ -62366,7 +62527,7 @@
       <c r="BF962" s="9"/>
       <c r="BG962" s="9"/>
     </row>
-    <row r="963" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="9"/>
       <c r="B963" s="9"/>
       <c r="C963" s="10"/>
@@ -62427,7 +62588,7 @@
       <c r="BF963" s="9"/>
       <c r="BG963" s="9"/>
     </row>
-    <row r="964" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="9"/>
       <c r="B964" s="9"/>
       <c r="C964" s="10"/>
@@ -62488,7 +62649,7 @@
       <c r="BF964" s="9"/>
       <c r="BG964" s="9"/>
     </row>
-    <row r="965" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="9"/>
       <c r="B965" s="9"/>
       <c r="C965" s="10"/>
@@ -62549,7 +62710,7 @@
       <c r="BF965" s="9"/>
       <c r="BG965" s="9"/>
     </row>
-    <row r="966" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="9"/>
       <c r="B966" s="9"/>
       <c r="C966" s="10"/>
@@ -62610,7 +62771,7 @@
       <c r="BF966" s="9"/>
       <c r="BG966" s="9"/>
     </row>
-    <row r="967" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="9"/>
       <c r="B967" s="9"/>
       <c r="C967" s="10"/>
@@ -62671,7 +62832,7 @@
       <c r="BF967" s="9"/>
       <c r="BG967" s="9"/>
     </row>
-    <row r="968" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="9"/>
       <c r="B968" s="9"/>
       <c r="C968" s="10"/>
@@ -62732,7 +62893,7 @@
       <c r="BF968" s="9"/>
       <c r="BG968" s="9"/>
     </row>
-    <row r="969" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="9"/>
       <c r="B969" s="9"/>
       <c r="C969" s="10"/>
@@ -62793,7 +62954,7 @@
       <c r="BF969" s="9"/>
       <c r="BG969" s="9"/>
     </row>
-    <row r="970" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="9"/>
       <c r="B970" s="9"/>
       <c r="C970" s="10"/>
@@ -62854,7 +63015,7 @@
       <c r="BF970" s="9"/>
       <c r="BG970" s="9"/>
     </row>
-    <row r="971" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="9"/>
       <c r="B971" s="9"/>
       <c r="C971" s="10"/>
@@ -62915,7 +63076,7 @@
       <c r="BF971" s="9"/>
       <c r="BG971" s="9"/>
     </row>
-    <row r="972" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="9"/>
       <c r="B972" s="9"/>
       <c r="C972" s="10"/>
@@ -62976,7 +63137,7 @@
       <c r="BF972" s="9"/>
       <c r="BG972" s="9"/>
     </row>
-    <row r="973" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="9"/>
       <c r="B973" s="9"/>
       <c r="C973" s="10"/>
